--- a/Code/Results/Cases/Case_4_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_53/res_bus/vm_pu.xlsx
@@ -421,7 +421,7 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9989902589142559</v>
+        <v>0.9989902589142551</v>
       </c>
       <c r="D2">
         <v>1.017297401507651</v>
@@ -430,25 +430,25 @@
         <v>1.007172624307828</v>
       </c>
       <c r="F2">
-        <v>1.014901406763143</v>
+        <v>1.014901406763142</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045140194470786</v>
+        <v>1.045140194470785</v>
       </c>
       <c r="J2">
-        <v>1.021201213165881</v>
+        <v>1.02120121316588</v>
       </c>
       <c r="K2">
-        <v>1.028520903101437</v>
+        <v>1.028520903101436</v>
       </c>
       <c r="L2">
         <v>1.018532929389829</v>
       </c>
       <c r="M2">
-        <v>1.026156972633063</v>
+        <v>1.026156972633062</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.006852822003416</v>
+        <v>1.006852822003418</v>
       </c>
       <c r="D3">
-        <v>1.023291006655363</v>
+        <v>1.023291006655365</v>
       </c>
       <c r="E3">
-        <v>1.014509968004385</v>
+        <v>1.014509968004387</v>
       </c>
       <c r="F3">
-        <v>1.022268211207596</v>
+        <v>1.022268211207598</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048114737648306</v>
+        <v>1.048114737648308</v>
       </c>
       <c r="J3">
-        <v>1.027158399612635</v>
+        <v>1.027158399612638</v>
       </c>
       <c r="K3">
-        <v>1.033634301670837</v>
+        <v>1.033634301670839</v>
       </c>
       <c r="L3">
-        <v>1.024960497265864</v>
+        <v>1.024960497265867</v>
       </c>
       <c r="M3">
-        <v>1.032623878882118</v>
+        <v>1.03262387888212</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011776154804847</v>
+        <v>1.011776154804849</v>
       </c>
       <c r="D4">
-        <v>1.027046129774111</v>
+        <v>1.027046129774112</v>
       </c>
       <c r="E4">
-        <v>1.01911020659218</v>
+        <v>1.019110206592181</v>
       </c>
       <c r="F4">
-        <v>1.026888340137681</v>
+        <v>1.026888340137682</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049962803241066</v>
+        <v>1.049962803241067</v>
       </c>
       <c r="J4">
-        <v>1.030883348084451</v>
+        <v>1.030883348084452</v>
       </c>
       <c r="K4">
-        <v>1.036828732652951</v>
+        <v>1.036828732652952</v>
       </c>
       <c r="L4">
-        <v>1.028983332218654</v>
+        <v>1.028983332218655</v>
       </c>
       <c r="M4">
-        <v>1.036672726074058</v>
+        <v>1.036672726074059</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,13 +535,13 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013808944545462</v>
+        <v>1.013808944545461</v>
       </c>
       <c r="D5">
-        <v>1.028596958297806</v>
+        <v>1.028596958297805</v>
       </c>
       <c r="E5">
-        <v>1.021010907055238</v>
+        <v>1.021010907055237</v>
       </c>
       <c r="F5">
         <v>1.028797580270736</v>
@@ -550,16 +550,16 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050722298958537</v>
+        <v>1.050722298958536</v>
       </c>
       <c r="J5">
-        <v>1.032420002343248</v>
+        <v>1.032420002343247</v>
       </c>
       <c r="K5">
-        <v>1.038145807766769</v>
+        <v>1.038145807766768</v>
       </c>
       <c r="L5">
-        <v>1.03064378033338</v>
+        <v>1.030643780333379</v>
       </c>
       <c r="M5">
         <v>1.03834422829194</v>
@@ -573,13 +573,13 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014148154696009</v>
+        <v>1.01414815469601</v>
       </c>
       <c r="D6">
-        <v>1.028855762929209</v>
+        <v>1.02885576292921</v>
       </c>
       <c r="E6">
-        <v>1.021328150709987</v>
+        <v>1.021328150709988</v>
       </c>
       <c r="F6">
         <v>1.029116267656866</v>
@@ -588,10 +588,10 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05084882474292</v>
+        <v>1.050848824742921</v>
       </c>
       <c r="J6">
-        <v>1.032676342278966</v>
+        <v>1.032676342278967</v>
       </c>
       <c r="K6">
         <v>1.038365474803679</v>
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.011803459399497</v>
+        <v>1.011803459399496</v>
       </c>
       <c r="D7">
-        <v>1.027066959276071</v>
+        <v>1.027066959276069</v>
       </c>
       <c r="E7">
-        <v>1.01913573184923</v>
+        <v>1.019135731849229</v>
       </c>
       <c r="F7">
-        <v>1.02691397882853</v>
+        <v>1.026913978828529</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.04997301899398</v>
       </c>
       <c r="J7">
-        <v>1.030903993923287</v>
+        <v>1.030903993923286</v>
       </c>
       <c r="K7">
-        <v>1.036846431223992</v>
+        <v>1.03684643122399</v>
       </c>
       <c r="L7">
-        <v>1.029005637702605</v>
+        <v>1.029005637702604</v>
       </c>
       <c r="M7">
-        <v>1.036695178815863</v>
+        <v>1.036695178815861</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.001682946023205</v>
+        <v>1.001682946023203</v>
       </c>
       <c r="D8">
-        <v>1.019349510144518</v>
+        <v>1.019349510144516</v>
       </c>
       <c r="E8">
-        <v>1.009684168276245</v>
+        <v>1.009684168276244</v>
       </c>
       <c r="F8">
-        <v>1.017422722761536</v>
+        <v>1.017422722761535</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046161911221995</v>
+        <v>1.046161911221994</v>
       </c>
       <c r="J8">
-        <v>1.023242441976082</v>
+        <v>1.02324244197608</v>
       </c>
       <c r="K8">
-        <v>1.030273606736376</v>
+        <v>1.030273606736375</v>
       </c>
       <c r="L8">
-        <v>1.020734539945167</v>
+        <v>1.020734539945165</v>
       </c>
       <c r="M8">
-        <v>1.028371752636437</v>
+        <v>1.028371752636436</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9824728462531019</v>
+        <v>0.982472846253104</v>
       </c>
       <c r="D9">
-        <v>1.004724085438833</v>
+        <v>1.004724085438835</v>
       </c>
       <c r="E9">
-        <v>0.9917950923794469</v>
+        <v>0.9917950923794492</v>
       </c>
       <c r="F9">
-        <v>0.9994711159670101</v>
+        <v>0.9994711159670122</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038812706746844</v>
+        <v>1.038812706746845</v>
       </c>
       <c r="J9">
-        <v>1.008660085983817</v>
+        <v>1.008660085983819</v>
       </c>
       <c r="K9">
-        <v>1.017740979822867</v>
+        <v>1.01774097982287</v>
       </c>
       <c r="L9">
-        <v>1.005022706110841</v>
+        <v>1.005022706110843</v>
       </c>
       <c r="M9">
-        <v>1.012572779777625</v>
+        <v>1.012572779777627</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9685512016636005</v>
+        <v>0.9685512016636008</v>
       </c>
       <c r="D10">
-        <v>0.9941510634336117</v>
+        <v>0.994151063433612</v>
       </c>
       <c r="E10">
-        <v>0.9788723684608768</v>
+        <v>0.978872368460877</v>
       </c>
       <c r="F10">
-        <v>0.9865135185435343</v>
+        <v>0.986513518543535</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,13 +743,13 @@
         <v>1.033413185625985</v>
       </c>
       <c r="J10">
-        <v>0.9980706221728929</v>
+        <v>0.9980706221728933</v>
       </c>
       <c r="K10">
         <v>1.008626731407183</v>
       </c>
       <c r="L10">
-        <v>0.9936338623786801</v>
+        <v>0.9936338623786808</v>
       </c>
       <c r="M10">
         <v>1.001130621149326</v>
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9622076131653605</v>
+        <v>0.962207613165361</v>
       </c>
       <c r="D11">
-        <v>0.9893421836339704</v>
+        <v>0.9893421836339702</v>
       </c>
       <c r="E11">
-        <v>0.9729955647909188</v>
+        <v>0.9729955647909191</v>
       </c>
       <c r="F11">
-        <v>0.9806237616195034</v>
+        <v>0.9806237616195036</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.030936691502651</v>
       </c>
       <c r="J11">
-        <v>0.993241727329861</v>
+        <v>0.9932417273298613</v>
       </c>
       <c r="K11">
         <v>1.004467929038596</v>
       </c>
       <c r="L11">
-        <v>0.9884453691296323</v>
+        <v>0.9884453691296324</v>
       </c>
       <c r="M11">
-        <v>0.9959205759377772</v>
+        <v>0.9959205759377773</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.959798791552079</v>
+        <v>0.9597987915520797</v>
       </c>
       <c r="D12">
-        <v>0.9875177225563389</v>
+        <v>0.9875177225563394</v>
       </c>
       <c r="E12">
-        <v>0.9707659089507527</v>
+        <v>0.9707659089507535</v>
       </c>
       <c r="F12">
-        <v>0.9783896739947238</v>
+        <v>0.9783896739947248</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.029994012466008</v>
       </c>
       <c r="J12">
-        <v>0.9914076682449562</v>
+        <v>0.991407668244957</v>
       </c>
       <c r="K12">
-        <v>1.002888035208583</v>
+        <v>1.002888035208584</v>
       </c>
       <c r="L12">
-        <v>0.9864754695881104</v>
+        <v>0.9864754695881114</v>
       </c>
       <c r="M12">
-        <v>0.993942944760854</v>
+        <v>0.993942944760855</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9603179602940154</v>
+        <v>0.960317960294014</v>
       </c>
       <c r="D13">
-        <v>0.9879108687945911</v>
+        <v>0.9879108687945898</v>
       </c>
       <c r="E13">
-        <v>0.9712463730326877</v>
+        <v>0.9712463730326866</v>
       </c>
       <c r="F13">
-        <v>0.9788710704851347</v>
+        <v>0.978871070485133</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030197287354164</v>
+        <v>1.030197287354162</v>
       </c>
       <c r="J13">
-        <v>0.9918029752554581</v>
+        <v>0.9918029752554568</v>
       </c>
       <c r="K13">
-        <v>1.003228574823961</v>
+        <v>1.00322857482396</v>
       </c>
       <c r="L13">
-        <v>0.9869000219211939</v>
+        <v>0.986900021921193</v>
       </c>
       <c r="M13">
-        <v>0.9943691423735594</v>
+        <v>0.9943691423735579</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,13 +877,13 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9620096033749506</v>
+        <v>0.9620096033749508</v>
       </c>
       <c r="D14">
-        <v>0.9891921755295682</v>
+        <v>0.9891921755295684</v>
       </c>
       <c r="E14">
-        <v>0.9728122429059679</v>
+        <v>0.972812242905968</v>
       </c>
       <c r="F14">
         <v>0.9804400652854218</v>
@@ -895,16 +895,16 @@
         <v>1.030859247061813</v>
       </c>
       <c r="J14">
-        <v>0.9930909714349609</v>
+        <v>0.9930909714349612</v>
       </c>
       <c r="K14">
-        <v>1.004338071618195</v>
+        <v>1.004338071618196</v>
       </c>
       <c r="L14">
-        <v>0.9882834324822838</v>
+        <v>0.988283432482284</v>
       </c>
       <c r="M14">
-        <v>0.99575799432393</v>
+        <v>0.9957579943239302</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9630447525336651</v>
+        <v>0.9630447525336659</v>
       </c>
       <c r="D15">
-        <v>0.9899764493070116</v>
+        <v>0.9899764493070122</v>
       </c>
       <c r="E15">
-        <v>0.973770685933718</v>
+        <v>0.9737706859337195</v>
       </c>
       <c r="F15">
-        <v>0.9814004858949641</v>
+        <v>0.9814004858949652</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031264016425391</v>
+        <v>1.031264016425392</v>
       </c>
       <c r="J15">
-        <v>0.9938790726791189</v>
+        <v>0.9938790726791199</v>
       </c>
       <c r="K15">
-        <v>1.005016909086448</v>
+        <v>1.005016909086449</v>
       </c>
       <c r="L15">
-        <v>0.9891300129040348</v>
+        <v>0.9891300129040362</v>
       </c>
       <c r="M15">
-        <v>0.9966079650870204</v>
+        <v>0.9966079650870218</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9689651377100912</v>
+        <v>0.96896513771009</v>
       </c>
       <c r="D16">
-        <v>0.9944650596455612</v>
+        <v>0.9944650596455603</v>
       </c>
       <c r="E16">
-        <v>0.979256098986141</v>
+        <v>0.9792560989861397</v>
       </c>
       <c r="F16">
-        <v>0.9868981585819324</v>
+        <v>0.9868981585819311</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033574461337377</v>
+        <v>1.033574461337376</v>
       </c>
       <c r="J16">
-        <v>0.9983856565911809</v>
+        <v>0.9983856565911798</v>
       </c>
       <c r="K16">
-        <v>1.008897999499655</v>
+        <v>1.008897999499654</v>
       </c>
       <c r="L16">
-        <v>0.9939724582714685</v>
+        <v>0.9939724582714673</v>
       </c>
       <c r="M16">
-        <v>1.00147068318297</v>
+        <v>1.001470683182969</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.972590996963964</v>
+        <v>0.9725909969639644</v>
       </c>
       <c r="D17">
-        <v>0.997216523254301</v>
+        <v>0.9972165232543014</v>
       </c>
       <c r="E17">
-        <v>0.9826186974621959</v>
+        <v>0.9826186974621963</v>
       </c>
       <c r="F17">
-        <v>0.9902690588480666</v>
+        <v>0.9902690588480669</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1015,7 +1015,7 @@
         <v>1.011273533554223</v>
       </c>
       <c r="L17">
-        <v>0.9969385054888938</v>
+        <v>0.9969385054888944</v>
       </c>
       <c r="M17">
         <v>1.004449885426355</v>
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9746758509110169</v>
+        <v>0.9746758509110183</v>
       </c>
       <c r="D18">
-        <v>0.9987994141464294</v>
+        <v>0.9987994141464299</v>
       </c>
       <c r="E18">
-        <v>0.9845532519508624</v>
+        <v>0.9845532519508632</v>
       </c>
       <c r="F18">
-        <v>0.992208658393811</v>
+        <v>0.9922086583938117</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.035795089668138</v>
       </c>
       <c r="J18">
-        <v>1.002730934016533</v>
+        <v>1.002730934016534</v>
       </c>
       <c r="K18">
-        <v>1.012638903495973</v>
+        <v>1.012638903495974</v>
       </c>
       <c r="L18">
-        <v>0.9986440519487738</v>
+        <v>0.9986440519487748</v>
       </c>
       <c r="M18">
-        <v>1.006163249615936</v>
+        <v>1.006163249615937</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9753817793020008</v>
+        <v>0.9753817793020021</v>
       </c>
       <c r="D19">
-        <v>0.9993355089839278</v>
+        <v>0.9993355089839289</v>
       </c>
       <c r="E19">
-        <v>0.985208466748891</v>
+        <v>0.9852084667488925</v>
       </c>
       <c r="F19">
-        <v>0.9928656262683824</v>
+        <v>0.9928656262683833</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036069004552264</v>
+        <v>1.036069004552265</v>
       </c>
       <c r="J19">
-        <v>1.00326793479773</v>
+        <v>1.003267934797731</v>
       </c>
       <c r="K19">
-        <v>1.013101117198951</v>
+        <v>1.013101117198953</v>
       </c>
       <c r="L19">
-        <v>0.9992215570361263</v>
+        <v>0.9992215570361277</v>
       </c>
       <c r="M19">
-        <v>1.006743443705067</v>
+        <v>1.006743443705068</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,31 +1105,31 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9722051193236002</v>
+        <v>0.9722051193235989</v>
       </c>
       <c r="D20">
-        <v>0.996923616041412</v>
+        <v>0.9969236160414111</v>
       </c>
       <c r="E20">
-        <v>0.9822607241540137</v>
+        <v>0.9822607241540123</v>
       </c>
       <c r="F20">
-        <v>0.9899101734879879</v>
+        <v>0.9899101734879873</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034835356482533</v>
+        <v>1.034835356482532</v>
       </c>
       <c r="J20">
-        <v>1.000851192008736</v>
+        <v>1.000851192008735</v>
       </c>
       <c r="K20">
-        <v>1.011020776512524</v>
+        <v>1.011020776512523</v>
       </c>
       <c r="L20">
-        <v>0.9966228380204181</v>
+        <v>0.9966228380204167</v>
       </c>
       <c r="M20">
         <v>1.004132791304337</v>
@@ -1143,31 +1143,31 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9615129520047944</v>
+        <v>0.9615129520047938</v>
       </c>
       <c r="D21">
-        <v>0.9888159493021412</v>
+        <v>0.9888159493021411</v>
       </c>
       <c r="E21">
-        <v>0.9723524633783583</v>
+        <v>0.9723524633783573</v>
       </c>
       <c r="F21">
-        <v>0.9799793545476914</v>
+        <v>0.9799793545476913</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030664963322924</v>
+        <v>1.030664963322923</v>
       </c>
       <c r="J21">
-        <v>0.9927128370707042</v>
+        <v>0.9927128370707036</v>
       </c>
       <c r="K21">
         <v>1.004012350665963</v>
       </c>
       <c r="L21">
-        <v>0.9878772657858658</v>
+        <v>0.9878772657858647</v>
       </c>
       <c r="M21">
         <v>0.9953502173240845</v>
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9544832785925371</v>
+        <v>0.9544832785925381</v>
       </c>
       <c r="D22">
-        <v>0.9834949731756296</v>
+        <v>0.9834949731756301</v>
       </c>
       <c r="E22">
-        <v>0.9658495090787178</v>
+        <v>0.9658495090787189</v>
       </c>
       <c r="F22">
-        <v>0.9734644509777735</v>
+        <v>0.9734644509777741</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.027909743640821</v>
       </c>
       <c r="J22">
-        <v>0.987359905848797</v>
+        <v>0.987359905848798</v>
       </c>
       <c r="K22">
-        <v>0.9994006452475448</v>
+        <v>0.9994006452475452</v>
       </c>
       <c r="L22">
-        <v>0.9821292703035652</v>
+        <v>0.9821292703035661</v>
       </c>
       <c r="M22">
-        <v>0.9895805697101009</v>
+        <v>0.9895805697101013</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9582408825495344</v>
+        <v>0.9582408825495357</v>
       </c>
       <c r="D23">
-        <v>0.9863382343653516</v>
+        <v>0.9863382343653525</v>
       </c>
       <c r="E23">
-        <v>0.9693244392955085</v>
+        <v>0.9693244392955097</v>
       </c>
       <c r="F23">
-        <v>0.976945481669651</v>
+        <v>0.9769454816696521</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.029383705281844</v>
       </c>
       <c r="J23">
-        <v>0.9902213934143537</v>
+        <v>0.9902213934143547</v>
       </c>
       <c r="K23">
-        <v>1.001866065738443</v>
+        <v>1.001866065738444</v>
       </c>
       <c r="L23">
-        <v>0.9852015407373628</v>
+        <v>0.9852015407373638</v>
       </c>
       <c r="M23">
-        <v>0.9926641485226053</v>
+        <v>0.9926641485226065</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9723795732981564</v>
+        <v>0.9723795732981557</v>
       </c>
       <c r="D24">
-        <v>0.9970560358987812</v>
+        <v>0.9970560358987806</v>
       </c>
       <c r="E24">
-        <v>0.9824225593466932</v>
+        <v>0.9824225593466928</v>
       </c>
       <c r="F24">
-        <v>0.9900724201752655</v>
+        <v>0.9900724201752652</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1278,13 +1278,13 @@
         <v>1.00098392963957</v>
       </c>
       <c r="K24">
-        <v>1.011135048844768</v>
+        <v>1.011135048844767</v>
       </c>
       <c r="L24">
-        <v>0.9967655499712464</v>
+        <v>0.9967655499712458</v>
       </c>
       <c r="M24">
-        <v>1.00427614745475</v>
+        <v>1.004276147454749</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9876202533575542</v>
+        <v>0.987620253357551</v>
       </c>
       <c r="D25">
-        <v>1.008639375281489</v>
+        <v>1.008639375281486</v>
       </c>
       <c r="E25">
-        <v>0.9965819943144524</v>
+        <v>0.9965819943144492</v>
       </c>
       <c r="F25">
-        <v>1.00427313673925</v>
+        <v>1.004273136739248</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040794787718188</v>
+        <v>1.040794787718185</v>
       </c>
       <c r="J25">
-        <v>1.012571550712261</v>
+        <v>1.012571550712258</v>
       </c>
       <c r="K25">
-        <v>1.021105040289195</v>
+        <v>1.021105040289192</v>
       </c>
       <c r="L25">
-        <v>1.009233603164201</v>
+        <v>1.009233603164198</v>
       </c>
       <c r="M25">
-        <v>1.016805477965902</v>
+        <v>1.016805477965899</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_53/res_bus/vm_pu.xlsx
@@ -421,7 +421,7 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9989902589142551</v>
+        <v>0.9989902589142559</v>
       </c>
       <c r="D2">
         <v>1.017297401507651</v>
@@ -430,25 +430,25 @@
         <v>1.007172624307828</v>
       </c>
       <c r="F2">
-        <v>1.014901406763142</v>
+        <v>1.014901406763143</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045140194470785</v>
+        <v>1.045140194470786</v>
       </c>
       <c r="J2">
-        <v>1.02120121316588</v>
+        <v>1.021201213165881</v>
       </c>
       <c r="K2">
-        <v>1.028520903101436</v>
+        <v>1.028520903101437</v>
       </c>
       <c r="L2">
         <v>1.018532929389829</v>
       </c>
       <c r="M2">
-        <v>1.026156972633062</v>
+        <v>1.026156972633063</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.006852822003418</v>
+        <v>1.006852822003416</v>
       </c>
       <c r="D3">
-        <v>1.023291006655365</v>
+        <v>1.023291006655363</v>
       </c>
       <c r="E3">
-        <v>1.014509968004387</v>
+        <v>1.014509968004385</v>
       </c>
       <c r="F3">
-        <v>1.022268211207598</v>
+        <v>1.022268211207596</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048114737648308</v>
+        <v>1.048114737648306</v>
       </c>
       <c r="J3">
-        <v>1.027158399612638</v>
+        <v>1.027158399612635</v>
       </c>
       <c r="K3">
-        <v>1.033634301670839</v>
+        <v>1.033634301670837</v>
       </c>
       <c r="L3">
-        <v>1.024960497265867</v>
+        <v>1.024960497265864</v>
       </c>
       <c r="M3">
-        <v>1.03262387888212</v>
+        <v>1.032623878882118</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011776154804849</v>
+        <v>1.011776154804847</v>
       </c>
       <c r="D4">
-        <v>1.027046129774112</v>
+        <v>1.027046129774111</v>
       </c>
       <c r="E4">
-        <v>1.019110206592181</v>
+        <v>1.01911020659218</v>
       </c>
       <c r="F4">
-        <v>1.026888340137682</v>
+        <v>1.026888340137681</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049962803241067</v>
+        <v>1.049962803241066</v>
       </c>
       <c r="J4">
-        <v>1.030883348084452</v>
+        <v>1.030883348084451</v>
       </c>
       <c r="K4">
-        <v>1.036828732652952</v>
+        <v>1.036828732652951</v>
       </c>
       <c r="L4">
-        <v>1.028983332218655</v>
+        <v>1.028983332218654</v>
       </c>
       <c r="M4">
-        <v>1.036672726074059</v>
+        <v>1.036672726074058</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,13 +535,13 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013808944545461</v>
+        <v>1.013808944545462</v>
       </c>
       <c r="D5">
-        <v>1.028596958297805</v>
+        <v>1.028596958297806</v>
       </c>
       <c r="E5">
-        <v>1.021010907055237</v>
+        <v>1.021010907055238</v>
       </c>
       <c r="F5">
         <v>1.028797580270736</v>
@@ -550,16 +550,16 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050722298958536</v>
+        <v>1.050722298958537</v>
       </c>
       <c r="J5">
-        <v>1.032420002343247</v>
+        <v>1.032420002343248</v>
       </c>
       <c r="K5">
-        <v>1.038145807766768</v>
+        <v>1.038145807766769</v>
       </c>
       <c r="L5">
-        <v>1.030643780333379</v>
+        <v>1.03064378033338</v>
       </c>
       <c r="M5">
         <v>1.03834422829194</v>
@@ -573,13 +573,13 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.01414815469601</v>
+        <v>1.014148154696009</v>
       </c>
       <c r="D6">
-        <v>1.02885576292921</v>
+        <v>1.028855762929209</v>
       </c>
       <c r="E6">
-        <v>1.021328150709988</v>
+        <v>1.021328150709987</v>
       </c>
       <c r="F6">
         <v>1.029116267656866</v>
@@ -588,10 +588,10 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050848824742921</v>
+        <v>1.05084882474292</v>
       </c>
       <c r="J6">
-        <v>1.032676342278967</v>
+        <v>1.032676342278966</v>
       </c>
       <c r="K6">
         <v>1.038365474803679</v>
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.011803459399496</v>
+        <v>1.011803459399497</v>
       </c>
       <c r="D7">
-        <v>1.027066959276069</v>
+        <v>1.027066959276071</v>
       </c>
       <c r="E7">
-        <v>1.019135731849229</v>
+        <v>1.01913573184923</v>
       </c>
       <c r="F7">
-        <v>1.026913978828529</v>
+        <v>1.02691397882853</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.04997301899398</v>
       </c>
       <c r="J7">
-        <v>1.030903993923286</v>
+        <v>1.030903993923287</v>
       </c>
       <c r="K7">
-        <v>1.03684643122399</v>
+        <v>1.036846431223992</v>
       </c>
       <c r="L7">
-        <v>1.029005637702604</v>
+        <v>1.029005637702605</v>
       </c>
       <c r="M7">
-        <v>1.036695178815861</v>
+        <v>1.036695178815863</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.001682946023203</v>
+        <v>1.001682946023205</v>
       </c>
       <c r="D8">
-        <v>1.019349510144516</v>
+        <v>1.019349510144518</v>
       </c>
       <c r="E8">
-        <v>1.009684168276244</v>
+        <v>1.009684168276245</v>
       </c>
       <c r="F8">
-        <v>1.017422722761535</v>
+        <v>1.017422722761536</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046161911221994</v>
+        <v>1.046161911221995</v>
       </c>
       <c r="J8">
-        <v>1.02324244197608</v>
+        <v>1.023242441976082</v>
       </c>
       <c r="K8">
-        <v>1.030273606736375</v>
+        <v>1.030273606736376</v>
       </c>
       <c r="L8">
-        <v>1.020734539945165</v>
+        <v>1.020734539945167</v>
       </c>
       <c r="M8">
-        <v>1.028371752636436</v>
+        <v>1.028371752636437</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.982472846253104</v>
+        <v>0.9824728462531019</v>
       </c>
       <c r="D9">
-        <v>1.004724085438835</v>
+        <v>1.004724085438833</v>
       </c>
       <c r="E9">
-        <v>0.9917950923794492</v>
+        <v>0.9917950923794469</v>
       </c>
       <c r="F9">
-        <v>0.9994711159670122</v>
+        <v>0.9994711159670101</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038812706746845</v>
+        <v>1.038812706746844</v>
       </c>
       <c r="J9">
-        <v>1.008660085983819</v>
+        <v>1.008660085983817</v>
       </c>
       <c r="K9">
-        <v>1.01774097982287</v>
+        <v>1.017740979822867</v>
       </c>
       <c r="L9">
-        <v>1.005022706110843</v>
+        <v>1.005022706110841</v>
       </c>
       <c r="M9">
-        <v>1.012572779777627</v>
+        <v>1.012572779777625</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9685512016636008</v>
+        <v>0.9685512016636005</v>
       </c>
       <c r="D10">
-        <v>0.994151063433612</v>
+        <v>0.9941510634336117</v>
       </c>
       <c r="E10">
-        <v>0.978872368460877</v>
+        <v>0.9788723684608768</v>
       </c>
       <c r="F10">
-        <v>0.986513518543535</v>
+        <v>0.9865135185435343</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,13 +743,13 @@
         <v>1.033413185625985</v>
       </c>
       <c r="J10">
-        <v>0.9980706221728933</v>
+        <v>0.9980706221728929</v>
       </c>
       <c r="K10">
         <v>1.008626731407183</v>
       </c>
       <c r="L10">
-        <v>0.9936338623786808</v>
+        <v>0.9936338623786801</v>
       </c>
       <c r="M10">
         <v>1.001130621149326</v>
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.962207613165361</v>
+        <v>0.9622076131653605</v>
       </c>
       <c r="D11">
-        <v>0.9893421836339702</v>
+        <v>0.9893421836339704</v>
       </c>
       <c r="E11">
-        <v>0.9729955647909191</v>
+        <v>0.9729955647909188</v>
       </c>
       <c r="F11">
-        <v>0.9806237616195036</v>
+        <v>0.9806237616195034</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.030936691502651</v>
       </c>
       <c r="J11">
-        <v>0.9932417273298613</v>
+        <v>0.993241727329861</v>
       </c>
       <c r="K11">
         <v>1.004467929038596</v>
       </c>
       <c r="L11">
-        <v>0.9884453691296324</v>
+        <v>0.9884453691296323</v>
       </c>
       <c r="M11">
-        <v>0.9959205759377773</v>
+        <v>0.9959205759377772</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9597987915520797</v>
+        <v>0.959798791552079</v>
       </c>
       <c r="D12">
-        <v>0.9875177225563394</v>
+        <v>0.9875177225563389</v>
       </c>
       <c r="E12">
-        <v>0.9707659089507535</v>
+        <v>0.9707659089507527</v>
       </c>
       <c r="F12">
-        <v>0.9783896739947248</v>
+        <v>0.9783896739947238</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.029994012466008</v>
       </c>
       <c r="J12">
-        <v>0.991407668244957</v>
+        <v>0.9914076682449562</v>
       </c>
       <c r="K12">
-        <v>1.002888035208584</v>
+        <v>1.002888035208583</v>
       </c>
       <c r="L12">
-        <v>0.9864754695881114</v>
+        <v>0.9864754695881104</v>
       </c>
       <c r="M12">
-        <v>0.993942944760855</v>
+        <v>0.993942944760854</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.960317960294014</v>
+        <v>0.9603179602940154</v>
       </c>
       <c r="D13">
-        <v>0.9879108687945898</v>
+        <v>0.9879108687945911</v>
       </c>
       <c r="E13">
-        <v>0.9712463730326866</v>
+        <v>0.9712463730326877</v>
       </c>
       <c r="F13">
-        <v>0.978871070485133</v>
+        <v>0.9788710704851347</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030197287354162</v>
+        <v>1.030197287354164</v>
       </c>
       <c r="J13">
-        <v>0.9918029752554568</v>
+        <v>0.9918029752554581</v>
       </c>
       <c r="K13">
-        <v>1.00322857482396</v>
+        <v>1.003228574823961</v>
       </c>
       <c r="L13">
-        <v>0.986900021921193</v>
+        <v>0.9869000219211939</v>
       </c>
       <c r="M13">
-        <v>0.9943691423735579</v>
+        <v>0.9943691423735594</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,13 +877,13 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9620096033749508</v>
+        <v>0.9620096033749506</v>
       </c>
       <c r="D14">
-        <v>0.9891921755295684</v>
+        <v>0.9891921755295682</v>
       </c>
       <c r="E14">
-        <v>0.972812242905968</v>
+        <v>0.9728122429059679</v>
       </c>
       <c r="F14">
         <v>0.9804400652854218</v>
@@ -895,16 +895,16 @@
         <v>1.030859247061813</v>
       </c>
       <c r="J14">
-        <v>0.9930909714349612</v>
+        <v>0.9930909714349609</v>
       </c>
       <c r="K14">
-        <v>1.004338071618196</v>
+        <v>1.004338071618195</v>
       </c>
       <c r="L14">
-        <v>0.988283432482284</v>
+        <v>0.9882834324822838</v>
       </c>
       <c r="M14">
-        <v>0.9957579943239302</v>
+        <v>0.99575799432393</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9630447525336659</v>
+        <v>0.9630447525336651</v>
       </c>
       <c r="D15">
-        <v>0.9899764493070122</v>
+        <v>0.9899764493070116</v>
       </c>
       <c r="E15">
-        <v>0.9737706859337195</v>
+        <v>0.973770685933718</v>
       </c>
       <c r="F15">
-        <v>0.9814004858949652</v>
+        <v>0.9814004858949641</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031264016425392</v>
+        <v>1.031264016425391</v>
       </c>
       <c r="J15">
-        <v>0.9938790726791199</v>
+        <v>0.9938790726791189</v>
       </c>
       <c r="K15">
-        <v>1.005016909086449</v>
+        <v>1.005016909086448</v>
       </c>
       <c r="L15">
-        <v>0.9891300129040362</v>
+        <v>0.9891300129040348</v>
       </c>
       <c r="M15">
-        <v>0.9966079650870218</v>
+        <v>0.9966079650870204</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.96896513771009</v>
+        <v>0.9689651377100912</v>
       </c>
       <c r="D16">
-        <v>0.9944650596455603</v>
+        <v>0.9944650596455612</v>
       </c>
       <c r="E16">
-        <v>0.9792560989861397</v>
+        <v>0.979256098986141</v>
       </c>
       <c r="F16">
-        <v>0.9868981585819311</v>
+        <v>0.9868981585819324</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033574461337376</v>
+        <v>1.033574461337377</v>
       </c>
       <c r="J16">
-        <v>0.9983856565911798</v>
+        <v>0.9983856565911809</v>
       </c>
       <c r="K16">
-        <v>1.008897999499654</v>
+        <v>1.008897999499655</v>
       </c>
       <c r="L16">
-        <v>0.9939724582714673</v>
+        <v>0.9939724582714685</v>
       </c>
       <c r="M16">
-        <v>1.001470683182969</v>
+        <v>1.00147068318297</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9725909969639644</v>
+        <v>0.972590996963964</v>
       </c>
       <c r="D17">
-        <v>0.9972165232543014</v>
+        <v>0.997216523254301</v>
       </c>
       <c r="E17">
-        <v>0.9826186974621963</v>
+        <v>0.9826186974621959</v>
       </c>
       <c r="F17">
-        <v>0.9902690588480669</v>
+        <v>0.9902690588480666</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1015,7 +1015,7 @@
         <v>1.011273533554223</v>
       </c>
       <c r="L17">
-        <v>0.9969385054888944</v>
+        <v>0.9969385054888938</v>
       </c>
       <c r="M17">
         <v>1.004449885426355</v>
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9746758509110183</v>
+        <v>0.9746758509110169</v>
       </c>
       <c r="D18">
-        <v>0.9987994141464299</v>
+        <v>0.9987994141464294</v>
       </c>
       <c r="E18">
-        <v>0.9845532519508632</v>
+        <v>0.9845532519508624</v>
       </c>
       <c r="F18">
-        <v>0.9922086583938117</v>
+        <v>0.992208658393811</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.035795089668138</v>
       </c>
       <c r="J18">
-        <v>1.002730934016534</v>
+        <v>1.002730934016533</v>
       </c>
       <c r="K18">
-        <v>1.012638903495974</v>
+        <v>1.012638903495973</v>
       </c>
       <c r="L18">
-        <v>0.9986440519487748</v>
+        <v>0.9986440519487738</v>
       </c>
       <c r="M18">
-        <v>1.006163249615937</v>
+        <v>1.006163249615936</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9753817793020021</v>
+        <v>0.9753817793020008</v>
       </c>
       <c r="D19">
-        <v>0.9993355089839289</v>
+        <v>0.9993355089839278</v>
       </c>
       <c r="E19">
-        <v>0.9852084667488925</v>
+        <v>0.985208466748891</v>
       </c>
       <c r="F19">
-        <v>0.9928656262683833</v>
+        <v>0.9928656262683824</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036069004552265</v>
+        <v>1.036069004552264</v>
       </c>
       <c r="J19">
-        <v>1.003267934797731</v>
+        <v>1.00326793479773</v>
       </c>
       <c r="K19">
-        <v>1.013101117198953</v>
+        <v>1.013101117198951</v>
       </c>
       <c r="L19">
-        <v>0.9992215570361277</v>
+        <v>0.9992215570361263</v>
       </c>
       <c r="M19">
-        <v>1.006743443705068</v>
+        <v>1.006743443705067</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,31 +1105,31 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9722051193235989</v>
+        <v>0.9722051193236002</v>
       </c>
       <c r="D20">
-        <v>0.9969236160414111</v>
+        <v>0.996923616041412</v>
       </c>
       <c r="E20">
-        <v>0.9822607241540123</v>
+        <v>0.9822607241540137</v>
       </c>
       <c r="F20">
-        <v>0.9899101734879873</v>
+        <v>0.9899101734879879</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034835356482532</v>
+        <v>1.034835356482533</v>
       </c>
       <c r="J20">
-        <v>1.000851192008735</v>
+        <v>1.000851192008736</v>
       </c>
       <c r="K20">
-        <v>1.011020776512523</v>
+        <v>1.011020776512524</v>
       </c>
       <c r="L20">
-        <v>0.9966228380204167</v>
+        <v>0.9966228380204181</v>
       </c>
       <c r="M20">
         <v>1.004132791304337</v>
@@ -1143,31 +1143,31 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9615129520047938</v>
+        <v>0.9615129520047944</v>
       </c>
       <c r="D21">
-        <v>0.9888159493021411</v>
+        <v>0.9888159493021412</v>
       </c>
       <c r="E21">
-        <v>0.9723524633783573</v>
+        <v>0.9723524633783583</v>
       </c>
       <c r="F21">
-        <v>0.9799793545476913</v>
+        <v>0.9799793545476914</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030664963322923</v>
+        <v>1.030664963322924</v>
       </c>
       <c r="J21">
-        <v>0.9927128370707036</v>
+        <v>0.9927128370707042</v>
       </c>
       <c r="K21">
         <v>1.004012350665963</v>
       </c>
       <c r="L21">
-        <v>0.9878772657858647</v>
+        <v>0.9878772657858658</v>
       </c>
       <c r="M21">
         <v>0.9953502173240845</v>
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9544832785925381</v>
+        <v>0.9544832785925371</v>
       </c>
       <c r="D22">
-        <v>0.9834949731756301</v>
+        <v>0.9834949731756296</v>
       </c>
       <c r="E22">
-        <v>0.9658495090787189</v>
+        <v>0.9658495090787178</v>
       </c>
       <c r="F22">
-        <v>0.9734644509777741</v>
+        <v>0.9734644509777735</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.027909743640821</v>
       </c>
       <c r="J22">
-        <v>0.987359905848798</v>
+        <v>0.987359905848797</v>
       </c>
       <c r="K22">
-        <v>0.9994006452475452</v>
+        <v>0.9994006452475448</v>
       </c>
       <c r="L22">
-        <v>0.9821292703035661</v>
+        <v>0.9821292703035652</v>
       </c>
       <c r="M22">
-        <v>0.9895805697101013</v>
+        <v>0.9895805697101009</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9582408825495357</v>
+        <v>0.9582408825495344</v>
       </c>
       <c r="D23">
-        <v>0.9863382343653525</v>
+        <v>0.9863382343653516</v>
       </c>
       <c r="E23">
-        <v>0.9693244392955097</v>
+        <v>0.9693244392955085</v>
       </c>
       <c r="F23">
-        <v>0.9769454816696521</v>
+        <v>0.976945481669651</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.029383705281844</v>
       </c>
       <c r="J23">
-        <v>0.9902213934143547</v>
+        <v>0.9902213934143537</v>
       </c>
       <c r="K23">
-        <v>1.001866065738444</v>
+        <v>1.001866065738443</v>
       </c>
       <c r="L23">
-        <v>0.9852015407373638</v>
+        <v>0.9852015407373628</v>
       </c>
       <c r="M23">
-        <v>0.9926641485226065</v>
+        <v>0.9926641485226053</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9723795732981557</v>
+        <v>0.9723795732981564</v>
       </c>
       <c r="D24">
-        <v>0.9970560358987806</v>
+        <v>0.9970560358987812</v>
       </c>
       <c r="E24">
-        <v>0.9824225593466928</v>
+        <v>0.9824225593466932</v>
       </c>
       <c r="F24">
-        <v>0.9900724201752652</v>
+        <v>0.9900724201752655</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1278,13 +1278,13 @@
         <v>1.00098392963957</v>
       </c>
       <c r="K24">
-        <v>1.011135048844767</v>
+        <v>1.011135048844768</v>
       </c>
       <c r="L24">
-        <v>0.9967655499712458</v>
+        <v>0.9967655499712464</v>
       </c>
       <c r="M24">
-        <v>1.004276147454749</v>
+        <v>1.00427614745475</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.987620253357551</v>
+        <v>0.9876202533575542</v>
       </c>
       <c r="D25">
-        <v>1.008639375281486</v>
+        <v>1.008639375281489</v>
       </c>
       <c r="E25">
-        <v>0.9965819943144492</v>
+        <v>0.9965819943144524</v>
       </c>
       <c r="F25">
-        <v>1.004273136739248</v>
+        <v>1.00427313673925</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040794787718185</v>
+        <v>1.040794787718188</v>
       </c>
       <c r="J25">
-        <v>1.012571550712258</v>
+        <v>1.012571550712261</v>
       </c>
       <c r="K25">
-        <v>1.021105040289192</v>
+        <v>1.021105040289195</v>
       </c>
       <c r="L25">
-        <v>1.009233603164198</v>
+        <v>1.009233603164201</v>
       </c>
       <c r="M25">
-        <v>1.016805477965899</v>
+        <v>1.016805477965902</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_53/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9989902589142559</v>
+        <v>0.9990056385399695</v>
       </c>
       <c r="D2">
-        <v>1.017297401507651</v>
+        <v>1.017310810175353</v>
       </c>
       <c r="E2">
-        <v>1.007172624307828</v>
+        <v>1.007187899542203</v>
       </c>
       <c r="F2">
-        <v>1.014901406763143</v>
+        <v>1.014914897797329</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045140194470786</v>
+        <v>1.045147949971067</v>
       </c>
       <c r="J2">
-        <v>1.021201213165881</v>
+        <v>1.021216131519065</v>
       </c>
       <c r="K2">
-        <v>1.028520903101437</v>
+        <v>1.028534132862018</v>
       </c>
       <c r="L2">
-        <v>1.018532929389829</v>
+        <v>1.01854799562033</v>
       </c>
       <c r="M2">
-        <v>1.026156972633063</v>
+        <v>1.026170282591623</v>
+      </c>
+      <c r="N2">
+        <v>1.01466233682476</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.006852822003416</v>
+        <v>1.006862203753512</v>
       </c>
       <c r="D3">
-        <v>1.023291006655363</v>
+        <v>1.023299567439607</v>
       </c>
       <c r="E3">
-        <v>1.014509968004385</v>
+        <v>1.014519297822348</v>
       </c>
       <c r="F3">
-        <v>1.022268211207596</v>
+        <v>1.022276633561666</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048114737648306</v>
+        <v>1.048119662942221</v>
       </c>
       <c r="J3">
-        <v>1.027158399612635</v>
+        <v>1.027167530318239</v>
       </c>
       <c r="K3">
-        <v>1.033634301670837</v>
+        <v>1.033642759025687</v>
       </c>
       <c r="L3">
-        <v>1.024960497265864</v>
+        <v>1.02496971192188</v>
       </c>
       <c r="M3">
-        <v>1.032623878882118</v>
+        <v>1.032632199226214</v>
+      </c>
+      <c r="N3">
+        <v>1.018932342667779</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011776154804847</v>
+        <v>1.011781861626959</v>
       </c>
       <c r="D4">
-        <v>1.027046129774111</v>
+        <v>1.027051715148918</v>
       </c>
       <c r="E4">
-        <v>1.01911020659218</v>
+        <v>1.019115886096059</v>
       </c>
       <c r="F4">
-        <v>1.026888340137681</v>
+        <v>1.026893660612717</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049962803241066</v>
+        <v>1.049965988186156</v>
       </c>
       <c r="J4">
-        <v>1.030883348084451</v>
+        <v>1.03088891346847</v>
       </c>
       <c r="K4">
-        <v>1.036828732652951</v>
+        <v>1.036834254924169</v>
       </c>
       <c r="L4">
-        <v>1.028983332218654</v>
+        <v>1.028988946315602</v>
       </c>
       <c r="M4">
-        <v>1.036672726074058</v>
+        <v>1.036677986415557</v>
+      </c>
+      <c r="N4">
+        <v>1.021598019080104</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013808944545462</v>
+        <v>1.013813151177781</v>
       </c>
       <c r="D5">
-        <v>1.028596958297806</v>
+        <v>1.028601328047424</v>
       </c>
       <c r="E5">
-        <v>1.021010907055238</v>
+        <v>1.021015094817024</v>
       </c>
       <c r="F5">
-        <v>1.028797580270736</v>
+        <v>1.028801635369816</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050722298958537</v>
+        <v>1.050724772107333</v>
       </c>
       <c r="J5">
-        <v>1.032420002343248</v>
+        <v>1.032424108100896</v>
       </c>
       <c r="K5">
-        <v>1.038145807766769</v>
+        <v>1.03815012955539</v>
       </c>
       <c r="L5">
-        <v>1.03064378033338</v>
+        <v>1.030647921287231</v>
       </c>
       <c r="M5">
-        <v>1.03834422829194</v>
+        <v>1.038348238904829</v>
+      </c>
+      <c r="N5">
+        <v>1.022696629958111</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014148154696009</v>
+        <v>1.014152111941189</v>
       </c>
       <c r="D6">
-        <v>1.028855762929209</v>
+        <v>1.028859930544408</v>
       </c>
       <c r="E6">
-        <v>1.021328150709987</v>
+        <v>1.021332090400346</v>
       </c>
       <c r="F6">
-        <v>1.029116267656866</v>
+        <v>1.029120112455085</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05084882474292</v>
+        <v>1.050851179489839</v>
       </c>
       <c r="J6">
-        <v>1.032676342278966</v>
+        <v>1.032680205158223</v>
       </c>
       <c r="K6">
-        <v>1.038365474803679</v>
+        <v>1.038369596900295</v>
       </c>
       <c r="L6">
-        <v>1.030920824629856</v>
+        <v>1.030924720507353</v>
       </c>
       <c r="M6">
-        <v>1.038623135175605</v>
+        <v>1.038626938007118</v>
+      </c>
+      <c r="N6">
+        <v>1.022879833564849</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.011803459399497</v>
+        <v>1.011809146005799</v>
       </c>
       <c r="D7">
-        <v>1.027066959276071</v>
+        <v>1.027072528273394</v>
       </c>
       <c r="E7">
-        <v>1.01913573184923</v>
+        <v>1.019141391257242</v>
       </c>
       <c r="F7">
-        <v>1.02691397882853</v>
+        <v>1.026919282248501</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04997301899398</v>
+        <v>1.049976194352413</v>
       </c>
       <c r="J7">
-        <v>1.030903993923287</v>
+        <v>1.030909539654195</v>
       </c>
       <c r="K7">
-        <v>1.036846431223992</v>
+        <v>1.036851937326896</v>
       </c>
       <c r="L7">
-        <v>1.029005637702605</v>
+        <v>1.029011231960941</v>
       </c>
       <c r="M7">
-        <v>1.036695178815863</v>
+        <v>1.036700422318747</v>
+      </c>
+      <c r="N7">
+        <v>1.021612783796125</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.001682946023205</v>
+        <v>1.001696253009364</v>
       </c>
       <c r="D8">
-        <v>1.019349510144518</v>
+        <v>1.019361244808246</v>
       </c>
       <c r="E8">
-        <v>1.009684168276245</v>
+        <v>1.00969739075072</v>
       </c>
       <c r="F8">
-        <v>1.017422722761536</v>
+        <v>1.017434461445367</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046161911221995</v>
+        <v>1.046168690158997</v>
       </c>
       <c r="J8">
-        <v>1.023242441976082</v>
+        <v>1.023255364737027</v>
       </c>
       <c r="K8">
-        <v>1.030273606736376</v>
+        <v>1.030285189910841</v>
       </c>
       <c r="L8">
-        <v>1.020734539945167</v>
+        <v>1.020747587600283</v>
       </c>
       <c r="M8">
-        <v>1.028371752636437</v>
+        <v>1.028383339059842</v>
+      </c>
+      <c r="N8">
+        <v>1.016126344980395</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9824728462531019</v>
+        <v>0.982501402767378</v>
       </c>
       <c r="D9">
-        <v>1.004724085438833</v>
+        <v>1.004748101915007</v>
       </c>
       <c r="E9">
-        <v>0.9917950923794469</v>
+        <v>0.9918233734078205</v>
       </c>
       <c r="F9">
-        <v>0.9994711159670101</v>
+        <v>0.9994957648177314</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038812706746844</v>
+        <v>1.038826634265947</v>
       </c>
       <c r="J9">
-        <v>1.008660085983817</v>
+        <v>1.008687582840574</v>
       </c>
       <c r="K9">
-        <v>1.017740979822867</v>
+        <v>1.017764611345257</v>
       </c>
       <c r="L9">
-        <v>1.005022706110841</v>
+        <v>1.00505051849163</v>
       </c>
       <c r="M9">
-        <v>1.012572779777625</v>
+        <v>1.012597028186833</v>
+      </c>
+      <c r="N9">
+        <v>1.005650197879007</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9685512016636005</v>
+        <v>0.9685915622852227</v>
       </c>
       <c r="D10">
-        <v>0.9941510634336117</v>
+        <v>0.9941845249317661</v>
       </c>
       <c r="E10">
-        <v>0.9788723684608768</v>
+        <v>0.9789122325624353</v>
       </c>
       <c r="F10">
-        <v>0.9865135185435343</v>
+        <v>0.9865481828785658</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033413185625985</v>
+        <v>1.033432587555326</v>
       </c>
       <c r="J10">
-        <v>0.9980706221728929</v>
+        <v>0.9981092292170139</v>
       </c>
       <c r="K10">
-        <v>1.008626731407183</v>
+        <v>1.008659579480641</v>
       </c>
       <c r="L10">
-        <v>0.9936338623786801</v>
+        <v>0.9936729655332436</v>
       </c>
       <c r="M10">
-        <v>1.001130621149326</v>
+        <v>1.001164637100844</v>
+      </c>
+      <c r="N10">
+        <v>0.9980218755786343</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9622076131653605</v>
+        <v>0.9622535939735456</v>
       </c>
       <c r="D11">
-        <v>0.9893421836339704</v>
+        <v>0.9893801210319215</v>
       </c>
       <c r="E11">
-        <v>0.9729955647909188</v>
+        <v>0.9730409208049989</v>
       </c>
       <c r="F11">
-        <v>0.9806237616195034</v>
+        <v>0.9806631994780748</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030936691502651</v>
+        <v>1.030958681575951</v>
       </c>
       <c r="J11">
-        <v>0.993241727329861</v>
+        <v>0.9932855726480442</v>
       </c>
       <c r="K11">
-        <v>1.004467929038596</v>
+        <v>1.004505130681262</v>
       </c>
       <c r="L11">
-        <v>0.9884453691296323</v>
+        <v>0.9884898061513485</v>
       </c>
       <c r="M11">
-        <v>0.9959205759377772</v>
+        <v>0.9959592309637171</v>
+      </c>
+      <c r="N11">
+        <v>0.9945389643536241</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.959798791552079</v>
+        <v>0.9598469494358532</v>
       </c>
       <c r="D12">
-        <v>0.9875177225563389</v>
+        <v>0.9875573899577665</v>
       </c>
       <c r="E12">
-        <v>0.9707659089507527</v>
+        <v>0.9708133883259089</v>
       </c>
       <c r="F12">
-        <v>0.9783896739947238</v>
+        <v>0.9784309616411035</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029994012466008</v>
+        <v>1.030017001916278</v>
       </c>
       <c r="J12">
-        <v>0.9914076682449562</v>
+        <v>0.9914535339018595</v>
       </c>
       <c r="K12">
-        <v>1.002888035208583</v>
+        <v>1.002926917233016</v>
       </c>
       <c r="L12">
-        <v>0.9864754695881104</v>
+        <v>0.9865219655874553</v>
       </c>
       <c r="M12">
-        <v>0.993942944760854</v>
+        <v>0.9939833947316817</v>
+      </c>
+      <c r="N12">
+        <v>0.9932155310616961</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9603179602940154</v>
+        <v>0.9603656468981006</v>
       </c>
       <c r="D13">
-        <v>0.9879108687945911</v>
+        <v>0.9879501618786174</v>
       </c>
       <c r="E13">
-        <v>0.9712463730326877</v>
+        <v>0.9712933929469045</v>
       </c>
       <c r="F13">
-        <v>0.9788710704851347</v>
+        <v>0.9789119576716636</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030197287354164</v>
+        <v>1.030220060616349</v>
       </c>
       <c r="J13">
-        <v>0.9918029752554581</v>
+        <v>0.9918484039760017</v>
       </c>
       <c r="K13">
-        <v>1.003228574823961</v>
+        <v>1.003267093376619</v>
       </c>
       <c r="L13">
-        <v>0.9869000219211939</v>
+        <v>0.9869460725446858</v>
       </c>
       <c r="M13">
-        <v>0.9943691423735594</v>
+        <v>0.9944092038859061</v>
+      </c>
+      <c r="N13">
+        <v>0.9935008051387696</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9620096033749506</v>
+        <v>0.9620557622299443</v>
       </c>
       <c r="D14">
-        <v>0.9891921755295682</v>
+        <v>0.9892302544924079</v>
       </c>
       <c r="E14">
-        <v>0.9728122429059679</v>
+        <v>0.9728577726584706</v>
       </c>
       <c r="F14">
-        <v>0.9804400652854218</v>
+        <v>0.9804796544111033</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030859247061813</v>
+        <v>1.030881318933483</v>
       </c>
       <c r="J14">
-        <v>0.9930909714349609</v>
+        <v>0.9931349821651194</v>
       </c>
       <c r="K14">
-        <v>1.004338071618195</v>
+        <v>1.004375410813714</v>
       </c>
       <c r="L14">
-        <v>0.9882834324822838</v>
+        <v>0.9883280380425822</v>
       </c>
       <c r="M14">
-        <v>0.99575799432393</v>
+        <v>0.9957967961891764</v>
+      </c>
+      <c r="N14">
+        <v>0.9944301924662478</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9630447525336651</v>
+        <v>0.9630899823874522</v>
       </c>
       <c r="D15">
-        <v>0.9899764493070116</v>
+        <v>0.9900137894641127</v>
       </c>
       <c r="E15">
-        <v>0.973770685933718</v>
+        <v>0.9738153089994647</v>
       </c>
       <c r="F15">
-        <v>0.9814004858949641</v>
+        <v>0.9814392857758376</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031264016425391</v>
+        <v>1.031285661363887</v>
       </c>
       <c r="J15">
-        <v>0.9938790726791189</v>
+        <v>0.9939222199726558</v>
       </c>
       <c r="K15">
-        <v>1.005016909086448</v>
+        <v>1.00505353031881</v>
       </c>
       <c r="L15">
-        <v>0.9891300129040348</v>
+        <v>0.9891737387796953</v>
       </c>
       <c r="M15">
-        <v>0.9966079650870204</v>
+        <v>0.9966460006975639</v>
+      </c>
+      <c r="N15">
+        <v>0.9949987917731347</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9689651377100912</v>
+        <v>0.969005137111317</v>
       </c>
       <c r="D16">
-        <v>0.9944650596455612</v>
+        <v>0.9944982329911061</v>
       </c>
       <c r="E16">
-        <v>0.979256098986141</v>
+        <v>0.9792956096006543</v>
       </c>
       <c r="F16">
-        <v>0.9868981585819324</v>
+        <v>0.9869325162089376</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033574461337377</v>
+        <v>1.033593696516287</v>
       </c>
       <c r="J16">
-        <v>0.9983856565911809</v>
+        <v>0.9984239258338796</v>
       </c>
       <c r="K16">
-        <v>1.008897999499655</v>
+        <v>1.008930566992448</v>
       </c>
       <c r="L16">
-        <v>0.9939724582714685</v>
+        <v>0.9940112176885402</v>
       </c>
       <c r="M16">
-        <v>1.00147068318297</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.001504400711891</v>
+      </c>
+      <c r="N16">
+        <v>0.9982490142905436</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.972590996963964</v>
+        <v>0.9726278600648894</v>
       </c>
       <c r="D17">
-        <v>0.997216523254301</v>
+        <v>0.9972471923336027</v>
       </c>
       <c r="E17">
-        <v>0.9826186974621959</v>
+        <v>0.9826551363362598</v>
       </c>
       <c r="F17">
-        <v>0.9902690588480666</v>
+        <v>0.9903007540171876</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034985351749153</v>
+        <v>1.035003137059273</v>
       </c>
       <c r="J17">
-        <v>1.001144794127901</v>
+        <v>1.001180124641986</v>
       </c>
       <c r="K17">
-        <v>1.011273533554223</v>
+        <v>1.011303661015185</v>
       </c>
       <c r="L17">
-        <v>0.9969385054888938</v>
+        <v>0.9969742757099198</v>
       </c>
       <c r="M17">
-        <v>1.004449885426355</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.00448101060461</v>
+      </c>
+      <c r="N17">
+        <v>1.0002378630654</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9746758509110169</v>
+        <v>0.9747109327545065</v>
       </c>
       <c r="D18">
-        <v>0.9987994141464294</v>
+        <v>0.9988286590566936</v>
       </c>
       <c r="E18">
-        <v>0.9845532519508624</v>
+        <v>0.9845879441754403</v>
       </c>
       <c r="F18">
-        <v>0.992208658393811</v>
+        <v>0.9922388418783741</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035795089668138</v>
+        <v>1.035812049886814</v>
       </c>
       <c r="J18">
-        <v>1.002730934016533</v>
+        <v>1.002764590863664</v>
       </c>
       <c r="K18">
-        <v>1.012638903495973</v>
+        <v>1.012667642048778</v>
       </c>
       <c r="L18">
-        <v>0.9986440519487738</v>
+        <v>0.9986781207042351</v>
       </c>
       <c r="M18">
-        <v>1.006163249615936</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.006192901453655</v>
+      </c>
+      <c r="N18">
+        <v>1.001380780042284</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9753817793020008</v>
+        <v>0.9754162615879055</v>
       </c>
       <c r="D19">
-        <v>0.9993355089839278</v>
+        <v>0.999364274228729</v>
       </c>
       <c r="E19">
-        <v>0.985208466748891</v>
+        <v>0.9852425707302218</v>
       </c>
       <c r="F19">
-        <v>0.9928656262683824</v>
+        <v>0.992895301009963</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036069004552264</v>
+        <v>1.036085686784494</v>
       </c>
       <c r="J19">
-        <v>1.00326793479773</v>
+        <v>1.003301027545691</v>
       </c>
       <c r="K19">
-        <v>1.013101117198951</v>
+        <v>1.01312938775316</v>
       </c>
       <c r="L19">
-        <v>0.9992215570361263</v>
+        <v>0.9992550524777841</v>
       </c>
       <c r="M19">
-        <v>1.006743443705067</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.006772599464161</v>
+      </c>
+      <c r="N19">
+        <v>1.001767653131467</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9722051193236002</v>
+        <v>0.9722423138598771</v>
       </c>
       <c r="D20">
-        <v>0.996923616041412</v>
+        <v>0.9969545499644922</v>
       </c>
       <c r="E20">
-        <v>0.9822607241540137</v>
+        <v>0.9822974878596675</v>
       </c>
       <c r="F20">
-        <v>0.9899101734879879</v>
+        <v>0.9899421499709449</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034835356482533</v>
+        <v>1.034853295184863</v>
       </c>
       <c r="J20">
-        <v>1.000851192008736</v>
+        <v>1.000886833568959</v>
       </c>
       <c r="K20">
-        <v>1.011020776512524</v>
+        <v>1.011051162158059</v>
       </c>
       <c r="L20">
-        <v>0.9966228380204181</v>
+        <v>0.99665892452944</v>
       </c>
       <c r="M20">
-        <v>1.004132791304337</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.004164190543587</v>
+      </c>
+      <c r="N20">
+        <v>1.000026270119498</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9615129520047944</v>
+        <v>0.9615595581547524</v>
       </c>
       <c r="D21">
-        <v>0.9888159493021412</v>
+        <v>0.988854383845563</v>
       </c>
       <c r="E21">
-        <v>0.9723524633783583</v>
+        <v>0.9723984295357523</v>
       </c>
       <c r="F21">
-        <v>0.9799793545476914</v>
+        <v>0.9800193237021467</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030664963322924</v>
+        <v>1.030687240638633</v>
       </c>
       <c r="J21">
-        <v>0.9927128370707042</v>
+        <v>0.9927572632097719</v>
       </c>
       <c r="K21">
-        <v>1.004012350665963</v>
+        <v>1.004050035326477</v>
       </c>
       <c r="L21">
-        <v>0.9878772657858658</v>
+        <v>0.9879222946361458</v>
       </c>
       <c r="M21">
-        <v>0.9953502173240845</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9953893880492215</v>
+      </c>
+      <c r="N21">
+        <v>0.9941573554494034</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9544832785925371</v>
+        <v>0.9545363286243723</v>
       </c>
       <c r="D22">
-        <v>0.9834949731756296</v>
+        <v>0.9835385201672721</v>
       </c>
       <c r="E22">
-        <v>0.9658495090787178</v>
+        <v>0.9659017516775505</v>
       </c>
       <c r="F22">
-        <v>0.9734644509777735</v>
+        <v>0.9735098964928814</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027909743640821</v>
+        <v>1.02793497232813</v>
       </c>
       <c r="J22">
-        <v>0.987359905848797</v>
+        <v>0.9874102937302468</v>
       </c>
       <c r="K22">
-        <v>0.9994006452475448</v>
+        <v>0.999443290952462</v>
       </c>
       <c r="L22">
-        <v>0.9821292703035652</v>
+        <v>0.9821803785553864</v>
       </c>
       <c r="M22">
-        <v>0.9895805697101009</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9896250487949808</v>
+      </c>
+      <c r="N22">
+        <v>0.9902936970992008</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,75 +1282,81 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9582408825495344</v>
+        <v>0.958290461527237</v>
       </c>
       <c r="D23">
-        <v>0.9863382343653516</v>
+        <v>0.9863790298658247</v>
       </c>
       <c r="E23">
-        <v>0.9693244392955085</v>
+        <v>0.9693733034871987</v>
       </c>
       <c r="F23">
-        <v>0.976945481669651</v>
+        <v>0.9769879769538432</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029383705281844</v>
+        <v>1.029407346120163</v>
       </c>
       <c r="J23">
-        <v>0.9902213934143537</v>
+        <v>0.9902685752264787</v>
       </c>
       <c r="K23">
-        <v>1.001866065738443</v>
+        <v>1.00190604281404</v>
       </c>
       <c r="L23">
-        <v>0.9852015407373628</v>
+        <v>0.9852493785901298</v>
       </c>
       <c r="M23">
-        <v>0.9926641485226053</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9927057695122418</v>
+      </c>
+      <c r="N23">
+        <v>0.9923593717452798</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C24">
-        <v>0.9723795732981564</v>
+        <v>0.9724166179254109</v>
       </c>
       <c r="D24">
-        <v>0.9970560358987812</v>
+        <v>0.9970868500381834</v>
       </c>
       <c r="E24">
-        <v>0.9824225593466932</v>
+        <v>0.9824591761366165</v>
       </c>
       <c r="F24">
-        <v>0.9900724201752655</v>
+        <v>0.9901042694178603</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03490317356409</v>
+        <v>1.034921042891843</v>
       </c>
       <c r="J24">
-        <v>1.00098392963957</v>
+        <v>1.001019430527224</v>
       </c>
       <c r="K24">
-        <v>1.011135048844768</v>
+        <v>1.011165317722401</v>
       </c>
       <c r="L24">
-        <v>0.9967655499712464</v>
+        <v>0.9968014934341063</v>
       </c>
       <c r="M24">
-        <v>1.00427614745475</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.004307422738698</v>
+      </c>
+      <c r="N24">
+        <v>1.000121932646112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9876202533575542</v>
+        <v>0.9876446136422835</v>
       </c>
       <c r="D25">
-        <v>1.008639375281489</v>
+        <v>1.00866002056844</v>
       </c>
       <c r="E25">
-        <v>0.9965819943144524</v>
+        <v>0.9966061421171505</v>
       </c>
       <c r="F25">
-        <v>1.00427313673925</v>
+        <v>1.00429422939979</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040794787718188</v>
+        <v>1.040806756649234</v>
       </c>
       <c r="J25">
-        <v>1.012571550712261</v>
+        <v>1.012595062209787</v>
       </c>
       <c r="K25">
-        <v>1.021105040289195</v>
+        <v>1.021125372052449</v>
       </c>
       <c r="L25">
-        <v>1.009233603164201</v>
+        <v>1.009257372819201</v>
       </c>
       <c r="M25">
-        <v>1.016805477965902</v>
+        <v>1.016826246745034</v>
+      </c>
+      <c r="N25">
+        <v>1.00846392265059</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_53/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9990056385399695</v>
+        <v>1.019791161006299</v>
       </c>
       <c r="D2">
-        <v>1.017310810175353</v>
+        <v>1.032663735570787</v>
       </c>
       <c r="E2">
-        <v>1.007187899542203</v>
+        <v>1.036516347361334</v>
       </c>
       <c r="F2">
-        <v>1.014914897797329</v>
+        <v>1.04130940596658</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045147949971067</v>
+        <v>1.049108376243553</v>
       </c>
       <c r="J2">
-        <v>1.021216131519065</v>
+        <v>1.041395616406966</v>
       </c>
       <c r="K2">
-        <v>1.028534132862018</v>
+        <v>1.04368602223178</v>
       </c>
       <c r="L2">
-        <v>1.01854799562033</v>
+        <v>1.047489354538043</v>
       </c>
       <c r="M2">
-        <v>1.026170282591623</v>
+        <v>1.052221739293539</v>
       </c>
       <c r="N2">
-        <v>1.01466233682476</v>
+        <v>1.042874517632011</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.006862203753512</v>
+        <v>1.027814884655548</v>
       </c>
       <c r="D3">
-        <v>1.023299567439607</v>
+        <v>1.038837502456065</v>
       </c>
       <c r="E3">
-        <v>1.014519297822348</v>
+        <v>1.044162878190113</v>
       </c>
       <c r="F3">
-        <v>1.022276633561666</v>
+        <v>1.049144713558847</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048119662942221</v>
+        <v>1.05176011575365</v>
       </c>
       <c r="J3">
-        <v>1.027167530318239</v>
+        <v>1.047574974949604</v>
       </c>
       <c r="K3">
-        <v>1.033642759025687</v>
+        <v>1.048996443345355</v>
       </c>
       <c r="L3">
-        <v>1.02496971192188</v>
+        <v>1.054260228558879</v>
       </c>
       <c r="M3">
-        <v>1.032632199226214</v>
+        <v>1.059185144733414</v>
       </c>
       <c r="N3">
-        <v>1.018932342667779</v>
+        <v>1.049062651572562</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011781861626959</v>
+        <v>1.032843403488739</v>
       </c>
       <c r="D4">
-        <v>1.027051715148918</v>
+        <v>1.042708374541642</v>
       </c>
       <c r="E4">
-        <v>1.019115886096059</v>
+        <v>1.04896083169576</v>
       </c>
       <c r="F4">
-        <v>1.026893660612717</v>
+        <v>1.054061831843962</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049965988186156</v>
+        <v>1.053409180543358</v>
       </c>
       <c r="J4">
-        <v>1.03088891346847</v>
+        <v>1.051442716160994</v>
       </c>
       <c r="K4">
-        <v>1.036834254924169</v>
+        <v>1.052317287445313</v>
       </c>
       <c r="L4">
-        <v>1.028988946315602</v>
+        <v>1.058502182119269</v>
       </c>
       <c r="M4">
-        <v>1.036677986415557</v>
+        <v>1.06354878876428</v>
       </c>
       <c r="N4">
-        <v>1.021598019080104</v>
+        <v>1.052935885420107</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013813151177781</v>
+        <v>1.034920613798089</v>
       </c>
       <c r="D5">
-        <v>1.028601328047424</v>
+        <v>1.04430767805569</v>
       </c>
       <c r="E5">
-        <v>1.021015094817024</v>
+        <v>1.050944125688026</v>
       </c>
       <c r="F5">
-        <v>1.028801635369816</v>
+        <v>1.056094557677842</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050724772107333</v>
+        <v>1.054087250416439</v>
       </c>
       <c r="J5">
-        <v>1.032424108100896</v>
+        <v>1.053039185780766</v>
       </c>
       <c r="K5">
-        <v>1.03815012955539</v>
+        <v>1.053687265534297</v>
       </c>
       <c r="L5">
-        <v>1.030647921287231</v>
+        <v>1.060254071723265</v>
       </c>
       <c r="M5">
-        <v>1.038348238904829</v>
+        <v>1.065351192035783</v>
       </c>
       <c r="N5">
-        <v>1.022696629958111</v>
+        <v>1.054534622209857</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014152111941189</v>
+        <v>1.035267293709258</v>
       </c>
       <c r="D6">
-        <v>1.028859930544408</v>
+        <v>1.044574611315682</v>
       </c>
       <c r="E6">
-        <v>1.021332090400346</v>
+        <v>1.051275207367696</v>
       </c>
       <c r="F6">
-        <v>1.029120112455085</v>
+        <v>1.056433901552758</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050851179489839</v>
+        <v>1.054200231906519</v>
       </c>
       <c r="J6">
-        <v>1.032680205158223</v>
+        <v>1.053305556882173</v>
       </c>
       <c r="K6">
-        <v>1.038369596900295</v>
+        <v>1.053915801538343</v>
       </c>
       <c r="L6">
-        <v>1.030924720507353</v>
+        <v>1.060546431153247</v>
       </c>
       <c r="M6">
-        <v>1.038626938007118</v>
+        <v>1.065651996398071</v>
       </c>
       <c r="N6">
-        <v>1.022879833564849</v>
+        <v>1.054801371588781</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.011809146005799</v>
+        <v>1.03287130086435</v>
       </c>
       <c r="D7">
-        <v>1.027072528273394</v>
+        <v>1.042729852482618</v>
       </c>
       <c r="E7">
-        <v>1.019141391257242</v>
+        <v>1.048987462590158</v>
       </c>
       <c r="F7">
-        <v>1.026919282248501</v>
+        <v>1.054089125799478</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049976194352413</v>
+        <v>1.053418299664161</v>
       </c>
       <c r="J7">
-        <v>1.030909539654195</v>
+        <v>1.051464162076801</v>
       </c>
       <c r="K7">
-        <v>1.036851937326896</v>
+        <v>1.052335693834779</v>
       </c>
       <c r="L7">
-        <v>1.029011231960941</v>
+        <v>1.058525712043589</v>
       </c>
       <c r="M7">
-        <v>1.036700422318747</v>
+        <v>1.063572996130132</v>
       </c>
       <c r="N7">
-        <v>1.021612783796125</v>
+        <v>1.052957361791575</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.001696253009364</v>
+        <v>1.022538114799762</v>
       </c>
       <c r="D8">
-        <v>1.019361244808246</v>
+        <v>1.03477690935156</v>
       </c>
       <c r="E8">
-        <v>1.00969739075072</v>
+        <v>1.039132891666484</v>
       </c>
       <c r="F8">
-        <v>1.017434461445367</v>
+        <v>1.043990398133536</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046168690158997</v>
+        <v>1.050018872973974</v>
       </c>
       <c r="J8">
-        <v>1.023255364737027</v>
+        <v>1.043512139756975</v>
       </c>
       <c r="K8">
-        <v>1.030285189910841</v>
+        <v>1.0455055424459</v>
       </c>
       <c r="L8">
-        <v>1.020747587600283</v>
+        <v>1.049807642642876</v>
       </c>
       <c r="M8">
-        <v>1.028383339059842</v>
+        <v>1.054605722324342</v>
       </c>
       <c r="N8">
-        <v>1.016126344980395</v>
+        <v>1.044994046687945</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.982501402767378</v>
+        <v>1.002961170172301</v>
       </c>
       <c r="D9">
-        <v>1.004748101915007</v>
+        <v>1.019729661181303</v>
       </c>
       <c r="E9">
-        <v>0.9918233734078205</v>
+        <v>1.02051395540767</v>
       </c>
       <c r="F9">
-        <v>0.9994957648177314</v>
+        <v>1.024915844637944</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038826634265947</v>
+        <v>1.043477333499226</v>
       </c>
       <c r="J9">
-        <v>1.008687582840574</v>
+        <v>1.028409793484336</v>
       </c>
       <c r="K9">
-        <v>1.017764611345257</v>
+        <v>1.032510547725172</v>
       </c>
       <c r="L9">
-        <v>1.00505051849163</v>
+        <v>1.033282750227274</v>
       </c>
       <c r="M9">
-        <v>1.012597028186833</v>
+        <v>1.037617211919342</v>
       </c>
       <c r="N9">
-        <v>1.005650197879007</v>
+        <v>1.029870253351336</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9685915622852227</v>
+        <v>0.9888021998241618</v>
       </c>
       <c r="D10">
-        <v>0.9941845249317661</v>
+        <v>1.008870202636061</v>
       </c>
       <c r="E10">
-        <v>0.9789122325624353</v>
+        <v>1.007088938938117</v>
       </c>
       <c r="F10">
-        <v>0.9865481828785658</v>
+        <v>1.011166012913601</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033432587555326</v>
+        <v>1.038682206825086</v>
       </c>
       <c r="J10">
-        <v>0.9981092292170139</v>
+        <v>1.017467249906691</v>
       </c>
       <c r="K10">
-        <v>1.008659579480641</v>
+        <v>1.023081128673834</v>
       </c>
       <c r="L10">
-        <v>0.9936729655332436</v>
+        <v>1.021331369237862</v>
       </c>
       <c r="M10">
-        <v>1.001164637100844</v>
+        <v>1.025336546324976</v>
       </c>
       <c r="N10">
-        <v>0.9980218755786343</v>
+        <v>1.018912170106683</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9622535939735456</v>
+        <v>0.9823582069240566</v>
       </c>
       <c r="D11">
-        <v>0.9893801210319215</v>
+        <v>1.003935967506313</v>
       </c>
       <c r="E11">
-        <v>0.9730409208049989</v>
+        <v>1.000990348842839</v>
       </c>
       <c r="F11">
-        <v>0.9806631994780748</v>
+        <v>1.00492070444798</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030958681575951</v>
+        <v>1.036485965399783</v>
       </c>
       <c r="J11">
-        <v>0.9932855726480442</v>
+        <v>1.012483778329645</v>
       </c>
       <c r="K11">
-        <v>1.004505130681262</v>
+        <v>1.018784037016649</v>
       </c>
       <c r="L11">
-        <v>0.9884898061513485</v>
+        <v>1.015893612771018</v>
       </c>
       <c r="M11">
-        <v>0.9959592309637171</v>
+        <v>1.019750416305348</v>
       </c>
       <c r="N11">
-        <v>0.9945389643536241</v>
+        <v>1.013921621428385</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9598469494358532</v>
+        <v>0.9799125215492578</v>
       </c>
       <c r="D12">
-        <v>0.9875573899577665</v>
+        <v>1.002064742794613</v>
       </c>
       <c r="E12">
-        <v>0.9708133883259089</v>
+        <v>0.9986776197736733</v>
       </c>
       <c r="F12">
-        <v>0.9784309616411035</v>
+        <v>1.002552457622208</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030017001916278</v>
+        <v>1.035650466836866</v>
       </c>
       <c r="J12">
-        <v>0.9914535339018595</v>
+        <v>1.010592039475694</v>
       </c>
       <c r="K12">
-        <v>1.002926917233016</v>
+        <v>1.017152492212046</v>
       </c>
       <c r="L12">
-        <v>0.9865219655874553</v>
+        <v>1.013830198429149</v>
       </c>
       <c r="M12">
-        <v>0.9939833947316817</v>
+        <v>1.017630919408701</v>
       </c>
       <c r="N12">
-        <v>0.9932155310616961</v>
+        <v>1.012027196088277</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9603656468981006</v>
+        <v>0.9804395767218324</v>
       </c>
       <c r="D13">
-        <v>0.9879501618786174</v>
+        <v>1.002467929052564</v>
       </c>
       <c r="E13">
-        <v>0.9712933929469045</v>
+        <v>0.9991759353999201</v>
       </c>
       <c r="F13">
-        <v>0.9789119576716636</v>
+        <v>1.003062730064507</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030220060616349</v>
+        <v>1.035830606398407</v>
       </c>
       <c r="J13">
-        <v>0.9918484039760017</v>
+        <v>1.010999730980209</v>
       </c>
       <c r="K13">
-        <v>1.003267093376619</v>
+        <v>1.017504124125104</v>
       </c>
       <c r="L13">
-        <v>0.9869460725446858</v>
+        <v>1.014274853192691</v>
       </c>
       <c r="M13">
-        <v>0.9944092038859061</v>
+        <v>1.018087649732222</v>
       </c>
       <c r="N13">
-        <v>0.9935008051387696</v>
+        <v>1.01243546656149</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9620557622299443</v>
+        <v>0.9821571406513182</v>
       </c>
       <c r="D14">
-        <v>0.9892302544924079</v>
+        <v>1.003782097995813</v>
       </c>
       <c r="E14">
-        <v>0.9728577726584706</v>
+        <v>1.000800174481749</v>
       </c>
       <c r="F14">
-        <v>0.9804796544111033</v>
+        <v>1.004725962461872</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030881318933483</v>
+        <v>1.036417315773019</v>
       </c>
       <c r="J14">
-        <v>0.9931349821651194</v>
+        <v>1.012328260005623</v>
       </c>
       <c r="K14">
-        <v>1.004375410813714</v>
+        <v>1.018649915955512</v>
       </c>
       <c r="L14">
-        <v>0.9883280380425822</v>
+        <v>1.015723965517916</v>
       </c>
       <c r="M14">
-        <v>0.9957967961891764</v>
+        <v>1.0195761536693</v>
       </c>
       <c r="N14">
-        <v>0.9944301924662478</v>
+        <v>1.013765882250505</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9630899823874522</v>
+        <v>0.9832083202638474</v>
       </c>
       <c r="D15">
-        <v>0.9900137894641127</v>
+        <v>1.004586592668289</v>
       </c>
       <c r="E15">
-        <v>0.9738153089994647</v>
+        <v>1.001794487631092</v>
       </c>
       <c r="F15">
-        <v>0.9814392857758376</v>
+        <v>1.005744162014162</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031285661363887</v>
+        <v>1.036776139001491</v>
       </c>
       <c r="J15">
-        <v>0.9939222199726558</v>
+        <v>1.013141299838454</v>
       </c>
       <c r="K15">
-        <v>1.00505353031881</v>
+        <v>1.019351078082298</v>
       </c>
       <c r="L15">
-        <v>0.9891737387796953</v>
+        <v>1.016610901814507</v>
       </c>
       <c r="M15">
-        <v>0.9966460006975639</v>
+        <v>1.020487228662408</v>
       </c>
       <c r="N15">
-        <v>0.9949987917731347</v>
+        <v>1.014580076693156</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.969005137111317</v>
+        <v>0.9892228551270046</v>
       </c>
       <c r="D16">
-        <v>0.9944982329911061</v>
+        <v>1.009192490037732</v>
       </c>
       <c r="E16">
-        <v>0.9792956096006543</v>
+        <v>1.007487294246028</v>
       </c>
       <c r="F16">
-        <v>0.9869325162089376</v>
+        <v>1.011573968673442</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033593696516287</v>
+        <v>1.03882529801843</v>
       </c>
       <c r="J16">
-        <v>0.9984239258338796</v>
+        <v>1.017792506554379</v>
       </c>
       <c r="K16">
-        <v>1.008930566992448</v>
+        <v>1.023361535230395</v>
       </c>
       <c r="L16">
-        <v>0.9940112176885402</v>
+        <v>1.021686381998256</v>
       </c>
       <c r="M16">
-        <v>1.001504400711891</v>
+        <v>1.025701275930561</v>
       </c>
       <c r="N16">
-        <v>0.9982490142905436</v>
+        <v>1.019237888656118</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9726278600648894</v>
+        <v>0.9929084511042718</v>
       </c>
       <c r="D17">
-        <v>0.9972471923336027</v>
+        <v>1.012017166582043</v>
       </c>
       <c r="E17">
-        <v>0.9826551363362598</v>
+        <v>1.010978802934271</v>
       </c>
       <c r="F17">
-        <v>0.9903007540171876</v>
+        <v>1.015149717124889</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035003137059273</v>
+        <v>1.040077450478844</v>
       </c>
       <c r="J17">
-        <v>1.001180124641986</v>
+        <v>1.02064190146538</v>
       </c>
       <c r="K17">
-        <v>1.011303661015185</v>
+        <v>1.025817721831475</v>
       </c>
       <c r="L17">
-        <v>0.9969742757099198</v>
+        <v>1.024797033886729</v>
       </c>
       <c r="M17">
-        <v>1.00448101060461</v>
+        <v>1.028897230675353</v>
       </c>
       <c r="N17">
-        <v>1.0002378630654</v>
+        <v>1.022091330034723</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9747109327545065</v>
+        <v>0.9950283699192027</v>
       </c>
       <c r="D18">
-        <v>0.9988286590566936</v>
+        <v>1.013642633223079</v>
       </c>
       <c r="E18">
-        <v>0.9845879441754403</v>
+        <v>1.012988137786966</v>
       </c>
       <c r="F18">
-        <v>0.9922388418783741</v>
+        <v>1.0172076098967</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035812049886814</v>
+        <v>1.040796366353042</v>
       </c>
       <c r="J18">
-        <v>1.002764590863664</v>
+        <v>1.022280524183764</v>
       </c>
       <c r="K18">
-        <v>1.012667642048778</v>
+        <v>1.027229960162491</v>
       </c>
       <c r="L18">
-        <v>0.9986781207042351</v>
+        <v>1.026586382884076</v>
       </c>
       <c r="M18">
-        <v>1.006192901453655</v>
+        <v>1.030735784090525</v>
       </c>
       <c r="N18">
-        <v>1.001380780042284</v>
+        <v>1.02373227978532</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9754162615879055</v>
+        <v>0.9957462901031843</v>
       </c>
       <c r="D19">
-        <v>0.999364274228729</v>
+        <v>1.014193223704876</v>
       </c>
       <c r="E19">
-        <v>0.9852425707302218</v>
+        <v>1.013668782529388</v>
       </c>
       <c r="F19">
-        <v>0.992895301009963</v>
+        <v>1.01790471666744</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036085686784494</v>
+        <v>1.041039604765922</v>
       </c>
       <c r="J19">
-        <v>1.003301027545691</v>
+        <v>1.022835393004063</v>
       </c>
       <c r="K19">
-        <v>1.01312938775316</v>
+        <v>1.027708125510146</v>
       </c>
       <c r="L19">
-        <v>0.9992550524777841</v>
+        <v>1.027192372564697</v>
       </c>
       <c r="M19">
-        <v>1.006772599464161</v>
+        <v>1.031358460502003</v>
       </c>
       <c r="N19">
-        <v>1.001767653131467</v>
+        <v>1.024287936582988</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9722423138598771</v>
+        <v>0.9925161408892852</v>
       </c>
       <c r="D20">
-        <v>0.9969545499644922</v>
+        <v>1.011716417597289</v>
       </c>
       <c r="E20">
-        <v>0.9822974878596675</v>
+        <v>1.010607041614074</v>
       </c>
       <c r="F20">
-        <v>0.9899421499709449</v>
+        <v>1.014768978159525</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034853295184863</v>
+        <v>1.039944301522722</v>
       </c>
       <c r="J20">
-        <v>1.000886833568959</v>
+        <v>1.020338632502758</v>
       </c>
       <c r="K20">
-        <v>1.011051162158059</v>
+        <v>1.025556329715552</v>
       </c>
       <c r="L20">
-        <v>0.99665892452944</v>
+        <v>1.024465908384495</v>
       </c>
       <c r="M20">
-        <v>1.004164190543587</v>
+        <v>1.028557010683377</v>
       </c>
       <c r="N20">
-        <v>1.000026270119498</v>
+        <v>1.021787630395389</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9615595581547524</v>
+        <v>0.9816528436164395</v>
       </c>
       <c r="D21">
-        <v>0.988854383845563</v>
+        <v>1.003396200201891</v>
       </c>
       <c r="E21">
-        <v>0.9723984295357523</v>
+        <v>1.000323226149901</v>
       </c>
       <c r="F21">
-        <v>0.9800193237021467</v>
+        <v>1.004237560676192</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030687240638633</v>
+        <v>1.036245103681996</v>
       </c>
       <c r="J21">
-        <v>0.9927572632097719</v>
+        <v>1.011938197034992</v>
       </c>
       <c r="K21">
-        <v>1.004050035326477</v>
+        <v>1.018313514930866</v>
       </c>
       <c r="L21">
-        <v>0.9879222946361458</v>
+        <v>1.015298477499464</v>
       </c>
       <c r="M21">
-        <v>0.9953893880492215</v>
+        <v>1.019139093456767</v>
       </c>
       <c r="N21">
-        <v>0.9941573554494034</v>
+        <v>1.013375265345716</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9545363286243723</v>
+        <v>0.9745181227189694</v>
       </c>
       <c r="D22">
-        <v>0.9835385201672721</v>
+        <v>0.9979404257728135</v>
       </c>
       <c r="E22">
-        <v>0.9659017516775505</v>
+        <v>0.9935801206584159</v>
       </c>
       <c r="F22">
-        <v>0.9735098964928814</v>
+        <v>0.9973328104120922</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02793497232813</v>
+        <v>1.033804159459239</v>
       </c>
       <c r="J22">
-        <v>0.9874102937302468</v>
+        <v>1.006418963532236</v>
       </c>
       <c r="K22">
-        <v>0.999443290952462</v>
+        <v>1.013552793942124</v>
       </c>
       <c r="L22">
-        <v>0.9821803785553864</v>
+        <v>1.009279838504038</v>
       </c>
       <c r="M22">
-        <v>0.9896250487949808</v>
+        <v>1.012957290668654</v>
       </c>
       <c r="N22">
-        <v>0.9902936970992008</v>
+        <v>1.00784819389832</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.958290461527237</v>
+        <v>0.9783311409946909</v>
       </c>
       <c r="D23">
-        <v>0.9863790298658247</v>
+        <v>1.000855254836474</v>
       </c>
       <c r="E23">
-        <v>0.9693733034871987</v>
+        <v>0.9971827564519299</v>
       </c>
       <c r="F23">
-        <v>0.9769879769538432</v>
+        <v>1.001021743288952</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029407346120163</v>
+        <v>1.035109698014369</v>
       </c>
       <c r="J23">
-        <v>0.9902685752264787</v>
+        <v>1.009368756708784</v>
       </c>
       <c r="K23">
-        <v>1.00190604281404</v>
+        <v>1.016097368832551</v>
       </c>
       <c r="L23">
-        <v>0.9852493785901298</v>
+        <v>1.012496119970873</v>
       </c>
       <c r="M23">
-        <v>0.9927057695122418</v>
+        <v>1.016260643498112</v>
       </c>
       <c r="N23">
-        <v>0.9923593717452798</v>
+        <v>1.010802176119525</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9724166179254109</v>
+        <v>0.9926935007886606</v>
       </c>
       <c r="D24">
-        <v>0.9970868500381834</v>
+        <v>1.011852381209574</v>
       </c>
       <c r="E24">
-        <v>0.9824591761366165</v>
+        <v>1.010775108281782</v>
       </c>
       <c r="F24">
-        <v>0.9901042694178603</v>
+        <v>1.014941103215977</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034921042891843</v>
+        <v>1.040004501042657</v>
       </c>
       <c r="J24">
-        <v>1.001019430527224</v>
+        <v>1.020475738666349</v>
       </c>
       <c r="K24">
-        <v>1.011165317722401</v>
+        <v>1.025674504405728</v>
       </c>
       <c r="L24">
-        <v>0.9968014934341063</v>
+        <v>1.024615606827688</v>
       </c>
       <c r="M24">
-        <v>1.004307422738698</v>
+        <v>1.028710820231306</v>
       </c>
       <c r="N24">
-        <v>1.000121932646112</v>
+        <v>1.021924931265459</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9876446136422835</v>
+        <v>1.00820231325313</v>
       </c>
       <c r="D25">
-        <v>1.00866002056844</v>
+        <v>1.023754883801516</v>
       </c>
       <c r="E25">
-        <v>0.9966061421171505</v>
+        <v>1.025492128433545</v>
       </c>
       <c r="F25">
-        <v>1.00429422939979</v>
+        <v>1.030015195039123</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040806756649234</v>
+        <v>1.045239859660378</v>
       </c>
       <c r="J25">
-        <v>1.012595062209787</v>
+        <v>1.032456755164928</v>
       </c>
       <c r="K25">
-        <v>1.021125372052449</v>
+        <v>1.035995297305826</v>
       </c>
       <c r="L25">
-        <v>1.009257372819201</v>
+        <v>1.037707193177571</v>
       </c>
       <c r="M25">
-        <v>1.016826246745034</v>
+        <v>1.042164770250287</v>
       </c>
       <c r="N25">
-        <v>1.00846392265059</v>
+        <v>1.033922962181707</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_53/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.019791161006299</v>
+        <v>0.9932650417844486</v>
       </c>
       <c r="D2">
-        <v>1.032663735570787</v>
+        <v>1.015244089778288</v>
       </c>
       <c r="E2">
-        <v>1.036516347361334</v>
+        <v>1.00148680495631</v>
       </c>
       <c r="F2">
-        <v>1.04130940596658</v>
+        <v>1.014817022449775</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049108376243553</v>
+        <v>1.040976846663494</v>
       </c>
       <c r="J2">
-        <v>1.041395616406966</v>
+        <v>1.015649077430262</v>
       </c>
       <c r="K2">
-        <v>1.04368602223178</v>
+        <v>1.026495058056873</v>
       </c>
       <c r="L2">
-        <v>1.047489354538043</v>
+        <v>1.01292546501515</v>
       </c>
       <c r="M2">
-        <v>1.052221739293539</v>
+        <v>1.026073721056615</v>
       </c>
       <c r="N2">
-        <v>1.042874517632011</v>
+        <v>1.009032934002879</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027814884655548</v>
+        <v>0.9977798222856111</v>
       </c>
       <c r="D3">
-        <v>1.038837502456065</v>
+        <v>1.018667701979135</v>
       </c>
       <c r="E3">
-        <v>1.044162878190113</v>
+        <v>1.005488344986497</v>
       </c>
       <c r="F3">
-        <v>1.049144713558847</v>
+        <v>1.018975820705766</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05176011575365</v>
+        <v>1.041956370204808</v>
       </c>
       <c r="J3">
-        <v>1.047574974949604</v>
+        <v>1.018331195112768</v>
       </c>
       <c r="K3">
-        <v>1.048996443345355</v>
+        <v>1.029067170404682</v>
       </c>
       <c r="L3">
-        <v>1.054260228558879</v>
+        <v>1.01605147977762</v>
       </c>
       <c r="M3">
-        <v>1.059185144733414</v>
+        <v>1.029371525764352</v>
       </c>
       <c r="N3">
-        <v>1.049062651572562</v>
+        <v>1.009945409454538</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C4">
-        <v>1.032843403488739</v>
+        <v>1.000642486197952</v>
       </c>
       <c r="D4">
-        <v>1.042708374541642</v>
+        <v>1.020840473135027</v>
       </c>
       <c r="E4">
-        <v>1.04896083169576</v>
+        <v>1.008031398824481</v>
       </c>
       <c r="F4">
-        <v>1.054061831843962</v>
+        <v>1.021617682733271</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053409180543358</v>
+        <v>1.042566534363952</v>
       </c>
       <c r="J4">
-        <v>1.051442716160994</v>
+        <v>1.020029771379525</v>
       </c>
       <c r="K4">
-        <v>1.052317287445313</v>
+        <v>1.030693714029425</v>
       </c>
       <c r="L4">
-        <v>1.058502182119269</v>
+        <v>1.018033848805792</v>
       </c>
       <c r="M4">
-        <v>1.06354878876428</v>
+        <v>1.0314620187627</v>
       </c>
       <c r="N4">
-        <v>1.052935885420107</v>
+        <v>1.010522921172704</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.034920613798089</v>
+        <v>1.001832398832633</v>
       </c>
       <c r="D5">
-        <v>1.04430767805569</v>
+        <v>1.021744035731894</v>
       </c>
       <c r="E5">
-        <v>1.050944125688026</v>
+        <v>1.009089817745999</v>
       </c>
       <c r="F5">
-        <v>1.056094557677842</v>
+        <v>1.022716947283291</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054087250416439</v>
+        <v>1.04281749585398</v>
       </c>
       <c r="J5">
-        <v>1.053039185780766</v>
+        <v>1.020735282474016</v>
       </c>
       <c r="K5">
-        <v>1.053687265534297</v>
+        <v>1.031368721793654</v>
       </c>
       <c r="L5">
-        <v>1.060254071723265</v>
+        <v>1.01885788059843</v>
       </c>
       <c r="M5">
-        <v>1.065351192035783</v>
+        <v>1.032330790651356</v>
       </c>
       <c r="N5">
-        <v>1.054534622209857</v>
+        <v>1.010762703516721</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.035267293709258</v>
+        <v>1.00203140987592</v>
       </c>
       <c r="D6">
-        <v>1.044574611315682</v>
+        <v>1.021895177875287</v>
       </c>
       <c r="E6">
-        <v>1.051275207367696</v>
+        <v>1.009266915373157</v>
       </c>
       <c r="F6">
-        <v>1.056433901552758</v>
+        <v>1.022900862768028</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054200231906519</v>
+        <v>1.042859310972367</v>
       </c>
       <c r="J6">
-        <v>1.053305556882173</v>
+        <v>1.020853245969328</v>
       </c>
       <c r="K6">
-        <v>1.053915801538343</v>
+        <v>1.031481550222385</v>
       </c>
       <c r="L6">
-        <v>1.060546431153247</v>
+        <v>1.018995699217554</v>
       </c>
       <c r="M6">
-        <v>1.065651996398071</v>
+        <v>1.032476079714663</v>
       </c>
       <c r="N6">
-        <v>1.054801371588781</v>
+        <v>1.010802790422326</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.03287130086435</v>
+        <v>1.000658438469348</v>
       </c>
       <c r="D7">
-        <v>1.042729852482618</v>
+        <v>1.020852584962793</v>
       </c>
       <c r="E7">
-        <v>1.048987462590158</v>
+        <v>1.008045582945595</v>
       </c>
       <c r="F7">
-        <v>1.054089125799478</v>
+        <v>1.02163241534371</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053418299664161</v>
+        <v>1.042569909393845</v>
       </c>
       <c r="J7">
-        <v>1.051464162076801</v>
+        <v>1.020039231778587</v>
       </c>
       <c r="K7">
-        <v>1.052335693834779</v>
+        <v>1.030702767730706</v>
       </c>
       <c r="L7">
-        <v>1.058525712043589</v>
+        <v>1.018044895923511</v>
       </c>
       <c r="M7">
-        <v>1.063572996130132</v>
+        <v>1.031473666495081</v>
       </c>
       <c r="N7">
-        <v>1.052957361791575</v>
+        <v>1.010526136842353</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.022538114799762</v>
+        <v>0.9948032976462936</v>
       </c>
       <c r="D8">
-        <v>1.03477690935156</v>
+        <v>1.016410115647612</v>
       </c>
       <c r="E8">
-        <v>1.039132891666484</v>
+        <v>1.002848948069097</v>
       </c>
       <c r="F8">
-        <v>1.043990398133536</v>
+        <v>1.016232929907177</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050018872973974</v>
+        <v>1.041312847468751</v>
       </c>
       <c r="J8">
-        <v>1.043512139756975</v>
+        <v>1.016563326695844</v>
       </c>
       <c r="K8">
-        <v>1.0455055424459</v>
+        <v>1.027372296446194</v>
       </c>
       <c r="L8">
-        <v>1.049807642642876</v>
+        <v>1.013990466343377</v>
       </c>
       <c r="M8">
-        <v>1.054605722324342</v>
+        <v>1.027197415224441</v>
       </c>
       <c r="N8">
-        <v>1.044994046687945</v>
+        <v>1.00934404015757</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.002961170172301</v>
+        <v>0.9840123326280141</v>
       </c>
       <c r="D9">
-        <v>1.019729661181303</v>
+        <v>1.008241324487503</v>
       </c>
       <c r="E9">
-        <v>1.02051395540767</v>
+        <v>0.9933197779473846</v>
       </c>
       <c r="F9">
-        <v>1.024915844637944</v>
+        <v>1.006323141013229</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043477333499226</v>
+        <v>1.038911295982534</v>
       </c>
       <c r="J9">
-        <v>1.028409793484336</v>
+        <v>1.010142569352463</v>
       </c>
       <c r="K9">
-        <v>1.032510547725172</v>
+        <v>1.02120209221331</v>
       </c>
       <c r="L9">
-        <v>1.033282750227274</v>
+        <v>1.006522174947456</v>
       </c>
       <c r="M9">
-        <v>1.037617211919342</v>
+        <v>1.019314455977906</v>
       </c>
       <c r="N9">
-        <v>1.029870253351336</v>
+        <v>1.007157810402406</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9888021998241618</v>
+        <v>0.9764644622112427</v>
       </c>
       <c r="D10">
-        <v>1.008870202636061</v>
+        <v>1.002544466018383</v>
       </c>
       <c r="E10">
-        <v>1.007088938938117</v>
+        <v>0.9866899582153076</v>
       </c>
       <c r="F10">
-        <v>1.011166012913601</v>
+        <v>0.9994231326993231</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038682206825086</v>
+        <v>1.037177012433148</v>
       </c>
       <c r="J10">
-        <v>1.017467249906691</v>
+        <v>1.005644016776282</v>
       </c>
       <c r="K10">
-        <v>1.023081128673834</v>
+        <v>1.016867930817776</v>
       </c>
       <c r="L10">
-        <v>1.021331369237862</v>
+        <v>1.0013037612016</v>
       </c>
       <c r="M10">
-        <v>1.025336546324976</v>
+        <v>1.01380281048061</v>
       </c>
       <c r="N10">
-        <v>1.018912170106683</v>
+        <v>1.005624575395724</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9823582069240566</v>
+        <v>0.9731035873852225</v>
       </c>
       <c r="D11">
-        <v>1.003935967506313</v>
+        <v>1.000012822409529</v>
       </c>
       <c r="E11">
-        <v>1.000990348842839</v>
+        <v>0.9837469673951141</v>
       </c>
       <c r="F11">
-        <v>1.00492070444798</v>
+        <v>0.9963590422812458</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036485965399783</v>
+        <v>1.036392529553412</v>
       </c>
       <c r="J11">
-        <v>1.012483778329645</v>
+        <v>1.003639733692304</v>
       </c>
       <c r="K11">
-        <v>1.018784037016649</v>
+        <v>1.014934496922705</v>
       </c>
       <c r="L11">
-        <v>1.015893612771018</v>
+        <v>0.9989820419366772</v>
       </c>
       <c r="M11">
-        <v>1.019750416305348</v>
+        <v>1.011349949932167</v>
       </c>
       <c r="N11">
-        <v>1.013921621428385</v>
+        <v>1.004941165220365</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9799125215492578</v>
+        <v>0.9718405022127253</v>
       </c>
       <c r="D12">
-        <v>1.002064742794613</v>
+        <v>0.9990622247176838</v>
       </c>
       <c r="E12">
-        <v>0.9986776197736733</v>
+        <v>0.9826423604997975</v>
       </c>
       <c r="F12">
-        <v>1.002552457622208</v>
+        <v>0.995208818174622</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035650466836866</v>
+        <v>1.03609592427591</v>
       </c>
       <c r="J12">
-        <v>1.010592039475694</v>
+        <v>1.002886356236422</v>
       </c>
       <c r="K12">
-        <v>1.017152492212046</v>
+        <v>1.014207413102029</v>
       </c>
       <c r="L12">
-        <v>1.013830198429149</v>
+        <v>0.9981098360356722</v>
       </c>
       <c r="M12">
-        <v>1.017630919408701</v>
+        <v>1.010428388944299</v>
       </c>
       <c r="N12">
-        <v>1.012027196088277</v>
+        <v>1.004684243867877</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9804395767218324</v>
+        <v>0.9721121171670701</v>
       </c>
       <c r="D13">
-        <v>1.002467929052564</v>
+        <v>0.9992666023775416</v>
       </c>
       <c r="E13">
-        <v>0.9991759353999201</v>
+        <v>0.9828798305524413</v>
       </c>
       <c r="F13">
-        <v>1.003062730064507</v>
+        <v>0.9954561023366058</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035830606398407</v>
+        <v>1.036159786000339</v>
       </c>
       <c r="J13">
-        <v>1.010999730980209</v>
+        <v>1.003048368071119</v>
       </c>
       <c r="K13">
-        <v>1.017504124125104</v>
+        <v>1.014363785439493</v>
       </c>
       <c r="L13">
-        <v>1.014274853192691</v>
+        <v>0.9982973795034891</v>
       </c>
       <c r="M13">
-        <v>1.018087649732222</v>
+        <v>1.010626548640247</v>
       </c>
       <c r="N13">
-        <v>1.01243546656149</v>
+        <v>1.004739495779775</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9821571406513182</v>
+        <v>0.9729994851795075</v>
       </c>
       <c r="D14">
-        <v>1.003782097995813</v>
+        <v>0.9999344573812337</v>
       </c>
       <c r="E14">
-        <v>1.000800174481749</v>
+        <v>0.9836558973960188</v>
       </c>
       <c r="F14">
-        <v>1.004725962461872</v>
+        <v>0.9962642146222952</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036417315773019</v>
+        <v>1.036368119483977</v>
       </c>
       <c r="J14">
-        <v>1.012328260005623</v>
+        <v>1.00357764335658</v>
       </c>
       <c r="K14">
-        <v>1.018649915955512</v>
+        <v>1.014874580329665</v>
       </c>
       <c r="L14">
-        <v>1.015723965517916</v>
+        <v>0.9989101482873493</v>
       </c>
       <c r="M14">
-        <v>1.0195761536693</v>
+        <v>1.011273989801169</v>
       </c>
       <c r="N14">
-        <v>1.013765882250505</v>
+        <v>1.004919991548928</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9832083202638474</v>
+        <v>0.9735442483899421</v>
       </c>
       <c r="D15">
-        <v>1.004586592668289</v>
+        <v>1.000344573855964</v>
       </c>
       <c r="E15">
-        <v>1.001794487631092</v>
+        <v>0.9841325221458904</v>
       </c>
       <c r="F15">
-        <v>1.005744162014162</v>
+        <v>0.9967604988558754</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036776139001491</v>
+        <v>1.036495784308484</v>
       </c>
       <c r="J15">
-        <v>1.013141299838454</v>
+        <v>1.003902555053308</v>
       </c>
       <c r="K15">
-        <v>1.019351078082298</v>
+        <v>1.015188103458345</v>
       </c>
       <c r="L15">
-        <v>1.016610901814507</v>
+        <v>0.9992863795910376</v>
       </c>
       <c r="M15">
-        <v>1.020487228662408</v>
+        <v>1.01167149812825</v>
       </c>
       <c r="N15">
-        <v>1.014580076693156</v>
+        <v>1.005030789435278</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9892228551270046</v>
+        <v>0.9766854949156196</v>
       </c>
       <c r="D16">
-        <v>1.009192490037732</v>
+        <v>1.002711075371112</v>
       </c>
       <c r="E16">
-        <v>1.007487294246028</v>
+        <v>0.9868837029114956</v>
       </c>
       <c r="F16">
-        <v>1.011573968673442</v>
+        <v>0.9996248263056072</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03882529801843</v>
+        <v>1.037228354829067</v>
       </c>
       <c r="J16">
-        <v>1.017792506554379</v>
+        <v>1.00577581079909</v>
       </c>
       <c r="K16">
-        <v>1.023361535230395</v>
+        <v>1.016995018061637</v>
       </c>
       <c r="L16">
-        <v>1.021686381998256</v>
+        <v>1.001456496845573</v>
       </c>
       <c r="M16">
-        <v>1.025701275930561</v>
+        <v>1.013964160260792</v>
       </c>
       <c r="N16">
-        <v>1.019237888656118</v>
+        <v>1.005669508197297</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9929084511042718</v>
+        <v>0.9786305812866372</v>
       </c>
       <c r="D17">
-        <v>1.012017166582043</v>
+        <v>1.004177818946477</v>
       </c>
       <c r="E17">
-        <v>1.010978802934271</v>
+        <v>0.9885896979491016</v>
       </c>
       <c r="F17">
-        <v>1.015149717124889</v>
+        <v>1.00140068315613</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040077450478844</v>
+        <v>1.037678780169339</v>
       </c>
       <c r="J17">
-        <v>1.02064190146538</v>
+        <v>1.006935467755908</v>
       </c>
       <c r="K17">
-        <v>1.025817721831475</v>
+        <v>1.018112990260199</v>
       </c>
       <c r="L17">
-        <v>1.024797033886729</v>
+        <v>1.002800793317084</v>
       </c>
       <c r="M17">
-        <v>1.028897230675353</v>
+        <v>1.015384197814182</v>
       </c>
       <c r="N17">
-        <v>1.022091330034723</v>
+        <v>1.006064839658166</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9950283699192027</v>
+        <v>0.9797562395788952</v>
       </c>
       <c r="D18">
-        <v>1.013642633223079</v>
+        <v>1.005027121584242</v>
       </c>
       <c r="E18">
-        <v>1.012988137786966</v>
+        <v>0.9895778487290013</v>
       </c>
       <c r="F18">
-        <v>1.0172076098967</v>
+        <v>1.002429188266091</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040796366353042</v>
+        <v>1.037938283359938</v>
       </c>
       <c r="J18">
-        <v>1.022280524183764</v>
+        <v>1.00760646653188</v>
       </c>
       <c r="K18">
-        <v>1.027229960162491</v>
+        <v>1.018759640921871</v>
       </c>
       <c r="L18">
-        <v>1.026586382884076</v>
+        <v>1.003578940257452</v>
       </c>
       <c r="M18">
-        <v>1.030735784090525</v>
+        <v>1.016206122085372</v>
       </c>
       <c r="N18">
-        <v>1.02373227978532</v>
+        <v>1.00629355749567</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9957462901031843</v>
+        <v>0.980138577381939</v>
       </c>
       <c r="D19">
-        <v>1.014193223704876</v>
+        <v>1.005315670385608</v>
       </c>
       <c r="E19">
-        <v>1.013668782529388</v>
+        <v>0.9899136250816641</v>
       </c>
       <c r="F19">
-        <v>1.01790471666744</v>
+        <v>1.002778657970068</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041039604765922</v>
+        <v>1.038026225843912</v>
       </c>
       <c r="J19">
-        <v>1.022835393004063</v>
+        <v>1.007834354716302</v>
       </c>
       <c r="K19">
-        <v>1.027708125510146</v>
+        <v>1.01897922045416</v>
       </c>
       <c r="L19">
-        <v>1.027192372564697</v>
+        <v>1.003843271769667</v>
       </c>
       <c r="M19">
-        <v>1.031358460502003</v>
+        <v>1.016485312991019</v>
       </c>
       <c r="N19">
-        <v>1.024287936582988</v>
+        <v>1.006371230923739</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9925161408892852</v>
+        <v>0.9784228157523769</v>
       </c>
       <c r="D20">
-        <v>1.011716417597289</v>
+        <v>1.004021098443761</v>
       </c>
       <c r="E20">
-        <v>1.010607041614074</v>
+        <v>0.9884073815285133</v>
       </c>
       <c r="F20">
-        <v>1.014768978159525</v>
+        <v>1.001210912199682</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039944301522722</v>
+        <v>1.037630788325954</v>
       </c>
       <c r="J20">
-        <v>1.020338632502758</v>
+        <v>1.006811610062345</v>
       </c>
       <c r="K20">
-        <v>1.025556329715552</v>
+        <v>1.0179936082844</v>
       </c>
       <c r="L20">
-        <v>1.024465908384495</v>
+        <v>1.002657182733505</v>
       </c>
       <c r="M20">
-        <v>1.028557010683377</v>
+        <v>1.015232502542644</v>
       </c>
       <c r="N20">
-        <v>1.021787630395389</v>
+        <v>1.006022618986542</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C21">
-        <v>0.9816528436164395</v>
+        <v>0.9727385900624586</v>
       </c>
       <c r="D21">
-        <v>1.003396200201891</v>
+        <v>0.9997380772741908</v>
       </c>
       <c r="E21">
-        <v>1.000323226149901</v>
+        <v>0.9834276861006097</v>
       </c>
       <c r="F21">
-        <v>1.004237560676192</v>
+        <v>0.9960265844374911</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036245103681996</v>
+        <v>1.036306915859712</v>
       </c>
       <c r="J21">
-        <v>1.011938197034992</v>
+        <v>1.003422034169436</v>
       </c>
       <c r="K21">
-        <v>1.018313514930866</v>
+        <v>1.0147244135617</v>
       </c>
       <c r="L21">
-        <v>1.015298477499464</v>
+        <v>0.9987299781815484</v>
       </c>
       <c r="M21">
-        <v>1.019139093456767</v>
+        <v>1.01108362744462</v>
       </c>
       <c r="N21">
-        <v>1.013375265345716</v>
+        <v>1.004866926041064</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9745181227189694</v>
+        <v>0.9690791676226598</v>
       </c>
       <c r="D22">
-        <v>0.9979404257728135</v>
+        <v>0.9969857038512454</v>
       </c>
       <c r="E22">
-        <v>0.9935801206584159</v>
+        <v>0.9802301872724776</v>
       </c>
       <c r="F22">
-        <v>0.9973328104120922</v>
+        <v>0.9926967388604279</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033804159459239</v>
+        <v>1.03544428503372</v>
       </c>
       <c r="J22">
-        <v>1.006418963532236</v>
+        <v>1.001239161632625</v>
       </c>
       <c r="K22">
-        <v>1.013552793942124</v>
+        <v>1.012617111976874</v>
       </c>
       <c r="L22">
-        <v>1.009279838504038</v>
+        <v>0.996203731682662</v>
       </c>
       <c r="M22">
-        <v>1.012957290668654</v>
+        <v>1.00841427652976</v>
       </c>
       <c r="N22">
-        <v>1.00784819389832</v>
+        <v>1.004122442827394</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9783311409946909</v>
+        <v>0.9710274840187204</v>
       </c>
       <c r="D23">
-        <v>1.000855254836474</v>
+        <v>0.9984505973684445</v>
       </c>
       <c r="E23">
-        <v>0.9971827564519299</v>
+        <v>0.9819317617316308</v>
       </c>
       <c r="F23">
-        <v>1.001021743288952</v>
+        <v>0.9944688286922432</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035109698014369</v>
+        <v>1.035904512392072</v>
       </c>
       <c r="J23">
-        <v>1.009368756708784</v>
+        <v>1.002401395814011</v>
       </c>
       <c r="K23">
-        <v>1.016097368832551</v>
+        <v>1.013739286053571</v>
       </c>
       <c r="L23">
-        <v>1.012496119970873</v>
+        <v>0.9975485217658202</v>
       </c>
       <c r="M23">
-        <v>1.016260643498112</v>
+        <v>1.009835288517405</v>
       </c>
       <c r="N23">
-        <v>1.010802176119525</v>
+        <v>1.004518849552248</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9926935007886606</v>
+        <v>0.9785167234307979</v>
       </c>
       <c r="D24">
-        <v>1.011852381209574</v>
+        <v>1.004091932892029</v>
       </c>
       <c r="E24">
-        <v>1.010775108281782</v>
+        <v>0.9884897838353464</v>
       </c>
       <c r="F24">
-        <v>1.014941103215977</v>
+        <v>1.001296684109376</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040004501042657</v>
+        <v>1.037652483719151</v>
       </c>
       <c r="J24">
-        <v>1.020475738666349</v>
+        <v>1.006867592708636</v>
       </c>
       <c r="K24">
-        <v>1.025674504405728</v>
+        <v>1.018047568653877</v>
       </c>
       <c r="L24">
-        <v>1.024615606827688</v>
+        <v>1.002722092552802</v>
       </c>
       <c r="M24">
-        <v>1.028710820231306</v>
+        <v>1.015301066722944</v>
       </c>
       <c r="N24">
-        <v>1.021924931265459</v>
+        <v>1.006041702466439</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.00820231325313</v>
+        <v>0.9868616817948305</v>
       </c>
       <c r="D25">
-        <v>1.023754883801516</v>
+        <v>1.010395696060359</v>
       </c>
       <c r="E25">
-        <v>1.025492128433545</v>
+        <v>0.9958300512619993</v>
       </c>
       <c r="F25">
-        <v>1.030015195039123</v>
+        <v>1.008934645443454</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045239859660378</v>
+        <v>1.039555030438517</v>
       </c>
       <c r="J25">
-        <v>1.032456755164928</v>
+        <v>1.011839439429509</v>
       </c>
       <c r="K25">
-        <v>1.035995297305826</v>
+        <v>1.022834747574435</v>
       </c>
       <c r="L25">
-        <v>1.037707193177571</v>
+        <v>1.008493447065226</v>
       </c>
       <c r="M25">
-        <v>1.042164770250287</v>
+        <v>1.021395827971481</v>
       </c>
       <c r="N25">
-        <v>1.033922962181707</v>
+        <v>1.007735864159357</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_53/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9932650417844486</v>
+        <v>1.026293730687815</v>
       </c>
       <c r="D2">
-        <v>1.015244089778288</v>
+        <v>1.03513027241954</v>
       </c>
       <c r="E2">
-        <v>1.00148680495631</v>
+        <v>1.029922842390774</v>
       </c>
       <c r="F2">
-        <v>1.014817022449775</v>
+        <v>1.041951930241646</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040976846663494</v>
+        <v>1.031427613860127</v>
       </c>
       <c r="J2">
-        <v>1.015649077430262</v>
+        <v>1.031457977094533</v>
       </c>
       <c r="K2">
-        <v>1.026495058056873</v>
+        <v>1.037927759905831</v>
       </c>
       <c r="L2">
-        <v>1.01292546501515</v>
+        <v>1.03273534726391</v>
       </c>
       <c r="M2">
-        <v>1.026073721056615</v>
+        <v>1.04472999172796</v>
       </c>
       <c r="N2">
-        <v>1.009032934002879</v>
+        <v>1.014486559250125</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9977798222856111</v>
+        <v>1.027254033722701</v>
       </c>
       <c r="D3">
-        <v>1.018667701979135</v>
+        <v>1.03587863893137</v>
       </c>
       <c r="E3">
-        <v>1.005488344986497</v>
+        <v>1.030830618003217</v>
       </c>
       <c r="F3">
-        <v>1.018975820705766</v>
+        <v>1.042890376771948</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041956370204808</v>
+        <v>1.031571451937797</v>
       </c>
       <c r="J3">
-        <v>1.018331195112768</v>
+        <v>1.032057922865888</v>
       </c>
       <c r="K3">
-        <v>1.029067170404682</v>
+        <v>1.038485619794909</v>
       </c>
       <c r="L3">
-        <v>1.01605147977762</v>
+        <v>1.033451102157662</v>
       </c>
       <c r="M3">
-        <v>1.029371525764352</v>
+        <v>1.045478835792599</v>
       </c>
       <c r="N3">
-        <v>1.009945409454538</v>
+        <v>1.014688188467585</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.000642486197952</v>
+        <v>1.027875906062445</v>
       </c>
       <c r="D4">
-        <v>1.020840473135027</v>
+        <v>1.036363090452392</v>
       </c>
       <c r="E4">
-        <v>1.008031398824481</v>
+        <v>1.03141885797848</v>
       </c>
       <c r="F4">
-        <v>1.021617682733271</v>
+        <v>1.043498324117879</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042566534363952</v>
+        <v>1.03166321758378</v>
       </c>
       <c r="J4">
-        <v>1.020029771379525</v>
+        <v>1.032446028256833</v>
       </c>
       <c r="K4">
-        <v>1.030693714029425</v>
+        <v>1.038846137278419</v>
       </c>
       <c r="L4">
-        <v>1.018033848805792</v>
+        <v>1.033914463388416</v>
       </c>
       <c r="M4">
-        <v>1.0314620187627</v>
+        <v>1.045963473055198</v>
       </c>
       <c r="N4">
-        <v>1.010522921172704</v>
+        <v>1.014818542492957</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.001832398832633</v>
+        <v>1.028137458166442</v>
       </c>
       <c r="D5">
-        <v>1.021744035731894</v>
+        <v>1.036566802404262</v>
       </c>
       <c r="E5">
-        <v>1.009089817745999</v>
+        <v>1.031666355974383</v>
       </c>
       <c r="F5">
-        <v>1.022716947283291</v>
+        <v>1.043754073766026</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04281749585398</v>
+        <v>1.031701482390921</v>
       </c>
       <c r="J5">
-        <v>1.020735282474016</v>
+        <v>1.032609163022554</v>
       </c>
       <c r="K5">
-        <v>1.031368721793654</v>
+        <v>1.038997588842153</v>
       </c>
       <c r="L5">
-        <v>1.01885788059843</v>
+        <v>1.034109312092092</v>
       </c>
       <c r="M5">
-        <v>1.032330790651356</v>
+        <v>1.046167233771824</v>
       </c>
       <c r="N5">
-        <v>1.010762703516721</v>
+        <v>1.01487331577483</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.00203140987592</v>
+        <v>1.028181380750933</v>
       </c>
       <c r="D6">
-        <v>1.021895177875287</v>
+        <v>1.036601009344182</v>
       </c>
       <c r="E6">
-        <v>1.009266915373157</v>
+        <v>1.03170792378189</v>
       </c>
       <c r="F6">
-        <v>1.022900862768028</v>
+        <v>1.043797025104897</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042859310972367</v>
+        <v>1.031707888823198</v>
       </c>
       <c r="J6">
-        <v>1.020853245969328</v>
+        <v>1.032636552590999</v>
       </c>
       <c r="K6">
-        <v>1.031481550222385</v>
+        <v>1.039023011746881</v>
       </c>
       <c r="L6">
-        <v>1.018995699217554</v>
+        <v>1.034142031045668</v>
       </c>
       <c r="M6">
-        <v>1.032476079714663</v>
+        <v>1.046201447185706</v>
       </c>
       <c r="N6">
-        <v>1.010802790422326</v>
+        <v>1.014882510823729</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.000658438469348</v>
+        <v>1.027879400475865</v>
       </c>
       <c r="D7">
-        <v>1.020852584962793</v>
+        <v>1.036365812272456</v>
       </c>
       <c r="E7">
-        <v>1.008045582945595</v>
+        <v>1.031422164266961</v>
       </c>
       <c r="F7">
-        <v>1.02163241534371</v>
+        <v>1.043501740796426</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042569909393845</v>
+        <v>1.031663730112382</v>
       </c>
       <c r="J7">
-        <v>1.020039231778587</v>
+        <v>1.032448208169881</v>
       </c>
       <c r="K7">
-        <v>1.030702767730706</v>
+        <v>1.038848161415076</v>
       </c>
       <c r="L7">
-        <v>1.018044895923511</v>
+        <v>1.033917066764683</v>
       </c>
       <c r="M7">
-        <v>1.031473666495081</v>
+        <v>1.04596619564183</v>
       </c>
       <c r="N7">
-        <v>1.010526136842353</v>
+        <v>1.01481927448494</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9948032976462936</v>
+        <v>1.026618167210288</v>
       </c>
       <c r="D8">
-        <v>1.016410115647612</v>
+        <v>1.035383142437422</v>
       </c>
       <c r="E8">
-        <v>1.002848948069097</v>
+        <v>1.030229453002787</v>
       </c>
       <c r="F8">
-        <v>1.016232929907177</v>
+        <v>1.042268934902152</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041312847468751</v>
+        <v>1.031476494963891</v>
       </c>
       <c r="J8">
-        <v>1.016563326695844</v>
+        <v>1.03166075167467</v>
       </c>
       <c r="K8">
-        <v>1.027372296446194</v>
+        <v>1.038116384900281</v>
       </c>
       <c r="L8">
-        <v>1.013990466343377</v>
+        <v>1.03297719382789</v>
       </c>
       <c r="M8">
-        <v>1.027197415224441</v>
+        <v>1.044983048773542</v>
       </c>
       <c r="N8">
-        <v>1.00934404015757</v>
+        <v>1.014554724083064</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9840123326280141</v>
+        <v>1.024399518212295</v>
       </c>
       <c r="D9">
-        <v>1.008241324487503</v>
+        <v>1.033653207675718</v>
       </c>
       <c r="E9">
-        <v>0.9933197779473846</v>
+        <v>1.028134294941488</v>
       </c>
       <c r="F9">
-        <v>1.006323141013229</v>
+        <v>1.040102066881865</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038911295982534</v>
+        <v>1.031136574099597</v>
       </c>
       <c r="J9">
-        <v>1.010142569352463</v>
+        <v>1.030272428687651</v>
       </c>
       <c r="K9">
-        <v>1.02120209221331</v>
+        <v>1.036823460044744</v>
       </c>
       <c r="L9">
-        <v>1.006522174947456</v>
+        <v>1.031322746982049</v>
       </c>
       <c r="M9">
-        <v>1.019314455977906</v>
+        <v>1.043251321000644</v>
       </c>
       <c r="N9">
-        <v>1.007157810402406</v>
+        <v>1.01408769876192</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9764644622112427</v>
+        <v>1.022923025052389</v>
       </c>
       <c r="D10">
-        <v>1.002544466018383</v>
+        <v>1.032501109885544</v>
       </c>
       <c r="E10">
-        <v>0.9866899582153076</v>
+        <v>1.02674199889841</v>
       </c>
       <c r="F10">
-        <v>0.9994231326993231</v>
+        <v>1.038661259053373</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037177012433148</v>
+        <v>1.030903275170915</v>
       </c>
       <c r="J10">
-        <v>1.005644016776282</v>
+        <v>1.029346445141667</v>
       </c>
       <c r="K10">
-        <v>1.016867930817776</v>
+        <v>1.035959256338164</v>
       </c>
       <c r="L10">
-        <v>1.0013037612016</v>
+        <v>1.030221004637294</v>
       </c>
       <c r="M10">
-        <v>1.01380281048061</v>
+        <v>1.042097376131796</v>
       </c>
       <c r="N10">
-        <v>1.005624575395724</v>
+        <v>1.013775795909387</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9731035873852225</v>
+        <v>1.022284314954369</v>
       </c>
       <c r="D11">
-        <v>1.000012822409529</v>
+        <v>1.032002538048196</v>
       </c>
       <c r="E11">
-        <v>0.9837469673951141</v>
+        <v>1.026140195671061</v>
       </c>
       <c r="F11">
-        <v>0.9963590422812458</v>
+        <v>1.03803828374254</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036392529553412</v>
+        <v>1.030800674929123</v>
       </c>
       <c r="J11">
-        <v>1.003639733692304</v>
+        <v>1.028945391576342</v>
       </c>
       <c r="K11">
-        <v>1.014934496922705</v>
+        <v>1.035584524397617</v>
       </c>
       <c r="L11">
-        <v>0.9989820419366772</v>
+        <v>1.02974424019707</v>
       </c>
       <c r="M11">
-        <v>1.011349949932167</v>
+        <v>1.041597847451733</v>
       </c>
       <c r="N11">
-        <v>1.004941165220365</v>
+        <v>1.013640611868497</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9718405022127253</v>
+        <v>1.022047163622982</v>
       </c>
       <c r="D12">
-        <v>0.9990622247176838</v>
+        <v>1.031817391755307</v>
       </c>
       <c r="E12">
-        <v>0.9826423604997975</v>
+        <v>1.025916821085044</v>
       </c>
       <c r="F12">
-        <v>0.995208818174622</v>
+        <v>1.037807020040401</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03609592427591</v>
+        <v>1.03076232769671</v>
       </c>
       <c r="J12">
-        <v>1.002886356236422</v>
+        <v>1.028796408739862</v>
       </c>
       <c r="K12">
-        <v>1.014207413102029</v>
+        <v>1.035445254200457</v>
       </c>
       <c r="L12">
-        <v>0.9981098360356722</v>
+        <v>1.029567194269394</v>
       </c>
       <c r="M12">
-        <v>1.010428388944299</v>
+        <v>1.041412321943652</v>
       </c>
       <c r="N12">
-        <v>1.004684243867877</v>
+        <v>1.013590379602501</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9721121171670701</v>
+        <v>1.022098029121711</v>
       </c>
       <c r="D13">
-        <v>0.9992666023775416</v>
+        <v>1.031857104184404</v>
       </c>
       <c r="E13">
-        <v>0.9828798305524413</v>
+        <v>1.025964728345941</v>
       </c>
       <c r="F13">
-        <v>0.9954561023366058</v>
+        <v>1.037856620666889</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036159786000339</v>
+        <v>1.03077056402225</v>
       </c>
       <c r="J13">
-        <v>1.003048368071119</v>
+        <v>1.028828366670061</v>
       </c>
       <c r="K13">
-        <v>1.014363785439493</v>
+        <v>1.035475131647885</v>
       </c>
       <c r="L13">
-        <v>0.9982973795034891</v>
+        <v>1.029605169142466</v>
       </c>
       <c r="M13">
-        <v>1.010626548640247</v>
+        <v>1.041452116796052</v>
       </c>
       <c r="N13">
-        <v>1.004739495779775</v>
+        <v>1.013601155443559</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9729994851795075</v>
+        <v>1.022264710028861</v>
       </c>
       <c r="D14">
-        <v>0.9999344573812337</v>
+        <v>1.031987232862444</v>
       </c>
       <c r="E14">
-        <v>0.9836558973960188</v>
+        <v>1.026121728148159</v>
       </c>
       <c r="F14">
-        <v>0.9962642146222952</v>
+        <v>1.038019164609418</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036368119483977</v>
+        <v>1.030797509965521</v>
       </c>
       <c r="J14">
-        <v>1.00357764335658</v>
+        <v>1.028933076883006</v>
       </c>
       <c r="K14">
-        <v>1.014874580329665</v>
+        <v>1.035573013866708</v>
       </c>
       <c r="L14">
-        <v>0.9989101482873493</v>
+        <v>1.029729604589444</v>
       </c>
       <c r="M14">
-        <v>1.011273989801169</v>
+        <v>1.041582511406661</v>
       </c>
       <c r="N14">
-        <v>1.004919991548928</v>
+        <v>1.013636460037167</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9735442483899421</v>
+        <v>1.022367420119201</v>
       </c>
       <c r="D15">
-        <v>1.000344573855964</v>
+        <v>1.032067415502036</v>
       </c>
       <c r="E15">
-        <v>0.9841325221458904</v>
+        <v>1.026218482399413</v>
       </c>
       <c r="F15">
-        <v>0.9967604988558754</v>
+        <v>1.038119331497142</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036495784308484</v>
+        <v>1.030814080868861</v>
       </c>
       <c r="J15">
-        <v>1.003902555053308</v>
+        <v>1.028997590512315</v>
       </c>
       <c r="K15">
-        <v>1.015188103458345</v>
+        <v>1.035633312016035</v>
       </c>
       <c r="L15">
-        <v>0.9992863795910376</v>
+        <v>1.02980627944795</v>
       </c>
       <c r="M15">
-        <v>1.01167149812825</v>
+        <v>1.041662854736041</v>
       </c>
       <c r="N15">
-        <v>1.005030789435278</v>
+        <v>1.013658209869107</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9766854949156196</v>
+        <v>1.022965427286312</v>
       </c>
       <c r="D16">
-        <v>1.002711075371112</v>
+        <v>1.032534204763887</v>
       </c>
       <c r="E16">
-        <v>0.9868837029114956</v>
+        <v>1.026781961241548</v>
       </c>
       <c r="F16">
-        <v>0.9996248263056072</v>
+        <v>1.038702623025873</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037228354829067</v>
+        <v>1.03091005115785</v>
       </c>
       <c r="J16">
-        <v>1.00577581079909</v>
+        <v>1.029373059781496</v>
       </c>
       <c r="K16">
-        <v>1.016995018061637</v>
+        <v>1.035984115062017</v>
       </c>
       <c r="L16">
-        <v>1.001456496845573</v>
+        <v>1.030252652267325</v>
       </c>
       <c r="M16">
-        <v>1.013964160260792</v>
+        <v>1.042130531186167</v>
       </c>
       <c r="N16">
-        <v>1.005669508197297</v>
+        <v>1.013784764960476</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9786305812866372</v>
+        <v>1.023340708192487</v>
       </c>
       <c r="D17">
-        <v>1.004177818946477</v>
+        <v>1.032827088994575</v>
       </c>
       <c r="E17">
-        <v>0.9885896979491016</v>
+        <v>1.02713570395274</v>
       </c>
       <c r="F17">
-        <v>1.00140068315613</v>
+        <v>1.039068749298188</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037678780169339</v>
+        <v>1.03096982804301</v>
       </c>
       <c r="J17">
-        <v>1.006935467755908</v>
+        <v>1.029608556458962</v>
       </c>
       <c r="K17">
-        <v>1.018112990260199</v>
+        <v>1.036204024389023</v>
       </c>
       <c r="L17">
-        <v>1.002800793317084</v>
+        <v>1.030532730402369</v>
       </c>
       <c r="M17">
-        <v>1.015384197814182</v>
+        <v>1.042423929734443</v>
       </c>
       <c r="N17">
-        <v>1.006064839658166</v>
+        <v>1.013864115586359</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9797562395788952</v>
+        <v>1.023559663083009</v>
       </c>
       <c r="D18">
-        <v>1.005027121584242</v>
+        <v>1.032997951701193</v>
       </c>
       <c r="E18">
-        <v>0.9895778487290013</v>
+        <v>1.027342139267772</v>
       </c>
       <c r="F18">
-        <v>1.002429188266091</v>
+        <v>1.039282391696009</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037938283359938</v>
+        <v>1.031004542383575</v>
       </c>
       <c r="J18">
-        <v>1.00760646653188</v>
+        <v>1.029745908312766</v>
       </c>
       <c r="K18">
-        <v>1.018759640921871</v>
+        <v>1.036332242959885</v>
       </c>
       <c r="L18">
-        <v>1.003578940257452</v>
+        <v>1.030696123857839</v>
       </c>
       <c r="M18">
-        <v>1.016206122085372</v>
+        <v>1.042595077294969</v>
       </c>
       <c r="N18">
-        <v>1.00629355749567</v>
+        <v>1.013910387086171</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.980138577381939</v>
+        <v>1.023634331178705</v>
       </c>
       <c r="D19">
-        <v>1.005315670385608</v>
+        <v>1.033056216227589</v>
       </c>
       <c r="E19">
-        <v>0.9899136250816641</v>
+        <v>1.027412545840969</v>
       </c>
       <c r="F19">
-        <v>1.002778657970068</v>
+        <v>1.039355252974608</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038026225843912</v>
+        <v>1.031016353194409</v>
       </c>
       <c r="J19">
-        <v>1.007834354716302</v>
+        <v>1.029792740130386</v>
       </c>
       <c r="K19">
-        <v>1.01897922045416</v>
+        <v>1.036375953530073</v>
       </c>
       <c r="L19">
-        <v>1.003843271769667</v>
+        <v>1.030751841628813</v>
       </c>
       <c r="M19">
-        <v>1.016485312991019</v>
+        <v>1.0426534363877</v>
       </c>
       <c r="N19">
-        <v>1.006371230923739</v>
+        <v>1.013926162361908</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9784228157523769</v>
+        <v>1.023300437903275</v>
       </c>
       <c r="D20">
-        <v>1.004021098443761</v>
+        <v>1.032795662352862</v>
       </c>
       <c r="E20">
-        <v>0.9884073815285133</v>
+        <v>1.027097740027254</v>
       </c>
       <c r="F20">
-        <v>1.001210912199682</v>
+        <v>1.03902945839203</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037630788325954</v>
+        <v>1.030963430319788</v>
       </c>
       <c r="J20">
-        <v>1.006811610062345</v>
+        <v>1.02958329085779</v>
       </c>
       <c r="K20">
-        <v>1.0179936082844</v>
+        <v>1.036180435448919</v>
       </c>
       <c r="L20">
-        <v>1.002657182733505</v>
+        <v>1.030502677702125</v>
       </c>
       <c r="M20">
-        <v>1.015232502542644</v>
+        <v>1.042392449478692</v>
       </c>
       <c r="N20">
-        <v>1.006022618986542</v>
+        <v>1.013855603292969</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9727385900624586</v>
+        <v>1.022215624054478</v>
       </c>
       <c r="D21">
-        <v>0.9997380772741908</v>
+        <v>1.031948911944049</v>
       </c>
       <c r="E21">
-        <v>0.9834276861006097</v>
+        <v>1.026075491140273</v>
       </c>
       <c r="F21">
-        <v>0.9960265844374911</v>
+        <v>1.037971295675878</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036306915859712</v>
+        <v>1.030789581593502</v>
       </c>
       <c r="J21">
-        <v>1.003422034169436</v>
+        <v>1.028902242706283</v>
       </c>
       <c r="K21">
-        <v>1.0147244135617</v>
+        <v>1.035544192140295</v>
       </c>
       <c r="L21">
-        <v>0.9987299781815484</v>
+        <v>1.029692960184972</v>
       </c>
       <c r="M21">
-        <v>1.01108362744462</v>
+        <v>1.041544112836435</v>
       </c>
       <c r="N21">
-        <v>1.004866926041064</v>
+        <v>1.013626064233106</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9690791676226598</v>
+        <v>1.021534102960369</v>
       </c>
       <c r="D22">
-        <v>0.9969857038512454</v>
+        <v>1.031416790167991</v>
       </c>
       <c r="E22">
-        <v>0.9802301872724776</v>
+        <v>1.025433700127728</v>
       </c>
       <c r="F22">
-        <v>0.9926967388604279</v>
+        <v>1.037306780422268</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03544428503372</v>
+        <v>1.030678905410057</v>
       </c>
       <c r="J22">
-        <v>1.001239161632625</v>
+        <v>1.028473961932363</v>
       </c>
       <c r="K22">
-        <v>1.012617111976874</v>
+        <v>1.035143709509848</v>
       </c>
       <c r="L22">
-        <v>0.996203731682662</v>
+        <v>1.029184123021865</v>
       </c>
       <c r="M22">
-        <v>1.00841427652976</v>
+        <v>1.04101085592502</v>
       </c>
       <c r="N22">
-        <v>1.004122442827394</v>
+        <v>1.01348163477016</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9710274840187204</v>
+        <v>1.021895338342541</v>
       </c>
       <c r="D23">
-        <v>0.9984505973684445</v>
+        <v>1.031698852549215</v>
       </c>
       <c r="E23">
-        <v>0.9819317617316308</v>
+        <v>1.025773836443942</v>
       </c>
       <c r="F23">
-        <v>0.9944688286922432</v>
+        <v>1.037658976884317</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035904512392072</v>
+        <v>1.03073770670349</v>
       </c>
       <c r="J23">
-        <v>1.002401395814011</v>
+        <v>1.028701008864797</v>
       </c>
       <c r="K23">
-        <v>1.013739286053571</v>
+        <v>1.035356055378086</v>
       </c>
       <c r="L23">
-        <v>0.9975485217658202</v>
+        <v>1.029453841851142</v>
       </c>
       <c r="M23">
-        <v>1.009835288517405</v>
+        <v>1.04129353319411</v>
       </c>
       <c r="N23">
-        <v>1.004518849552248</v>
+        <v>1.013558209792208</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9785167234307979</v>
+        <v>1.023318634128527</v>
       </c>
       <c r="D24">
-        <v>1.004091932892029</v>
+        <v>1.03280986261222</v>
       </c>
       <c r="E24">
-        <v>0.9884897838353464</v>
+        <v>1.027114893972342</v>
       </c>
       <c r="F24">
-        <v>1.001296684109376</v>
+        <v>1.039047211992129</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037652483719151</v>
+        <v>1.03096632164678</v>
       </c>
       <c r="J24">
-        <v>1.006867592708636</v>
+        <v>1.029594707324437</v>
       </c>
       <c r="K24">
-        <v>1.018047568653877</v>
+        <v>1.036191094432678</v>
       </c>
       <c r="L24">
-        <v>1.002722092552802</v>
+        <v>1.030516257135411</v>
       </c>
       <c r="M24">
-        <v>1.015301066722944</v>
+        <v>1.042406674010666</v>
       </c>
       <c r="N24">
-        <v>1.006041702466439</v>
+        <v>1.01385944967022</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9868616817948305</v>
+        <v>1.02497263632027</v>
       </c>
       <c r="D25">
-        <v>1.010395696060359</v>
+        <v>1.034100232973267</v>
       </c>
       <c r="E25">
-        <v>0.9958300512619993</v>
+        <v>1.028675159805579</v>
       </c>
       <c r="F25">
-        <v>1.008934645443454</v>
+        <v>1.0406615952339</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039555030438517</v>
+        <v>1.03122563232665</v>
       </c>
       <c r="J25">
-        <v>1.011839439429509</v>
+        <v>1.030631423914184</v>
       </c>
       <c r="K25">
-        <v>1.022834747574435</v>
+        <v>1.037158113740643</v>
       </c>
       <c r="L25">
-        <v>1.008493447065226</v>
+        <v>1.031750250084781</v>
       </c>
       <c r="M25">
-        <v>1.021395827971481</v>
+        <v>1.043698923880785</v>
       </c>
       <c r="N25">
-        <v>1.007735864159357</v>
+        <v>1.01420853497087</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_53/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.026293730687815</v>
+        <v>0.9932650417844484</v>
       </c>
       <c r="D2">
-        <v>1.03513027241954</v>
+        <v>1.015244089778288</v>
       </c>
       <c r="E2">
-        <v>1.029922842390774</v>
+        <v>1.00148680495631</v>
       </c>
       <c r="F2">
-        <v>1.041951930241646</v>
+        <v>1.014817022449775</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031427613860127</v>
+        <v>1.040976846663494</v>
       </c>
       <c r="J2">
-        <v>1.031457977094533</v>
+        <v>1.015649077430261</v>
       </c>
       <c r="K2">
-        <v>1.037927759905831</v>
+        <v>1.026495058056873</v>
       </c>
       <c r="L2">
-        <v>1.03273534726391</v>
+        <v>1.01292546501515</v>
       </c>
       <c r="M2">
-        <v>1.04472999172796</v>
+        <v>1.026073721056615</v>
       </c>
       <c r="N2">
-        <v>1.014486559250125</v>
+        <v>1.009032934002879</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027254033722701</v>
+        <v>0.9977798222856106</v>
       </c>
       <c r="D3">
-        <v>1.03587863893137</v>
+        <v>1.018667701979135</v>
       </c>
       <c r="E3">
-        <v>1.030830618003217</v>
+        <v>1.005488344986496</v>
       </c>
       <c r="F3">
-        <v>1.042890376771948</v>
+        <v>1.018975820705765</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031571451937797</v>
+        <v>1.041956370204808</v>
       </c>
       <c r="J3">
-        <v>1.032057922865888</v>
+        <v>1.018331195112767</v>
       </c>
       <c r="K3">
-        <v>1.038485619794909</v>
+        <v>1.029067170404681</v>
       </c>
       <c r="L3">
-        <v>1.033451102157662</v>
+        <v>1.016051479777619</v>
       </c>
       <c r="M3">
-        <v>1.045478835792599</v>
+        <v>1.029371525764352</v>
       </c>
       <c r="N3">
-        <v>1.014688188467585</v>
+        <v>1.009945409454538</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.027875906062445</v>
+        <v>1.000642486197952</v>
       </c>
       <c r="D4">
-        <v>1.036363090452392</v>
+        <v>1.020840473135027</v>
       </c>
       <c r="E4">
-        <v>1.03141885797848</v>
+        <v>1.008031398824481</v>
       </c>
       <c r="F4">
-        <v>1.043498324117879</v>
+        <v>1.021617682733271</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03166321758378</v>
+        <v>1.042566534363952</v>
       </c>
       <c r="J4">
-        <v>1.032446028256833</v>
+        <v>1.020029771379525</v>
       </c>
       <c r="K4">
-        <v>1.038846137278419</v>
+        <v>1.030693714029425</v>
       </c>
       <c r="L4">
-        <v>1.033914463388416</v>
+        <v>1.018033848805792</v>
       </c>
       <c r="M4">
-        <v>1.045963473055198</v>
+        <v>1.0314620187627</v>
       </c>
       <c r="N4">
-        <v>1.014818542492957</v>
+        <v>1.010522921172704</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028137458166442</v>
+        <v>1.001832398832634</v>
       </c>
       <c r="D5">
-        <v>1.036566802404262</v>
+        <v>1.021744035731895</v>
       </c>
       <c r="E5">
-        <v>1.031666355974383</v>
+        <v>1.009089817746</v>
       </c>
       <c r="F5">
-        <v>1.043754073766026</v>
+        <v>1.022716947283292</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.031701482390921</v>
+        <v>1.042817495853981</v>
       </c>
       <c r="J5">
-        <v>1.032609163022554</v>
+        <v>1.020735282474017</v>
       </c>
       <c r="K5">
-        <v>1.038997588842153</v>
+        <v>1.031368721793655</v>
       </c>
       <c r="L5">
-        <v>1.034109312092092</v>
+        <v>1.018857880598431</v>
       </c>
       <c r="M5">
-        <v>1.046167233771824</v>
+        <v>1.032330790651357</v>
       </c>
       <c r="N5">
-        <v>1.01487331577483</v>
+        <v>1.010762703516721</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028181380750933</v>
+        <v>1.00203140987592</v>
       </c>
       <c r="D6">
-        <v>1.036601009344182</v>
+        <v>1.021895177875287</v>
       </c>
       <c r="E6">
-        <v>1.03170792378189</v>
+        <v>1.009266915373157</v>
       </c>
       <c r="F6">
-        <v>1.043797025104897</v>
+        <v>1.022900862768028</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031707888823198</v>
+        <v>1.042859310972367</v>
       </c>
       <c r="J6">
-        <v>1.032636552590999</v>
+        <v>1.020853245969327</v>
       </c>
       <c r="K6">
-        <v>1.039023011746881</v>
+        <v>1.031481550222385</v>
       </c>
       <c r="L6">
-        <v>1.034142031045668</v>
+        <v>1.018995699217554</v>
       </c>
       <c r="M6">
-        <v>1.046201447185706</v>
+        <v>1.032476079714663</v>
       </c>
       <c r="N6">
-        <v>1.014882510823729</v>
+        <v>1.010802790422326</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027879400475865</v>
+        <v>1.000658438469349</v>
       </c>
       <c r="D7">
-        <v>1.036365812272456</v>
+        <v>1.020852584962794</v>
       </c>
       <c r="E7">
-        <v>1.031422164266961</v>
+        <v>1.008045582945596</v>
       </c>
       <c r="F7">
-        <v>1.043501740796426</v>
+        <v>1.021632415343711</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031663730112382</v>
+        <v>1.042569909393845</v>
       </c>
       <c r="J7">
-        <v>1.032448208169881</v>
+        <v>1.020039231778588</v>
       </c>
       <c r="K7">
-        <v>1.038848161415076</v>
+        <v>1.030702767730707</v>
       </c>
       <c r="L7">
-        <v>1.033917066764683</v>
+        <v>1.018044895923512</v>
       </c>
       <c r="M7">
-        <v>1.04596619564183</v>
+        <v>1.031473666495083</v>
       </c>
       <c r="N7">
-        <v>1.01481927448494</v>
+        <v>1.010526136842353</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.026618167210288</v>
+        <v>0.9948032976462938</v>
       </c>
       <c r="D8">
-        <v>1.035383142437422</v>
+        <v>1.016410115647612</v>
       </c>
       <c r="E8">
-        <v>1.030229453002787</v>
+        <v>1.002848948069098</v>
       </c>
       <c r="F8">
-        <v>1.042268934902152</v>
+        <v>1.016232929907178</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031476494963891</v>
+        <v>1.041312847468751</v>
       </c>
       <c r="J8">
-        <v>1.03166075167467</v>
+        <v>1.016563326695845</v>
       </c>
       <c r="K8">
-        <v>1.038116384900281</v>
+        <v>1.027372296446194</v>
       </c>
       <c r="L8">
-        <v>1.03297719382789</v>
+        <v>1.013990466343378</v>
       </c>
       <c r="M8">
-        <v>1.044983048773542</v>
+        <v>1.027197415224442</v>
       </c>
       <c r="N8">
-        <v>1.014554724083064</v>
+        <v>1.00934404015757</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.024399518212295</v>
+        <v>0.9840123326280131</v>
       </c>
       <c r="D9">
-        <v>1.033653207675718</v>
+        <v>1.008241324487502</v>
       </c>
       <c r="E9">
-        <v>1.028134294941488</v>
+        <v>0.9933197779473836</v>
       </c>
       <c r="F9">
-        <v>1.040102066881865</v>
+        <v>1.006323141013228</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031136574099597</v>
+        <v>1.038911295982534</v>
       </c>
       <c r="J9">
-        <v>1.030272428687651</v>
+        <v>1.010142569352462</v>
       </c>
       <c r="K9">
-        <v>1.036823460044744</v>
+        <v>1.021202092213309</v>
       </c>
       <c r="L9">
-        <v>1.031322746982049</v>
+        <v>1.006522174947456</v>
       </c>
       <c r="M9">
-        <v>1.043251321000644</v>
+        <v>1.019314455977905</v>
       </c>
       <c r="N9">
-        <v>1.01408769876192</v>
+        <v>1.007157810402406</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.022923025052389</v>
+        <v>0.9764644622112425</v>
       </c>
       <c r="D10">
-        <v>1.032501109885544</v>
+        <v>1.002544466018383</v>
       </c>
       <c r="E10">
-        <v>1.02674199889841</v>
+        <v>0.9866899582153073</v>
       </c>
       <c r="F10">
-        <v>1.038661259053373</v>
+        <v>0.9994231326993233</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030903275170915</v>
+        <v>1.037177012433148</v>
       </c>
       <c r="J10">
-        <v>1.029346445141667</v>
+        <v>1.005644016776282</v>
       </c>
       <c r="K10">
-        <v>1.035959256338164</v>
+        <v>1.016867930817776</v>
       </c>
       <c r="L10">
-        <v>1.030221004637294</v>
+        <v>1.0013037612016</v>
       </c>
       <c r="M10">
-        <v>1.042097376131796</v>
+        <v>1.01380281048061</v>
       </c>
       <c r="N10">
-        <v>1.013775795909387</v>
+        <v>1.005624575395724</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.022284314954369</v>
+        <v>0.973103587385222</v>
       </c>
       <c r="D11">
-        <v>1.032002538048196</v>
+        <v>1.000012822409529</v>
       </c>
       <c r="E11">
-        <v>1.026140195671061</v>
+        <v>0.9837469673951134</v>
       </c>
       <c r="F11">
-        <v>1.03803828374254</v>
+        <v>0.9963590422812456</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030800674929123</v>
+        <v>1.036392529553412</v>
       </c>
       <c r="J11">
-        <v>1.028945391576342</v>
+        <v>1.003639733692303</v>
       </c>
       <c r="K11">
-        <v>1.035584524397617</v>
+        <v>1.014934496922705</v>
       </c>
       <c r="L11">
-        <v>1.02974424019707</v>
+        <v>0.9989820419366764</v>
       </c>
       <c r="M11">
-        <v>1.041597847451733</v>
+        <v>1.011349949932167</v>
       </c>
       <c r="N11">
-        <v>1.013640611868497</v>
+        <v>1.004941165220365</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.022047163622982</v>
+        <v>0.9718405022127257</v>
       </c>
       <c r="D12">
-        <v>1.031817391755307</v>
+        <v>0.999062224717684</v>
       </c>
       <c r="E12">
-        <v>1.025916821085044</v>
+        <v>0.9826423604997973</v>
       </c>
       <c r="F12">
-        <v>1.037807020040401</v>
+        <v>0.9952088181746224</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03076232769671</v>
+        <v>1.03609592427591</v>
       </c>
       <c r="J12">
-        <v>1.028796408739862</v>
+        <v>1.002886356236422</v>
       </c>
       <c r="K12">
-        <v>1.035445254200457</v>
+        <v>1.014207413102029</v>
       </c>
       <c r="L12">
-        <v>1.029567194269394</v>
+        <v>0.998109836035672</v>
       </c>
       <c r="M12">
-        <v>1.041412321943652</v>
+        <v>1.0104283889443</v>
       </c>
       <c r="N12">
-        <v>1.013590379602501</v>
+        <v>1.004684243867877</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.022098029121711</v>
+        <v>0.9721121171670688</v>
       </c>
       <c r="D13">
-        <v>1.031857104184404</v>
+        <v>0.9992666023775404</v>
       </c>
       <c r="E13">
-        <v>1.025964728345941</v>
+        <v>0.9828798305524404</v>
       </c>
       <c r="F13">
-        <v>1.037856620666889</v>
+        <v>0.9954561023366042</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03077056402225</v>
+        <v>1.036159786000339</v>
       </c>
       <c r="J13">
-        <v>1.028828366670061</v>
+        <v>1.003048368071118</v>
       </c>
       <c r="K13">
-        <v>1.035475131647885</v>
+        <v>1.014363785439492</v>
       </c>
       <c r="L13">
-        <v>1.029605169142466</v>
+        <v>0.9982973795034881</v>
       </c>
       <c r="M13">
-        <v>1.041452116796052</v>
+        <v>1.010626548640245</v>
       </c>
       <c r="N13">
-        <v>1.013601155443559</v>
+        <v>1.004739495779775</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.022264710028861</v>
+        <v>0.9729994851795083</v>
       </c>
       <c r="D14">
-        <v>1.031987232862444</v>
+        <v>0.9999344573812343</v>
       </c>
       <c r="E14">
-        <v>1.026121728148159</v>
+        <v>0.9836558973960193</v>
       </c>
       <c r="F14">
-        <v>1.038019164609418</v>
+        <v>0.996264214622296</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030797509965521</v>
+        <v>1.036368119483977</v>
       </c>
       <c r="J14">
-        <v>1.028933076883006</v>
+        <v>1.003577643356581</v>
       </c>
       <c r="K14">
-        <v>1.035573013866708</v>
+        <v>1.014874580329666</v>
       </c>
       <c r="L14">
-        <v>1.029729604589444</v>
+        <v>0.9989101482873499</v>
       </c>
       <c r="M14">
-        <v>1.041582511406661</v>
+        <v>1.01127398980117</v>
       </c>
       <c r="N14">
-        <v>1.013636460037167</v>
+        <v>1.004919991548928</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.022367420119201</v>
+        <v>0.9735442483899428</v>
       </c>
       <c r="D15">
-        <v>1.032067415502036</v>
+        <v>1.000344573855964</v>
       </c>
       <c r="E15">
-        <v>1.026218482399413</v>
+        <v>0.984132522145891</v>
       </c>
       <c r="F15">
-        <v>1.038119331497142</v>
+        <v>0.9967604988558759</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030814080868861</v>
+        <v>1.036495784308484</v>
       </c>
       <c r="J15">
-        <v>1.028997590512315</v>
+        <v>1.003902555053309</v>
       </c>
       <c r="K15">
-        <v>1.035633312016035</v>
+        <v>1.015188103458346</v>
       </c>
       <c r="L15">
-        <v>1.02980627944795</v>
+        <v>0.9992863795910382</v>
       </c>
       <c r="M15">
-        <v>1.041662854736041</v>
+        <v>1.011671498128251</v>
       </c>
       <c r="N15">
-        <v>1.013658209869107</v>
+        <v>1.005030789435278</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.022965427286312</v>
+        <v>0.9766854949156207</v>
       </c>
       <c r="D16">
-        <v>1.032534204763887</v>
+        <v>1.002711075371113</v>
       </c>
       <c r="E16">
-        <v>1.026781961241548</v>
+        <v>0.9868837029114966</v>
       </c>
       <c r="F16">
-        <v>1.038702623025873</v>
+        <v>0.9996248263056081</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03091005115785</v>
+        <v>1.037228354829068</v>
       </c>
       <c r="J16">
-        <v>1.029373059781496</v>
+        <v>1.005775810799091</v>
       </c>
       <c r="K16">
-        <v>1.035984115062017</v>
+        <v>1.016995018061638</v>
       </c>
       <c r="L16">
-        <v>1.030252652267325</v>
+        <v>1.001456496845574</v>
       </c>
       <c r="M16">
-        <v>1.042130531186167</v>
+        <v>1.013964160260793</v>
       </c>
       <c r="N16">
-        <v>1.013784764960476</v>
+        <v>1.005669508197298</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.023340708192487</v>
+        <v>0.9786305812866383</v>
       </c>
       <c r="D17">
-        <v>1.032827088994575</v>
+        <v>1.004177818946478</v>
       </c>
       <c r="E17">
-        <v>1.02713570395274</v>
+        <v>0.9885896979491023</v>
       </c>
       <c r="F17">
-        <v>1.039068749298188</v>
+        <v>1.001400683156131</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03096982804301</v>
+        <v>1.03767878016934</v>
       </c>
       <c r="J17">
-        <v>1.029608556458962</v>
+        <v>1.006935467755909</v>
       </c>
       <c r="K17">
-        <v>1.036204024389023</v>
+        <v>1.0181129902602</v>
       </c>
       <c r="L17">
-        <v>1.030532730402369</v>
+        <v>1.002800793317084</v>
       </c>
       <c r="M17">
-        <v>1.042423929734443</v>
+        <v>1.015384197814184</v>
       </c>
       <c r="N17">
-        <v>1.013864115586359</v>
+        <v>1.006064839658167</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.023559663083009</v>
+        <v>0.9797562395788956</v>
       </c>
       <c r="D18">
-        <v>1.032997951701193</v>
+        <v>1.005027121584242</v>
       </c>
       <c r="E18">
-        <v>1.027342139267772</v>
+        <v>0.9895778487290017</v>
       </c>
       <c r="F18">
-        <v>1.039282391696009</v>
+        <v>1.002429188266091</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031004542383575</v>
+        <v>1.037938283359938</v>
       </c>
       <c r="J18">
-        <v>1.029745908312766</v>
+        <v>1.00760646653188</v>
       </c>
       <c r="K18">
-        <v>1.036332242959885</v>
+        <v>1.018759640921871</v>
       </c>
       <c r="L18">
-        <v>1.030696123857839</v>
+        <v>1.003578940257452</v>
       </c>
       <c r="M18">
-        <v>1.042595077294969</v>
+        <v>1.016206122085372</v>
       </c>
       <c r="N18">
-        <v>1.013910387086171</v>
+        <v>1.00629355749567</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.023634331178705</v>
+        <v>0.9801385773819389</v>
       </c>
       <c r="D19">
-        <v>1.033056216227589</v>
+        <v>1.005315670385608</v>
       </c>
       <c r="E19">
-        <v>1.027412545840969</v>
+        <v>0.9899136250816637</v>
       </c>
       <c r="F19">
-        <v>1.039355252974608</v>
+        <v>1.002778657970067</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031016353194409</v>
+        <v>1.038026225843912</v>
       </c>
       <c r="J19">
-        <v>1.029792740130386</v>
+        <v>1.007834354716302</v>
       </c>
       <c r="K19">
-        <v>1.036375953530073</v>
+        <v>1.01897922045416</v>
       </c>
       <c r="L19">
-        <v>1.030751841628813</v>
+        <v>1.003843271769666</v>
       </c>
       <c r="M19">
-        <v>1.0426534363877</v>
+        <v>1.016485312991019</v>
       </c>
       <c r="N19">
-        <v>1.013926162361908</v>
+        <v>1.006371230923739</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.023300437903275</v>
+        <v>0.9784228157523777</v>
       </c>
       <c r="D20">
-        <v>1.032795662352862</v>
+        <v>1.004021098443763</v>
       </c>
       <c r="E20">
-        <v>1.027097740027254</v>
+        <v>0.9884073815285144</v>
       </c>
       <c r="F20">
-        <v>1.03902945839203</v>
+        <v>1.001210912199683</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030963430319788</v>
+        <v>1.037630788325955</v>
       </c>
       <c r="J20">
-        <v>1.02958329085779</v>
+        <v>1.006811610062346</v>
       </c>
       <c r="K20">
-        <v>1.036180435448919</v>
+        <v>1.017993608284401</v>
       </c>
       <c r="L20">
-        <v>1.030502677702125</v>
+        <v>1.002657182733506</v>
       </c>
       <c r="M20">
-        <v>1.042392449478692</v>
+        <v>1.015232502542645</v>
       </c>
       <c r="N20">
-        <v>1.013855603292969</v>
+        <v>1.006022618986543</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.022215624054478</v>
+        <v>0.9727385900624592</v>
       </c>
       <c r="D21">
-        <v>1.031948911944049</v>
+        <v>0.9997380772741912</v>
       </c>
       <c r="E21">
-        <v>1.026075491140273</v>
+        <v>0.9834276861006105</v>
       </c>
       <c r="F21">
-        <v>1.037971295675878</v>
+        <v>0.9960265844374915</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030789581593502</v>
+        <v>1.036306915859712</v>
       </c>
       <c r="J21">
-        <v>1.028902242706283</v>
+        <v>1.003422034169437</v>
       </c>
       <c r="K21">
-        <v>1.035544192140295</v>
+        <v>1.014724413561701</v>
       </c>
       <c r="L21">
-        <v>1.029692960184972</v>
+        <v>0.9987299781815491</v>
       </c>
       <c r="M21">
-        <v>1.041544112836435</v>
+        <v>1.01108362744462</v>
       </c>
       <c r="N21">
-        <v>1.013626064233106</v>
+        <v>1.004866926041065</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.021534102960369</v>
+        <v>0.9690791676226596</v>
       </c>
       <c r="D22">
-        <v>1.031416790167991</v>
+        <v>0.996985703851245</v>
       </c>
       <c r="E22">
-        <v>1.025433700127728</v>
+        <v>0.9802301872724773</v>
       </c>
       <c r="F22">
-        <v>1.037306780422268</v>
+        <v>0.9926967388604274</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030678905410057</v>
+        <v>1.03544428503372</v>
       </c>
       <c r="J22">
-        <v>1.028473961932363</v>
+        <v>1.001239161632625</v>
       </c>
       <c r="K22">
-        <v>1.035143709509848</v>
+        <v>1.012617111976873</v>
       </c>
       <c r="L22">
-        <v>1.029184123021865</v>
+        <v>0.9962037316826619</v>
       </c>
       <c r="M22">
-        <v>1.04101085592502</v>
+        <v>1.00841427652976</v>
       </c>
       <c r="N22">
-        <v>1.01348163477016</v>
+        <v>1.004122442827394</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.021895338342541</v>
+        <v>0.9710274840187206</v>
       </c>
       <c r="D23">
-        <v>1.031698852549215</v>
+        <v>0.9984505973684449</v>
       </c>
       <c r="E23">
-        <v>1.025773836443942</v>
+        <v>0.981931761731631</v>
       </c>
       <c r="F23">
-        <v>1.037658976884317</v>
+        <v>0.9944688286922432</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03073770670349</v>
+        <v>1.035904512392073</v>
       </c>
       <c r="J23">
-        <v>1.028701008864797</v>
+        <v>1.002401395814012</v>
       </c>
       <c r="K23">
-        <v>1.035356055378086</v>
+        <v>1.013739286053571</v>
       </c>
       <c r="L23">
-        <v>1.029453841851142</v>
+        <v>0.9975485217658204</v>
       </c>
       <c r="M23">
-        <v>1.04129353319411</v>
+        <v>1.009835288517405</v>
       </c>
       <c r="N23">
-        <v>1.013558209792208</v>
+        <v>1.004518849552248</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.023318634128527</v>
+        <v>0.9785167234307978</v>
       </c>
       <c r="D24">
-        <v>1.03280986261222</v>
+        <v>1.004091932892029</v>
       </c>
       <c r="E24">
-        <v>1.027114893972342</v>
+        <v>0.9884897838353464</v>
       </c>
       <c r="F24">
-        <v>1.039047211992129</v>
+        <v>1.001296684109376</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03096632164678</v>
+        <v>1.03765248371915</v>
       </c>
       <c r="J24">
-        <v>1.029594707324437</v>
+        <v>1.006867592708636</v>
       </c>
       <c r="K24">
-        <v>1.036191094432678</v>
+        <v>1.018047568653877</v>
       </c>
       <c r="L24">
-        <v>1.030516257135411</v>
+        <v>1.002722092552802</v>
       </c>
       <c r="M24">
-        <v>1.042406674010666</v>
+        <v>1.015301066722944</v>
       </c>
       <c r="N24">
-        <v>1.01385944967022</v>
+        <v>1.006041702466439</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.02497263632027</v>
+        <v>0.9868616817948307</v>
       </c>
       <c r="D25">
-        <v>1.034100232973267</v>
+        <v>1.010395696060359</v>
       </c>
       <c r="E25">
-        <v>1.028675159805579</v>
+        <v>0.9958300512619992</v>
       </c>
       <c r="F25">
-        <v>1.0406615952339</v>
+        <v>1.008934645443454</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03122563232665</v>
+        <v>1.039555030438517</v>
       </c>
       <c r="J25">
-        <v>1.030631423914184</v>
+        <v>1.011839439429509</v>
       </c>
       <c r="K25">
-        <v>1.037158113740643</v>
+        <v>1.022834747574436</v>
       </c>
       <c r="L25">
-        <v>1.031750250084781</v>
+        <v>1.008493447065226</v>
       </c>
       <c r="M25">
-        <v>1.043698923880785</v>
+        <v>1.021395827971481</v>
       </c>
       <c r="N25">
-        <v>1.01420853497087</v>
+        <v>1.007735864159357</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_53/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9932650417844484</v>
+        <v>1.014730190095686</v>
       </c>
       <c r="D2">
-        <v>1.015244089778288</v>
+        <v>1.030391412346128</v>
       </c>
       <c r="E2">
-        <v>1.00148680495631</v>
+        <v>1.032387740106533</v>
       </c>
       <c r="F2">
-        <v>1.014817022449775</v>
+        <v>1.039231104007704</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040976846663494</v>
+        <v>1.048987968368853</v>
       </c>
       <c r="J2">
-        <v>1.015649077430261</v>
+        <v>1.036479076032427</v>
       </c>
       <c r="K2">
-        <v>1.026495058056873</v>
+        <v>1.041442980870311</v>
       </c>
       <c r="L2">
-        <v>1.01292546501515</v>
+        <v>1.043413574730798</v>
       </c>
       <c r="M2">
-        <v>1.026073721056615</v>
+        <v>1.050169660139688</v>
       </c>
       <c r="N2">
-        <v>1.009032934002879</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.015943146656213</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.048278269969092</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.040374059056265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9977798222856106</v>
+        <v>1.018040766335708</v>
       </c>
       <c r="D3">
-        <v>1.018667701979135</v>
+        <v>1.032534962134744</v>
       </c>
       <c r="E3">
-        <v>1.005488344986496</v>
+        <v>1.035162585692012</v>
       </c>
       <c r="F3">
-        <v>1.018975820705765</v>
+        <v>1.041870319959386</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041956370204808</v>
+        <v>1.049714242787363</v>
       </c>
       <c r="J3">
-        <v>1.018331195112767</v>
+        <v>1.038051418586313</v>
       </c>
       <c r="K3">
-        <v>1.029067170404681</v>
+        <v>1.04276781135205</v>
       </c>
       <c r="L3">
-        <v>1.016051479777619</v>
+        <v>1.045364486034032</v>
       </c>
       <c r="M3">
-        <v>1.029371525764352</v>
+        <v>1.051994089508267</v>
       </c>
       <c r="N3">
-        <v>1.009945409454538</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.016479300975916</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.049722166723026</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.041308165004454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.000642486197952</v>
+        <v>1.020149295208465</v>
       </c>
       <c r="D4">
-        <v>1.020840473135027</v>
+        <v>1.033904215706076</v>
       </c>
       <c r="E4">
-        <v>1.008031398824481</v>
+        <v>1.036935453992601</v>
       </c>
       <c r="F4">
-        <v>1.021617682733271</v>
+        <v>1.043557741215319</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042566534363952</v>
+        <v>1.050169838471559</v>
       </c>
       <c r="J4">
-        <v>1.020029771379525</v>
+        <v>1.039051255693972</v>
       </c>
       <c r="K4">
-        <v>1.030693714029425</v>
+        <v>1.043609967701972</v>
       </c>
       <c r="L4">
-        <v>1.018033848805792</v>
+        <v>1.046607636529072</v>
       </c>
       <c r="M4">
-        <v>1.0314620187627</v>
+        <v>1.053157417777316</v>
       </c>
       <c r="N4">
-        <v>1.010522921172704</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.016820176162696</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.050642850896474</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.041904531435065</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.001832398832634</v>
+        <v>1.021030519678124</v>
       </c>
       <c r="D5">
-        <v>1.021744035731895</v>
+        <v>1.034479526848535</v>
       </c>
       <c r="E5">
-        <v>1.009089817746</v>
+        <v>1.037677880088929</v>
       </c>
       <c r="F5">
-        <v>1.022716947283292</v>
+        <v>1.044264268954142</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042817495853981</v>
+        <v>1.050359921627076</v>
       </c>
       <c r="J5">
-        <v>1.020735282474017</v>
+        <v>1.039470044416338</v>
       </c>
       <c r="K5">
-        <v>1.031368721793655</v>
+        <v>1.043964261115017</v>
       </c>
       <c r="L5">
-        <v>1.018857880598431</v>
+        <v>1.047128128795708</v>
       </c>
       <c r="M5">
-        <v>1.032330790651357</v>
+        <v>1.05364431552251</v>
       </c>
       <c r="N5">
-        <v>1.010762703516721</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.016963191622237</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.051028192393191</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.042162194661463</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00203140987592</v>
+        <v>1.021181244201831</v>
       </c>
       <c r="D6">
-        <v>1.021895177875287</v>
+        <v>1.034580555445038</v>
       </c>
       <c r="E6">
-        <v>1.009266915373157</v>
+        <v>1.037805153560752</v>
       </c>
       <c r="F6">
-        <v>1.022900862768028</v>
+        <v>1.044384917141735</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042859310972367</v>
+        <v>1.050394006125929</v>
       </c>
       <c r="J6">
-        <v>1.020853245969327</v>
+        <v>1.039543263624385</v>
       </c>
       <c r="K6">
-        <v>1.031481550222385</v>
+        <v>1.044028165155774</v>
       </c>
       <c r="L6">
-        <v>1.018995699217554</v>
+        <v>1.047218152559383</v>
       </c>
       <c r="M6">
-        <v>1.032476079714663</v>
+        <v>1.053728104093075</v>
       </c>
       <c r="N6">
-        <v>1.010802790422326</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.016988503501159</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.05109450447569</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.042216098836999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.000658438469349</v>
+        <v>1.020169751783402</v>
       </c>
       <c r="D7">
-        <v>1.020852584962794</v>
+        <v>1.033924450365992</v>
       </c>
       <c r="E7">
-        <v>1.008045582945596</v>
+        <v>1.036953253337972</v>
       </c>
       <c r="F7">
-        <v>1.021632415343711</v>
+        <v>1.043573368465271</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042569909393845</v>
+        <v>1.050178746795289</v>
       </c>
       <c r="J7">
-        <v>1.020039231778588</v>
+        <v>1.039065309078113</v>
       </c>
       <c r="K7">
-        <v>1.030702767730707</v>
+        <v>1.04362710748482</v>
       </c>
       <c r="L7">
-        <v>1.018044895923512</v>
+        <v>1.046622380649828</v>
       </c>
       <c r="M7">
-        <v>1.031473666495083</v>
+        <v>1.053170040546533</v>
       </c>
       <c r="N7">
-        <v>1.010526136842353</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.016825815483787</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.050652840833892</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.041936704044875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9948032976462938</v>
+        <v>1.015866915286305</v>
       </c>
       <c r="D8">
-        <v>1.016410115647612</v>
+        <v>1.031135074124772</v>
       </c>
       <c r="E8">
-        <v>1.002848948069098</v>
+        <v>1.033340086777023</v>
       </c>
       <c r="F8">
-        <v>1.016232929907178</v>
+        <v>1.040135020915282</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041312847468751</v>
+        <v>1.049244315345399</v>
       </c>
       <c r="J8">
-        <v>1.016563326695845</v>
+        <v>1.037024654503341</v>
       </c>
       <c r="K8">
-        <v>1.027372296446194</v>
+        <v>1.041909191199022</v>
       </c>
       <c r="L8">
-        <v>1.013990466343378</v>
+        <v>1.044086617062669</v>
       </c>
       <c r="M8">
-        <v>1.027197415224442</v>
+        <v>1.050797455307419</v>
       </c>
       <c r="N8">
-        <v>1.00934404015757</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.016130294427798</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.048775122298899</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.040726552710815</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9840123326280131</v>
+        <v>1.008003514797248</v>
       </c>
       <c r="D9">
-        <v>1.008241324487502</v>
+        <v>1.026059636904711</v>
       </c>
       <c r="E9">
-        <v>0.9933197779473836</v>
+        <v>1.026781082611681</v>
       </c>
       <c r="F9">
-        <v>1.006323141013228</v>
+        <v>1.033905146878055</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038911295982534</v>
+        <v>1.047475651239616</v>
       </c>
       <c r="J9">
-        <v>1.010142569352462</v>
+        <v>1.033276779821253</v>
       </c>
       <c r="K9">
-        <v>1.021202092213309</v>
+        <v>1.038743604428857</v>
       </c>
       <c r="L9">
-        <v>1.006522174947456</v>
+        <v>1.039454100663445</v>
       </c>
       <c r="M9">
-        <v>1.019314455977905</v>
+        <v>1.046471085583693</v>
       </c>
       <c r="N9">
-        <v>1.007157810402406</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.014851079580333</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.045351121536861</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.038485120527279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9764644622112425</v>
+        <v>1.002628259645864</v>
       </c>
       <c r="D10">
-        <v>1.002544466018383</v>
+        <v>1.022624028681809</v>
       </c>
       <c r="E10">
-        <v>0.9866899582153073</v>
+        <v>1.022367536142563</v>
       </c>
       <c r="F10">
-        <v>0.9994231326993233</v>
+        <v>1.029765973792608</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037177012433148</v>
+        <v>1.046253685179091</v>
       </c>
       <c r="J10">
-        <v>1.005644016776282</v>
+        <v>1.030737986638085</v>
       </c>
       <c r="K10">
-        <v>1.016867930817776</v>
+        <v>1.036596470730863</v>
       </c>
       <c r="L10">
-        <v>1.0013037612016</v>
+        <v>1.036344349800077</v>
       </c>
       <c r="M10">
-        <v>1.01380281048061</v>
+        <v>1.043617817077904</v>
       </c>
       <c r="N10">
-        <v>1.005624575395724</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.013988785734167</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.043144111204889</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.036983746368808</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.973103587385222</v>
+        <v>1.000735652576294</v>
       </c>
       <c r="D11">
-        <v>1.000012822409529</v>
+        <v>1.021489507092753</v>
       </c>
       <c r="E11">
-        <v>0.9837469673951134</v>
+        <v>1.021127067556884</v>
       </c>
       <c r="F11">
-        <v>0.9963590422812456</v>
+        <v>1.028977015790427</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036392529553412</v>
+        <v>1.045983960682499</v>
       </c>
       <c r="J11">
-        <v>1.003639733692303</v>
+        <v>1.03007785953246</v>
       </c>
       <c r="K11">
-        <v>1.014934496922705</v>
+        <v>1.03601723122321</v>
       </c>
       <c r="L11">
-        <v>0.9989820419366764</v>
+        <v>1.035661261482156</v>
       </c>
       <c r="M11">
-        <v>1.011349949932167</v>
+        <v>1.043372403703474</v>
       </c>
       <c r="N11">
-        <v>1.004941165220365</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.013800783378957</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.04338364744913</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.036606974543412</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9718405022127257</v>
+        <v>1.000203910859063</v>
       </c>
       <c r="D12">
-        <v>0.999062224717684</v>
+        <v>1.021198214708451</v>
       </c>
       <c r="E12">
-        <v>0.9826423604997973</v>
+        <v>1.020918296527948</v>
       </c>
       <c r="F12">
-        <v>0.9952088181746224</v>
+        <v>1.029056643532659</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03609592427591</v>
+        <v>1.045982494719222</v>
       </c>
       <c r="J12">
-        <v>1.002886356236422</v>
+        <v>1.029999643317828</v>
       </c>
       <c r="K12">
-        <v>1.014207413102029</v>
+        <v>1.03593025549297</v>
       </c>
       <c r="L12">
-        <v>0.998109836035672</v>
+        <v>1.035655416233173</v>
       </c>
       <c r="M12">
-        <v>1.0104283889443</v>
+        <v>1.043647562029251</v>
       </c>
       <c r="N12">
-        <v>1.004684243867877</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.013803132578864</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.043925950019198</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.036545480144544</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9721121171670688</v>
+        <v>1.00069414020567</v>
       </c>
       <c r="D13">
-        <v>0.9992666023775404</v>
+        <v>1.021549948361392</v>
       </c>
       <c r="E13">
-        <v>0.9828798305524404</v>
+        <v>1.02150114503574</v>
       </c>
       <c r="F13">
-        <v>0.9954561023366042</v>
+        <v>1.02982927927433</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036159786000339</v>
+        <v>1.046198854175121</v>
       </c>
       <c r="J13">
-        <v>1.003048368071118</v>
+        <v>1.030376638108169</v>
       </c>
       <c r="K13">
-        <v>1.014363785439492</v>
+        <v>1.036232923792354</v>
       </c>
       <c r="L13">
-        <v>0.9982973795034881</v>
+        <v>1.036185001961704</v>
       </c>
       <c r="M13">
-        <v>1.010626548640245</v>
+        <v>1.044364280357227</v>
       </c>
       <c r="N13">
-        <v>1.004739495779775</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.013957537927781</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.044767970608507</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.03675698862979</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9729994851795083</v>
+        <v>1.001500229736282</v>
       </c>
       <c r="D14">
-        <v>0.9999344573812343</v>
+        <v>1.022088746108513</v>
       </c>
       <c r="E14">
-        <v>0.9836558973960193</v>
+        <v>1.022266240792345</v>
       </c>
       <c r="F14">
-        <v>0.996264214622296</v>
+        <v>1.030682223065492</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036368119483977</v>
+        <v>1.046448870502649</v>
       </c>
       <c r="J14">
-        <v>1.003577643356581</v>
+        <v>1.030846295368034</v>
       </c>
       <c r="K14">
-        <v>1.014874580329666</v>
+        <v>1.036622225534095</v>
       </c>
       <c r="L14">
-        <v>0.9989101482873499</v>
+        <v>1.036796554683392</v>
       </c>
       <c r="M14">
-        <v>1.01127398980117</v>
+        <v>1.045064062539608</v>
       </c>
       <c r="N14">
-        <v>1.004919991548928</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.014134456002283</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.045493699911221</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.037033657801477</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9735442483899428</v>
+        <v>1.001924112119098</v>
       </c>
       <c r="D15">
-        <v>1.000344573855964</v>
+        <v>1.022366176796681</v>
       </c>
       <c r="E15">
-        <v>0.984132522145891</v>
+        <v>1.022634848202471</v>
       </c>
       <c r="F15">
-        <v>0.9967604988558759</v>
+        <v>1.031057028229714</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036495784308484</v>
+        <v>1.046561489341371</v>
       </c>
       <c r="J15">
-        <v>1.003902555053309</v>
+        <v>1.031066458453729</v>
       </c>
       <c r="K15">
-        <v>1.015188103458346</v>
+        <v>1.03680862049355</v>
       </c>
       <c r="L15">
-        <v>0.9992863795910382</v>
+        <v>1.037072536851362</v>
       </c>
       <c r="M15">
-        <v>1.011671498128251</v>
+        <v>1.045347283660724</v>
       </c>
       <c r="N15">
-        <v>1.005030789435278</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.014213221505598</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.045754942632369</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.037171301460913</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9766854949156207</v>
+        <v>1.004100472736341</v>
       </c>
       <c r="D16">
-        <v>1.002711075371113</v>
+        <v>1.023750009774406</v>
       </c>
       <c r="E16">
-        <v>0.9868837029114966</v>
+        <v>1.024394179885375</v>
       </c>
       <c r="F16">
-        <v>0.9996248263056081</v>
+        <v>1.032689980418062</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037228354829068</v>
+        <v>1.047049590993685</v>
       </c>
       <c r="J16">
-        <v>1.005775810799091</v>
+        <v>1.032076073846642</v>
       </c>
       <c r="K16">
-        <v>1.016995018061638</v>
+        <v>1.037667835451288</v>
       </c>
       <c r="L16">
-        <v>1.001456496845574</v>
+        <v>1.038301101969891</v>
       </c>
       <c r="M16">
-        <v>1.013964160260793</v>
+        <v>1.046458047920301</v>
       </c>
       <c r="N16">
-        <v>1.005669508197298</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.01455134206233</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.046594337671358</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.037781955093471</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9786305812866383</v>
+        <v>1.005350554509832</v>
       </c>
       <c r="D17">
-        <v>1.004177818946478</v>
+        <v>1.024532206323667</v>
       </c>
       <c r="E17">
-        <v>0.9885896979491023</v>
+        <v>1.02534480025288</v>
       </c>
       <c r="F17">
-        <v>1.001400683156131</v>
+        <v>1.033492253663124</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03767878016934</v>
+        <v>1.047291505465446</v>
       </c>
       <c r="J17">
-        <v>1.006935467755909</v>
+        <v>1.032604660299093</v>
       </c>
       <c r="K17">
-        <v>1.0181129902602</v>
+        <v>1.03812334814479</v>
       </c>
       <c r="L17">
-        <v>1.002800793317084</v>
+        <v>1.038922572303088</v>
       </c>
       <c r="M17">
-        <v>1.015384197814184</v>
+        <v>1.046937465345374</v>
       </c>
       <c r="N17">
-        <v>1.006064839658167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.014717972698295</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.046844826923979</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.038106601428976</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9797562395788956</v>
+        <v>1.00590642165601</v>
       </c>
       <c r="D18">
-        <v>1.005027121584242</v>
+        <v>1.024851760043885</v>
       </c>
       <c r="E18">
-        <v>0.9895778487290017</v>
+        <v>1.025655673411802</v>
       </c>
       <c r="F18">
-        <v>1.002429188266091</v>
+        <v>1.033601541947282</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037938283359938</v>
+        <v>1.047332390999388</v>
       </c>
       <c r="J18">
-        <v>1.00760646653188</v>
+        <v>1.032748133661096</v>
       </c>
       <c r="K18">
-        <v>1.018759640921871</v>
+        <v>1.038254878183134</v>
       </c>
       <c r="L18">
-        <v>1.003578940257452</v>
+        <v>1.039045778830948</v>
       </c>
       <c r="M18">
-        <v>1.016206122085372</v>
+        <v>1.046864424440311</v>
       </c>
       <c r="N18">
-        <v>1.00629355749567</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.014744432180138</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.046550596401987</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.038187989898089</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9801385773819389</v>
+        <v>1.005844686164103</v>
       </c>
       <c r="D19">
-        <v>1.005315670385608</v>
+        <v>1.024770293475015</v>
       </c>
       <c r="E19">
-        <v>0.9899136250816637</v>
+        <v>1.025391670605375</v>
       </c>
       <c r="F19">
-        <v>1.002778657970067</v>
+        <v>1.0330823630355</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038026225843912</v>
+        <v>1.047202292146891</v>
       </c>
       <c r="J19">
-        <v>1.007834354716302</v>
+        <v>1.032555344794992</v>
       </c>
       <c r="K19">
-        <v>1.01897922045416</v>
+        <v>1.038112404865444</v>
       </c>
       <c r="L19">
-        <v>1.003843271769666</v>
+        <v>1.038723773222268</v>
       </c>
       <c r="M19">
-        <v>1.016485312991019</v>
+        <v>1.046291864618587</v>
       </c>
       <c r="N19">
-        <v>1.006371230923739</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.014651566931516</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.045774190071873</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.038093636640572</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9784228157523777</v>
+        <v>1.00404272638969</v>
       </c>
       <c r="D20">
-        <v>1.004021098443763</v>
+        <v>1.023543563961759</v>
       </c>
       <c r="E20">
-        <v>0.9884073815285144</v>
+        <v>1.023530151942632</v>
       </c>
       <c r="F20">
-        <v>1.001210912199683</v>
+        <v>1.030855141430163</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037630788325955</v>
+        <v>1.046589630553364</v>
       </c>
       <c r="J20">
-        <v>1.006811610062346</v>
+        <v>1.031418692325634</v>
       </c>
       <c r="K20">
-        <v>1.017993608284401</v>
+        <v>1.037184686807512</v>
       </c>
       <c r="L20">
-        <v>1.002657182733506</v>
+        <v>1.03717149686667</v>
       </c>
       <c r="M20">
-        <v>1.015232502542645</v>
+        <v>1.044376303117569</v>
       </c>
       <c r="N20">
-        <v>1.006022618986543</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.014222672062565</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.043733879508631</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.037441617347626</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9727385900624592</v>
+        <v>0.9999244318412498</v>
       </c>
       <c r="D21">
-        <v>0.9997380772741912</v>
+        <v>1.020904312933941</v>
       </c>
       <c r="E21">
-        <v>0.9834276861006105</v>
+        <v>1.020100759303642</v>
       </c>
       <c r="F21">
-        <v>0.9960265844374915</v>
+        <v>1.027569027245922</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036306915859712</v>
+        <v>1.045608226839719</v>
       </c>
       <c r="J21">
-        <v>1.003422034169437</v>
+        <v>1.029425312868344</v>
       </c>
       <c r="K21">
-        <v>1.014724413561701</v>
+        <v>1.035500181964723</v>
       </c>
       <c r="L21">
-        <v>0.9987299781815491</v>
+        <v>1.034711067487515</v>
       </c>
       <c r="M21">
-        <v>1.01108362744462</v>
+        <v>1.042046265852093</v>
       </c>
       <c r="N21">
-        <v>1.004866926041065</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.013538807194897</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.041849188363092</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.036253830600402</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9690791676226596</v>
+        <v>0.9973099648760009</v>
       </c>
       <c r="D22">
-        <v>0.996985703851245</v>
+        <v>1.019231726442471</v>
       </c>
       <c r="E22">
-        <v>0.9802301872724773</v>
+        <v>1.017949326513037</v>
       </c>
       <c r="F22">
-        <v>0.9926967388604274</v>
+        <v>1.025533526833137</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03544428503372</v>
+        <v>1.044984066065979</v>
       </c>
       <c r="J22">
-        <v>1.001239161632625</v>
+        <v>1.02816868192556</v>
       </c>
       <c r="K22">
-        <v>1.012617111976873</v>
+        <v>1.034431589770817</v>
       </c>
       <c r="L22">
-        <v>0.9962037316826619</v>
+        <v>1.033173397249032</v>
       </c>
       <c r="M22">
-        <v>1.00841427652976</v>
+        <v>1.040615580510007</v>
       </c>
       <c r="N22">
-        <v>1.004122442827394</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.013108647537222</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.040716898067512</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.035484810461771</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9710274840187206</v>
+        <v>0.9986922133222187</v>
       </c>
       <c r="D23">
-        <v>0.9984505973684449</v>
+        <v>1.020109420659487</v>
       </c>
       <c r="E23">
-        <v>0.981931761731631</v>
+        <v>1.019085430979413</v>
       </c>
       <c r="F23">
-        <v>0.9944688286922432</v>
+        <v>1.026609429528086</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035904512392073</v>
+        <v>1.045310800269029</v>
       </c>
       <c r="J23">
-        <v>1.002401395814012</v>
+        <v>1.028829261306108</v>
       </c>
       <c r="K23">
-        <v>1.013739286053571</v>
+        <v>1.034988923023489</v>
       </c>
       <c r="L23">
-        <v>0.9975485217658204</v>
+        <v>1.033983768523642</v>
       </c>
       <c r="M23">
-        <v>1.009835288517405</v>
+        <v>1.041370510556719</v>
       </c>
       <c r="N23">
-        <v>1.004518849552248</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.01333384720842</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.041314374155923</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.035869250933865</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9785167234307978</v>
+        <v>1.004051717576061</v>
       </c>
       <c r="D24">
-        <v>1.004091932892029</v>
+        <v>1.023533704826019</v>
       </c>
       <c r="E24">
-        <v>0.9884897838353464</v>
+        <v>1.023506576884694</v>
       </c>
       <c r="F24">
-        <v>1.001296684109376</v>
+        <v>1.030797670547268</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03765248371915</v>
+        <v>1.046569863492637</v>
       </c>
       <c r="J24">
-        <v>1.006867592708636</v>
+        <v>1.0313946871193</v>
       </c>
       <c r="K24">
-        <v>1.018047568653877</v>
+        <v>1.037159773181873</v>
       </c>
       <c r="L24">
-        <v>1.002722092552802</v>
+        <v>1.03713309387282</v>
       </c>
       <c r="M24">
-        <v>1.015301066722944</v>
+        <v>1.044304701374403</v>
       </c>
       <c r="N24">
-        <v>1.006041702466439</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.014209925651615</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.043636583117356</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.037396654781333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9868616817948307</v>
+        <v>1.010083343896178</v>
       </c>
       <c r="D25">
-        <v>1.010395696060359</v>
+        <v>1.027408603103958</v>
       </c>
       <c r="E25">
-        <v>0.9958300512619992</v>
+        <v>1.028511449309242</v>
       </c>
       <c r="F25">
-        <v>1.008934645443454</v>
+        <v>1.035545468648813</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039555030438517</v>
+        <v>1.047956501783368</v>
       </c>
       <c r="J25">
-        <v>1.011839439429509</v>
+        <v>1.034276063986236</v>
       </c>
       <c r="K25">
-        <v>1.022834747574436</v>
+        <v>1.039595829947394</v>
       </c>
       <c r="L25">
-        <v>1.008493447065226</v>
+        <v>1.040682716272372</v>
       </c>
       <c r="M25">
-        <v>1.021395827971481</v>
+        <v>1.047615954265612</v>
       </c>
       <c r="N25">
-        <v>1.007735864159357</v>
+        <v>1.015193656513059</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.04625720173383</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.039116210032387</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_53/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.014730190095686</v>
+        <v>1.014168231036672</v>
       </c>
       <c r="D2">
-        <v>1.030391412346128</v>
+        <v>1.029275757994608</v>
       </c>
       <c r="E2">
-        <v>1.032387740106533</v>
+        <v>1.031876067884188</v>
       </c>
       <c r="F2">
-        <v>1.039231104007704</v>
+        <v>1.038824409580422</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.048987968368853</v>
+        <v>1.048519326752617</v>
       </c>
       <c r="J2">
-        <v>1.036479076032427</v>
+        <v>1.035933276032948</v>
       </c>
       <c r="K2">
-        <v>1.041442980870311</v>
+        <v>1.040341762410547</v>
       </c>
       <c r="L2">
-        <v>1.043413574730798</v>
+        <v>1.042908486411302</v>
       </c>
       <c r="M2">
-        <v>1.050169660139688</v>
+        <v>1.04976811246801</v>
       </c>
       <c r="N2">
-        <v>1.015943146656213</v>
+        <v>1.016640996607792</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.048278269969092</v>
+        <v>1.047960475223213</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.040374059056265</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.039604159902259</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022765789306048</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018040766335708</v>
+        <v>1.017375380060459</v>
       </c>
       <c r="D3">
-        <v>1.032534962134744</v>
+        <v>1.031277012622791</v>
       </c>
       <c r="E3">
-        <v>1.035162585692012</v>
+        <v>1.034556769128407</v>
       </c>
       <c r="F3">
-        <v>1.041870319959386</v>
+        <v>1.041390419647811</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.049714242787363</v>
+        <v>1.04917529265615</v>
       </c>
       <c r="J3">
-        <v>1.038051418586313</v>
+        <v>1.03740332682545</v>
       </c>
       <c r="K3">
-        <v>1.04276781135205</v>
+        <v>1.041524747475546</v>
       </c>
       <c r="L3">
-        <v>1.045364486034032</v>
+        <v>1.044765787683329</v>
       </c>
       <c r="M3">
-        <v>1.051994089508267</v>
+        <v>1.051519737704163</v>
       </c>
       <c r="N3">
-        <v>1.016479300975916</v>
+        <v>1.017038970198547</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.049722166723026</v>
+        <v>1.049346753703506</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.041308165004454</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.040437694844277</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022985544377142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020149295208465</v>
+        <v>1.01941865895979</v>
       </c>
       <c r="D4">
-        <v>1.033904215706076</v>
+        <v>1.032556022288077</v>
       </c>
       <c r="E4">
-        <v>1.036935453992601</v>
+        <v>1.036270163449835</v>
       </c>
       <c r="F4">
-        <v>1.043557741215319</v>
+        <v>1.043031626342522</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.050169838471559</v>
+        <v>1.049586284800543</v>
       </c>
       <c r="J4">
-        <v>1.039051255693972</v>
+        <v>1.038338347468779</v>
       </c>
       <c r="K4">
-        <v>1.043609967701972</v>
+        <v>1.042276782772081</v>
       </c>
       <c r="L4">
-        <v>1.046607636529072</v>
+        <v>1.045949693069945</v>
       </c>
       <c r="M4">
-        <v>1.053157417777316</v>
+        <v>1.05263702190539</v>
       </c>
       <c r="N4">
-        <v>1.016820176162696</v>
+        <v>1.017292099146666</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.050642850896474</v>
+        <v>1.050230998031995</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.041904531435065</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.040970421689331</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023122968325778</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021030519678124</v>
+        <v>1.020272745540237</v>
       </c>
       <c r="D5">
-        <v>1.034479526848535</v>
+        <v>1.03309374469537</v>
       </c>
       <c r="E5">
-        <v>1.037677880088929</v>
+        <v>1.036987837340416</v>
       </c>
       <c r="F5">
-        <v>1.044264268954142</v>
+        <v>1.043718927981977</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.050359921627076</v>
+        <v>1.049757772063168</v>
       </c>
       <c r="J5">
-        <v>1.039470044416338</v>
+        <v>1.038730116784848</v>
       </c>
       <c r="K5">
-        <v>1.043964261115017</v>
+        <v>1.042593502196527</v>
       </c>
       <c r="L5">
-        <v>1.047128128795708</v>
+        <v>1.046445504228186</v>
       </c>
       <c r="M5">
-        <v>1.05364431552251</v>
+        <v>1.053104745995161</v>
       </c>
       <c r="N5">
-        <v>1.016963191622237</v>
+        <v>1.017398357319441</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.051028192393191</v>
+        <v>1.050601165287199</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.042162194661463</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.041202228723237</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.02318075652426</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021181244201831</v>
+        <v>1.020418823253045</v>
       </c>
       <c r="D6">
-        <v>1.034580555445038</v>
+        <v>1.03318839405144</v>
       </c>
       <c r="E6">
-        <v>1.037805153560752</v>
+        <v>1.037110872515662</v>
       </c>
       <c r="F6">
-        <v>1.044384917141735</v>
+        <v>1.043836285153365</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.050394006125929</v>
+        <v>1.049788682525324</v>
       </c>
       <c r="J6">
-        <v>1.039543263624385</v>
+        <v>1.038798707865991</v>
       </c>
       <c r="K6">
-        <v>1.044028165155774</v>
+        <v>1.042651028174199</v>
       </c>
       <c r="L6">
-        <v>1.047218152559383</v>
+        <v>1.046531301197758</v>
       </c>
       <c r="M6">
-        <v>1.053728104093075</v>
+        <v>1.053185252022326</v>
       </c>
       <c r="N6">
-        <v>1.016988503501159</v>
+        <v>1.017417203511301</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.05109450447569</v>
+        <v>1.0506648795305</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.042216098836999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.041252492156394</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023191785845059</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020169751783402</v>
+        <v>1.019445103160111</v>
       </c>
       <c r="D7">
-        <v>1.033924450365992</v>
+        <v>1.032580312244193</v>
       </c>
       <c r="E7">
-        <v>1.036953253337972</v>
+        <v>1.036293351636364</v>
       </c>
       <c r="F7">
-        <v>1.043573368465271</v>
+        <v>1.043051418108477</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.050178746795289</v>
+        <v>1.049598045779069</v>
       </c>
       <c r="J7">
-        <v>1.039065309078113</v>
+        <v>1.038358235708257</v>
       </c>
       <c r="K7">
-        <v>1.04362710748482</v>
+        <v>1.042297926928375</v>
       </c>
       <c r="L7">
-        <v>1.046622380649828</v>
+        <v>1.045969763740906</v>
       </c>
       <c r="M7">
-        <v>1.053170040546533</v>
+        <v>1.05265376179986</v>
       </c>
       <c r="N7">
-        <v>1.016825815483787</v>
+        <v>1.017323922810824</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.050652840833892</v>
+        <v>1.050244246360238</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.041936704044875</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.04100742495101</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023128934895489</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.015866915286305</v>
+        <v>1.015289746573647</v>
       </c>
       <c r="D8">
-        <v>1.031135074124772</v>
+        <v>1.029985471204104</v>
       </c>
       <c r="E8">
-        <v>1.033340086777023</v>
+        <v>1.032814379878365</v>
       </c>
       <c r="F8">
-        <v>1.040135020915282</v>
+        <v>1.03971735315072</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.049244315345399</v>
+        <v>1.048761615911099</v>
       </c>
       <c r="J8">
-        <v>1.037024654503341</v>
+        <v>1.036463534995178</v>
       </c>
       <c r="K8">
-        <v>1.041909191199022</v>
+        <v>1.040774029322175</v>
       </c>
       <c r="L8">
-        <v>1.044086617062669</v>
+        <v>1.043567473924388</v>
       </c>
       <c r="M8">
-        <v>1.050797455307419</v>
+        <v>1.050384917263184</v>
       </c>
       <c r="N8">
-        <v>1.016130294427798</v>
+        <v>1.016863756901782</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.048775122298899</v>
+        <v>1.048448629717502</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.040726552710815</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.039934920871633</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022850205513516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.008003514797248</v>
+        <v>1.007679016509943</v>
       </c>
       <c r="D9">
-        <v>1.026059636904711</v>
+        <v>1.025252516607632</v>
       </c>
       <c r="E9">
-        <v>1.026781082611681</v>
+        <v>1.026484734796391</v>
       </c>
       <c r="F9">
-        <v>1.033905146878055</v>
+        <v>1.033666082101164</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.047475651239616</v>
+        <v>1.047162560846004</v>
       </c>
       <c r="J9">
-        <v>1.033276779821253</v>
+        <v>1.032963492884401</v>
       </c>
       <c r="K9">
-        <v>1.038743604428857</v>
+        <v>1.037948757180483</v>
       </c>
       <c r="L9">
-        <v>1.039454100663445</v>
+        <v>1.039162248182582</v>
       </c>
       <c r="M9">
-        <v>1.046471085583693</v>
+        <v>1.046235583666548</v>
       </c>
       <c r="N9">
-        <v>1.014851079580333</v>
+        <v>1.015924988926328</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.045351121536861</v>
+        <v>1.045164738779097</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.038485120527279</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.037933828941083</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022311243437021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.002628259645864</v>
+        <v>1.002508306242692</v>
       </c>
       <c r="D10">
-        <v>1.022624028681809</v>
+        <v>1.022072959360296</v>
       </c>
       <c r="E10">
-        <v>1.022367536142563</v>
+        <v>1.022255915668491</v>
       </c>
       <c r="F10">
-        <v>1.029765973792608</v>
+        <v>1.029671010723365</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.046253685179091</v>
+        <v>1.046071053265708</v>
       </c>
       <c r="J10">
-        <v>1.030737986638085</v>
+        <v>1.030622758018886</v>
       </c>
       <c r="K10">
-        <v>1.036596470730863</v>
+        <v>1.036054797223152</v>
       </c>
       <c r="L10">
-        <v>1.036344349800077</v>
+        <v>1.036234632648264</v>
       </c>
       <c r="M10">
-        <v>1.043617817077904</v>
+        <v>1.04352444340897</v>
       </c>
       <c r="N10">
-        <v>1.013988785734167</v>
+        <v>1.015410850867887</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.043144111204889</v>
+        <v>1.043070217028019</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.036983746368808</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.036613139992581</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021945646257856</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.000735652576294</v>
+        <v>1.000719727693956</v>
       </c>
       <c r="D11">
-        <v>1.021489507092753</v>
+        <v>1.021045787954094</v>
       </c>
       <c r="E11">
-        <v>1.021127067556884</v>
+        <v>1.021109004873655</v>
       </c>
       <c r="F11">
-        <v>1.028977015790427</v>
+        <v>1.028955076128564</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.045983960682499</v>
+        <v>1.045859850296273</v>
       </c>
       <c r="J11">
-        <v>1.03007785953246</v>
+        <v>1.030062595774458</v>
       </c>
       <c r="K11">
-        <v>1.03601723122321</v>
+        <v>1.035581433594854</v>
       </c>
       <c r="L11">
-        <v>1.035661261482156</v>
+        <v>1.035643521386245</v>
       </c>
       <c r="M11">
-        <v>1.043372403703474</v>
+        <v>1.043350848164207</v>
       </c>
       <c r="N11">
-        <v>1.013800783378957</v>
+        <v>1.015513982682689</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.04338364744913</v>
+        <v>1.043366597282515</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.036606974543412</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.036314440851962</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021891631679881</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.000203910859063</v>
+        <v>1.000217295981296</v>
       </c>
       <c r="D12">
-        <v>1.021198214708451</v>
+        <v>1.020781495242427</v>
       </c>
       <c r="E12">
-        <v>1.020918296527948</v>
+        <v>1.020926555853087</v>
       </c>
       <c r="F12">
-        <v>1.029056643532659</v>
+        <v>1.029055185228796</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.045982494719222</v>
+        <v>1.045873010422721</v>
       </c>
       <c r="J12">
-        <v>1.029999643317828</v>
+        <v>1.030012462297457</v>
       </c>
       <c r="K12">
-        <v>1.03593025549297</v>
+        <v>1.035521098430063</v>
       </c>
       <c r="L12">
-        <v>1.035655416233173</v>
+        <v>1.035663525646729</v>
       </c>
       <c r="M12">
-        <v>1.043647562029251</v>
+        <v>1.04364612965423</v>
       </c>
       <c r="N12">
-        <v>1.013803132578864</v>
+        <v>1.015622536137594</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.043925950019198</v>
+        <v>1.043924817407586</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.036545480144544</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.036271782974391</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021906624674792</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.00069414020567</v>
+        <v>1.000671458744823</v>
       </c>
       <c r="D13">
-        <v>1.021549948361392</v>
+        <v>1.021092953116451</v>
       </c>
       <c r="E13">
-        <v>1.02150114503574</v>
+        <v>1.021477041844313</v>
       </c>
       <c r="F13">
-        <v>1.02982927927433</v>
+        <v>1.029802510319656</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.046198854175121</v>
+        <v>1.046066495407957</v>
       </c>
       <c r="J13">
-        <v>1.030376638108169</v>
+        <v>1.030354911198451</v>
       </c>
       <c r="K13">
-        <v>1.036232923792354</v>
+        <v>1.035784187173592</v>
       </c>
       <c r="L13">
-        <v>1.036185001961704</v>
+        <v>1.03616133416713</v>
       </c>
       <c r="M13">
-        <v>1.044364280357227</v>
+        <v>1.044337984864385</v>
       </c>
       <c r="N13">
-        <v>1.013957537927781</v>
+        <v>1.015710880240197</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.044767970608507</v>
+        <v>1.044747183337418</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.03675698862979</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.036455061349963</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021979720789753</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.001500229736282</v>
+        <v>1.001423329978971</v>
       </c>
       <c r="D14">
-        <v>1.022088746108513</v>
+        <v>1.021573685791551</v>
       </c>
       <c r="E14">
-        <v>1.022266240792345</v>
+        <v>1.022193471776675</v>
       </c>
       <c r="F14">
-        <v>1.030682223065492</v>
+        <v>1.030617500923808</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.046448870502649</v>
+        <v>1.046283991240055</v>
       </c>
       <c r="J14">
-        <v>1.030846295368034</v>
+        <v>1.030772586018684</v>
       </c>
       <c r="K14">
-        <v>1.036622225534095</v>
+        <v>1.036116359162649</v>
       </c>
       <c r="L14">
-        <v>1.036796554683392</v>
+        <v>1.03672508329641</v>
       </c>
       <c r="M14">
-        <v>1.045064062539608</v>
+        <v>1.045000470240776</v>
       </c>
       <c r="N14">
-        <v>1.014134456002283</v>
+        <v>1.01576479954659</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.045493699911221</v>
+        <v>1.045443435277576</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.037033657801477</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.036691471998866</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022057723642072</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.001924112119098</v>
+        <v>1.001820323588804</v>
       </c>
       <c r="D15">
-        <v>1.022366176796681</v>
+        <v>1.021822635828648</v>
       </c>
       <c r="E15">
-        <v>1.022634848202471</v>
+        <v>1.022537930638015</v>
       </c>
       <c r="F15">
-        <v>1.031057028229714</v>
+        <v>1.030973501413716</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.046561489341371</v>
+        <v>1.046380825100362</v>
       </c>
       <c r="J15">
-        <v>1.031066458453729</v>
+        <v>1.030966938756139</v>
       </c>
       <c r="K15">
-        <v>1.03680862049355</v>
+        <v>1.036274709238687</v>
       </c>
       <c r="L15">
-        <v>1.037072536851362</v>
+        <v>1.036977334196812</v>
       </c>
       <c r="M15">
-        <v>1.045347283660724</v>
+        <v>1.045265203708708</v>
       </c>
       <c r="N15">
-        <v>1.014213221505598</v>
+        <v>1.015778441127872</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.045754942632369</v>
+        <v>1.045690066681824</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.037171301460913</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.036809856054659</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02209152987882</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.004100472736341</v>
+        <v>1.003873034858699</v>
       </c>
       <c r="D16">
-        <v>1.023750009774406</v>
+        <v>1.023074037583386</v>
       </c>
       <c r="E16">
-        <v>1.024394179885375</v>
+        <v>1.024186067023696</v>
       </c>
       <c r="F16">
-        <v>1.032689980418062</v>
+        <v>1.0325199769747</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.047049590993685</v>
+        <v>1.046797042205722</v>
       </c>
       <c r="J16">
-        <v>1.032076073846642</v>
+        <v>1.03185753010383</v>
       </c>
       <c r="K16">
-        <v>1.037667835451288</v>
+        <v>1.037003324211218</v>
       </c>
       <c r="L16">
-        <v>1.038301101969891</v>
+        <v>1.038096509810355</v>
       </c>
       <c r="M16">
-        <v>1.046458047920301</v>
+        <v>1.046290861154801</v>
       </c>
       <c r="N16">
-        <v>1.01455134206233</v>
+        <v>1.015809127027287</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.046594337671358</v>
+        <v>1.046462189595972</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.037781955093471</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.037328471085759</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022228342271492</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.005350554509832</v>
+        <v>1.005063982964811</v>
       </c>
       <c r="D17">
-        <v>1.024532206323667</v>
+        <v>1.023790252952994</v>
       </c>
       <c r="E17">
-        <v>1.02534480025288</v>
+        <v>1.025083389186807</v>
       </c>
       <c r="F17">
-        <v>1.033492253663124</v>
+        <v>1.033280809563365</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.047291505465446</v>
+        <v>1.047004201546034</v>
       </c>
       <c r="J17">
-        <v>1.032604660299093</v>
+        <v>1.032328941112471</v>
       </c>
       <c r="K17">
-        <v>1.03812334814479</v>
+        <v>1.037393626132135</v>
       </c>
       <c r="L17">
-        <v>1.038922572303088</v>
+        <v>1.038665459311129</v>
       </c>
       <c r="M17">
-        <v>1.046937465345374</v>
+        <v>1.046729427568762</v>
       </c>
       <c r="N17">
-        <v>1.014717972698295</v>
+        <v>1.015833104550954</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.046844826923979</v>
+        <v>1.046680373064949</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.038106601428976</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.037607259140561</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022293293991843</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.00590642165601</v>
+        <v>1.005601910544957</v>
       </c>
       <c r="D18">
-        <v>1.024851760043885</v>
+        <v>1.024088933557769</v>
       </c>
       <c r="E18">
-        <v>1.025655673411802</v>
+        <v>1.02537799681181</v>
       </c>
       <c r="F18">
-        <v>1.033601541947282</v>
+        <v>1.033377398735396</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.047332390999388</v>
+        <v>1.047034927093322</v>
       </c>
       <c r="J18">
-        <v>1.032748133661096</v>
+        <v>1.032454942244967</v>
       </c>
       <c r="K18">
-        <v>1.038254878183134</v>
+        <v>1.037504423616102</v>
       </c>
       <c r="L18">
-        <v>1.039045778830948</v>
+        <v>1.038772593942746</v>
       </c>
       <c r="M18">
-        <v>1.046864424440311</v>
+        <v>1.046643835681156</v>
       </c>
       <c r="N18">
-        <v>1.014744432180138</v>
+        <v>1.015810076537765</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.046550596401987</v>
+        <v>1.046376184997181</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.038187989898089</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.037672854042</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022295295797067</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.005844686164103</v>
+        <v>1.005553402374253</v>
       </c>
       <c r="D19">
-        <v>1.024770293475015</v>
+        <v>1.024022931501675</v>
       </c>
       <c r="E19">
-        <v>1.025391670605375</v>
+        <v>1.025125796772947</v>
       </c>
       <c r="F19">
-        <v>1.0330823630355</v>
+        <v>1.0328673060845</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.047202292146891</v>
+        <v>1.046913883666713</v>
       </c>
       <c r="J19">
-        <v>1.032555344794992</v>
+        <v>1.032274827432701</v>
       </c>
       <c r="K19">
-        <v>1.038112404865444</v>
+        <v>1.037377101607022</v>
       </c>
       <c r="L19">
-        <v>1.038723773222268</v>
+        <v>1.038462180021906</v>
       </c>
       <c r="M19">
-        <v>1.046291864618587</v>
+        <v>1.046080204224928</v>
       </c>
       <c r="N19">
-        <v>1.014651566931516</v>
+        <v>1.015730122059378</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.045774190071873</v>
+        <v>1.045606783916721</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.038093636640572</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.037589838343577</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022245843146986</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.00404272638969</v>
+        <v>1.003849748392353</v>
       </c>
       <c r="D20">
-        <v>1.023543563961759</v>
+        <v>1.022911399307023</v>
       </c>
       <c r="E20">
-        <v>1.023530151942632</v>
+        <v>1.023352760330791</v>
       </c>
       <c r="F20">
-        <v>1.030855141430163</v>
+        <v>1.030708868481731</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.046589630553364</v>
+        <v>1.046363173413135</v>
       </c>
       <c r="J20">
-        <v>1.031418692325634</v>
+        <v>1.031233071079738</v>
       </c>
       <c r="K20">
-        <v>1.037184686807512</v>
+        <v>1.036562997784526</v>
       </c>
       <c r="L20">
-        <v>1.03717149686667</v>
+        <v>1.03699704323753</v>
       </c>
       <c r="M20">
-        <v>1.044376303117569</v>
+        <v>1.044232408639783</v>
       </c>
       <c r="N20">
-        <v>1.014222672062565</v>
+        <v>1.015479303263305</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.043733879508631</v>
+        <v>1.043620002754386</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.037441617347626</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.037018538567278</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022046812225588</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9999244318412498</v>
+        <v>0.9999834462095138</v>
       </c>
       <c r="D21">
-        <v>1.020904312933941</v>
+        <v>1.020539085651276</v>
       </c>
       <c r="E21">
-        <v>1.020100759303642</v>
+        <v>1.020150001833608</v>
       </c>
       <c r="F21">
-        <v>1.027569027245922</v>
+        <v>1.027599757650517</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.045608226839719</v>
+        <v>1.045529622527212</v>
       </c>
       <c r="J21">
-        <v>1.029425312868344</v>
+        <v>1.029481859546651</v>
       </c>
       <c r="K21">
-        <v>1.035500181964723</v>
+        <v>1.035141513833051</v>
       </c>
       <c r="L21">
-        <v>1.034711067487515</v>
+        <v>1.034759424322245</v>
       </c>
       <c r="M21">
-        <v>1.042046265852093</v>
+        <v>1.042076453883743</v>
       </c>
       <c r="N21">
-        <v>1.013538807194897</v>
+        <v>1.015418828455198</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.041849188363092</v>
+        <v>1.041873080121089</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.036253830600402</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.036017044274943</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021769164793992</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9973099648760009</v>
+        <v>0.9975283423318575</v>
       </c>
       <c r="D22">
-        <v>1.019231726442471</v>
+        <v>1.019035360685307</v>
       </c>
       <c r="E22">
-        <v>1.017949326513037</v>
+        <v>1.018141605116945</v>
       </c>
       <c r="F22">
-        <v>1.025533526833137</v>
+        <v>1.025676302599034</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.044984066065979</v>
+        <v>1.044999100063263</v>
       </c>
       <c r="J22">
-        <v>1.02816868192556</v>
+        <v>1.028377403464609</v>
       </c>
       <c r="K22">
-        <v>1.034431589770817</v>
+        <v>1.034238925578839</v>
       </c>
       <c r="L22">
-        <v>1.033173397249032</v>
+        <v>1.033362041199264</v>
       </c>
       <c r="M22">
-        <v>1.040615580510007</v>
+        <v>1.04075570900887</v>
       </c>
       <c r="N22">
-        <v>1.013108647537222</v>
+        <v>1.015376193018479</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.040716898067512</v>
+        <v>1.040827800337136</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.035484810461771</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.035364095014095</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021591444727678</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,105 +1741,123 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9986922133222187</v>
+        <v>0.998815347493524</v>
       </c>
       <c r="D23">
-        <v>1.020109420659487</v>
+        <v>1.019815531897145</v>
       </c>
       <c r="E23">
-        <v>1.019085430979413</v>
+        <v>1.019192269314283</v>
       </c>
       <c r="F23">
-        <v>1.026609429528086</v>
+        <v>1.026685241642251</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.045310800269029</v>
+        <v>1.045270753073185</v>
       </c>
       <c r="J23">
-        <v>1.028829261306108</v>
+        <v>1.028947108441108</v>
       </c>
       <c r="K23">
-        <v>1.034988923023489</v>
+        <v>1.034700434984593</v>
       </c>
       <c r="L23">
-        <v>1.033983768523642</v>
+        <v>1.034088639378886</v>
       </c>
       <c r="M23">
-        <v>1.041370510556719</v>
+        <v>1.041444952978772</v>
       </c>
       <c r="N23">
-        <v>1.01333384720842</v>
+        <v>1.015354334886836</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.041314374155923</v>
+        <v>1.041373290272893</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.035869250933865</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.035679841824777</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021680266983805</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C24">
-        <v>1.004051717576061</v>
+        <v>1.003859412398445</v>
       </c>
       <c r="D24">
-        <v>1.023533704826019</v>
+        <v>1.022902273809503</v>
       </c>
       <c r="E24">
-        <v>1.023506576884694</v>
+        <v>1.023329781137281</v>
       </c>
       <c r="F24">
-        <v>1.030797670547268</v>
+        <v>1.030651850487083</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.046569863492637</v>
+        <v>1.046343964337537</v>
       </c>
       <c r="J24">
-        <v>1.0313946871193</v>
+        <v>1.031209702566498</v>
       </c>
       <c r="K24">
-        <v>1.037159773181873</v>
+        <v>1.036538792488739</v>
       </c>
       <c r="L24">
-        <v>1.03713309387282</v>
+        <v>1.03695922266068</v>
       </c>
       <c r="M24">
-        <v>1.044304701374403</v>
+        <v>1.044161249728394</v>
       </c>
       <c r="N24">
-        <v>1.014209925651615</v>
+        <v>1.015465642117629</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.043636583117356</v>
+        <v>1.043523051240081</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.037396654781333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.036971403918331</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022036789833905</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.010083343896178</v>
+        <v>1.009683064293098</v>
       </c>
       <c r="D25">
-        <v>1.027408603103958</v>
+        <v>1.026504678585662</v>
       </c>
       <c r="E25">
-        <v>1.028511449309242</v>
+        <v>1.028146490929075</v>
       </c>
       <c r="F25">
-        <v>1.035545468648813</v>
+        <v>1.035252955749174</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.047956501783368</v>
+        <v>1.047594284151023</v>
       </c>
       <c r="J25">
-        <v>1.034276063986236</v>
+        <v>1.033888891916216</v>
       </c>
       <c r="K25">
-        <v>1.039595829947394</v>
+        <v>1.038705019032185</v>
       </c>
       <c r="L25">
-        <v>1.040682716272372</v>
+        <v>1.040323034597102</v>
       </c>
       <c r="M25">
-        <v>1.047615954265612</v>
+        <v>1.047327597882172</v>
       </c>
       <c r="N25">
-        <v>1.015193656513059</v>
+        <v>1.016144017054536</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.04625720173383</v>
+        <v>1.046028988758533</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.039116210032387</v>
+        <v>1.038499871606113</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022459154439767</v>
       </c>
     </row>
   </sheetData>
